--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\conferences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7A30A4-086A-4543-B685-064AD36C202E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E974A-F7DD-44B0-9C76-0A519FC3806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="105" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="623">
   <si>
     <t>video_id</t>
   </si>
@@ -37,6 +37,12 @@
     <t>type</t>
   </si>
   <si>
+    <t>categorie1</t>
+  </si>
+  <si>
+    <t>categorie2</t>
+  </si>
+  <si>
     <t>tag1</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
     <t>tag4</t>
   </si>
   <si>
+    <t>tag5</t>
+  </si>
+  <si>
     <t>startTimeCode</t>
   </si>
   <si>
@@ -70,9 +79,6 @@
     <t>tn_link</t>
   </si>
   <si>
-    <t>video_type</t>
-  </si>
-  <si>
     <t>Unnamed: 0</t>
   </si>
   <si>
@@ -280,6 +286,66 @@
     <t>https://www.youtube.com/watch?v=7m3IFmeJEYs</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=_xTA4Ksrj5Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=54tif2wX4HI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6_hfvgOcSTQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ojmopAyViZE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xMUEhm9vFvQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rIG1_GgChLw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LC9Zp00l60c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D5o67mGcbik</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jU7gYF5txc0&amp;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VCaZiGS60Is</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i6f4PKukLg0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pWdFxocXuHs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zmT8MHMIOLg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qrpp1Mh8EDo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=runwy5hbu_o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rO6Be3PbPi0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zvL-YdehLM8?si=V_eiJ-GbQxk52pKB</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IgFzmg8rlAQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/l27Jf04oBn4?si=14Ot5uRghLqkBmYb</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LDueZn4bWUU</t>
+  </si>
+  <si>
     <t>Le goût du vrai</t>
   </si>
   <si>
@@ -484,6 +550,66 @@
     <t>Les prodigieux théorèmes de Monsieur Nash</t>
   </si>
   <si>
+    <t>Des concepts aux applications : les deux révolutions quantiques</t>
+  </si>
+  <si>
+    <t>Conférence à Toulouse</t>
+  </si>
+  <si>
+    <t>Du photon d'Einstein à la cryptographie quantique</t>
+  </si>
+  <si>
+    <t>De mâle en père. À la recherche de l'instinct paternel</t>
+  </si>
+  <si>
+    <t>Le grand anneau du CERN, le boson de Higgs et les deux infinis</t>
+  </si>
+  <si>
+    <t>Homme / Animal : coupure ou partage ?</t>
+  </si>
+  <si>
+    <t>Du moderne au contemporain - L'art, ou la possibilité de l'impossible</t>
+  </si>
+  <si>
+    <t>Sur les routes du jazz : à la recherche de la note bleue</t>
+  </si>
+  <si>
+    <t>Voyage au pays des microbes</t>
+  </si>
+  <si>
+    <t>La nature du langage mathématique : explorations en imagerie cérébrale</t>
+  </si>
+  <si>
+    <t>Comprendre le sanskrit : de la grammaire de Pānini aux machines d'Eilenberg</t>
+  </si>
+  <si>
+    <t>Les langages informatiques : de la pensée à l'exécution automatique</t>
+  </si>
+  <si>
+    <t>Langage mathématique</t>
+  </si>
+  <si>
+    <t>Les mathématiques et la pensée en mouvement</t>
+  </si>
+  <si>
+    <t>Parcours d'un Mathématicien</t>
+  </si>
+  <si>
+    <t>Alexandre Grothendieck, créateur réfugié en lui-même</t>
+  </si>
+  <si>
+    <t>Développer la coopération, la confiance et l’autonomie des élèves : pourquoi et comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel monde pour demain ? </t>
+  </si>
+  <si>
+    <t>Introduction aux expérimentations en éducation</t>
+  </si>
+  <si>
+    <t>Comment le langage fabrique le monde ?</t>
+  </si>
+  <si>
     <t>Etienne Klein</t>
   </si>
   <si>
@@ -541,12 +667,99 @@
     <t>Catherine Lenne</t>
   </si>
   <si>
+    <t>Jean Tirole</t>
+  </si>
+  <si>
+    <t>Frank Cezilly</t>
+  </si>
+  <si>
+    <t>Michel Spiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillaume Lecointre </t>
+  </si>
+  <si>
+    <t>Alain Badiou</t>
+  </si>
+  <si>
+    <t>André Manoukian</t>
+  </si>
+  <si>
+    <t>Marc-André Selosse</t>
+  </si>
+  <si>
+    <t>Gérard Huet</t>
+  </si>
+  <si>
+    <t>Gérard Berry</t>
+  </si>
+  <si>
+    <t>Alain Connes</t>
+  </si>
+  <si>
+    <t>Élise Huillery</t>
+  </si>
+  <si>
+    <t>Esther Duflo</t>
+  </si>
+  <si>
+    <t>Francis Wolff</t>
+  </si>
+  <si>
     <t>Conférence</t>
   </si>
   <si>
     <t>Interview</t>
   </si>
   <si>
+    <t>Philosophie</t>
+  </si>
+  <si>
+    <t>Physique</t>
+  </si>
+  <si>
+    <t>Biologie</t>
+  </si>
+  <si>
+    <t>Economie</t>
+  </si>
+  <si>
+    <t>Mathématiques</t>
+  </si>
+  <si>
+    <t>Chimie</t>
+  </si>
+  <si>
+    <t>Neuropsychologie</t>
+  </si>
+  <si>
+    <t>Zététique</t>
+  </si>
+  <si>
+    <t>Sociologie</t>
+  </si>
+  <si>
+    <t>Ecologie</t>
+  </si>
+  <si>
+    <t>Musique</t>
+  </si>
+  <si>
+    <t>Neurosciences</t>
+  </si>
+  <si>
+    <t>Linguistique</t>
+  </si>
+  <si>
+    <t>Informatique</t>
+  </si>
+  <si>
+    <t>Psychologie</t>
+  </si>
+  <si>
+    <t>Politique</t>
+  </si>
+  <si>
     <t>Le vrai</t>
   </si>
   <si>
@@ -658,6 +871,36 @@
     <t>Le climat</t>
   </si>
   <si>
+    <t>L'économie</t>
+  </si>
+  <si>
+    <t>Le CERN</t>
+  </si>
+  <si>
+    <t>L'art</t>
+  </si>
+  <si>
+    <t>Le jazz</t>
+  </si>
+  <si>
+    <t>Les microbes</t>
+  </si>
+  <si>
+    <t>Le langage</t>
+  </si>
+  <si>
+    <t>Le sanskrit</t>
+  </si>
+  <si>
+    <t>Histoires de vie</t>
+  </si>
+  <si>
+    <t>Philosophie des sciences</t>
+  </si>
+  <si>
+    <t>Le système éducatif</t>
+  </si>
+  <si>
     <t>La politique</t>
   </si>
   <si>
@@ -667,22 +910,22 @@
     <t>La pensée</t>
   </si>
   <si>
-    <t>Le vivant</t>
-  </si>
-  <si>
     <t>La génétique</t>
   </si>
   <si>
+    <t>L'astrophysique</t>
+  </si>
+  <si>
     <t>La Terre</t>
   </si>
   <si>
-    <t>Philosophie des sciences</t>
+    <t>Les sciences</t>
   </si>
   <si>
     <t>Les ingénieurs</t>
   </si>
   <si>
-    <t xml:space="preserve">Economie </t>
+    <t>Le bien commun</t>
   </si>
   <si>
     <t>Le revenu universel</t>
@@ -697,55 +940,70 @@
     <t>Histoire de vie</t>
   </si>
   <si>
+    <t>La cryptographie quantique</t>
+  </si>
+  <si>
+    <t>La paternité</t>
+  </si>
+  <si>
+    <t>L'impossible</t>
+  </si>
+  <si>
+    <t>Le blues</t>
+  </si>
+  <si>
+    <t>Les parasites</t>
+  </si>
+  <si>
+    <t>L'informatique</t>
+  </si>
+  <si>
+    <t>Grothendieck</t>
+  </si>
+  <si>
+    <t>Les mathématiciens</t>
+  </si>
+  <si>
+    <t>La confiance</t>
+  </si>
+  <si>
     <t>Darwin</t>
   </si>
   <si>
     <t>L'énergie</t>
   </si>
   <si>
+    <t>La créativité</t>
+  </si>
+  <si>
     <t>John Nash</t>
   </si>
   <si>
-    <t>Espace des Sciences</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>College de France</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Thinkerview</t>
-  </si>
-  <si>
-    <t>Liege</t>
-  </si>
-  <si>
-    <t>Central Supelec</t>
-  </si>
-  <si>
-    <t>Suisse</t>
-  </si>
-  <si>
-    <t>SciencePo</t>
-  </si>
-  <si>
-    <t>ESCP</t>
-  </si>
-  <si>
-    <t>HEC</t>
-  </si>
-  <si>
-    <t>ENS</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Université de Liège</t>
+    <t>La lumière</t>
+  </si>
+  <si>
+    <t>Le boson de Higgs</t>
+  </si>
+  <si>
+    <t>L'Homme</t>
+  </si>
+  <si>
+    <t>L'art contemporain</t>
+  </si>
+  <si>
+    <t>L'automatisation</t>
+  </si>
+  <si>
+    <t>Heisenberg</t>
+  </si>
+  <si>
+    <t>La coopération</t>
+  </si>
+  <si>
+    <t>Von Neumann</t>
+  </si>
+  <si>
+    <t>Le système scolaire</t>
   </si>
   <si>
     <t>00:03:58</t>
@@ -922,6 +1180,45 @@
     <t>00:02:01</t>
   </si>
   <si>
+    <t>00:13:33</t>
+  </si>
+  <si>
+    <t>00:07:05</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>00:07:06</t>
+  </si>
+  <si>
+    <t>00:13:07</t>
+  </si>
+  <si>
+    <t>00:19:49</t>
+  </si>
+  <si>
+    <t>00:09:05</t>
+  </si>
+  <si>
+    <t>00:04:44</t>
+  </si>
+  <si>
+    <t>00:09:15</t>
+  </si>
+  <si>
+    <t>00:01:27</t>
+  </si>
+  <si>
+    <t>00:00:48</t>
+  </si>
+  <si>
+    <t>00:04:19</t>
+  </si>
+  <si>
+    <t>00:02:05</t>
+  </si>
+  <si>
     <t>01:20:31</t>
   </si>
   <si>
@@ -1039,6 +1336,27 @@
     <t>01:06:40</t>
   </si>
   <si>
+    <t>01:36:04</t>
+  </si>
+  <si>
+    <t>00:56:59</t>
+  </si>
+  <si>
+    <t>01:31:59</t>
+  </si>
+  <si>
+    <t>01:11:10</t>
+  </si>
+  <si>
+    <t>01:17:00</t>
+  </si>
+  <si>
+    <t>01:12:51</t>
+  </si>
+  <si>
+    <t>01:02:20</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
@@ -1249,6 +1567,66 @@
     <t>01:31:35</t>
   </si>
   <si>
+    <t>02:05:25</t>
+  </si>
+  <si>
+    <t>01:45:47</t>
+  </si>
+  <si>
+    <t>01:14:03</t>
+  </si>
+  <si>
+    <t>01:37:48</t>
+  </si>
+  <si>
+    <t>01:46:55</t>
+  </si>
+  <si>
+    <t>01:39:49</t>
+  </si>
+  <si>
+    <t>01:09:34</t>
+  </si>
+  <si>
+    <t>01:04:36</t>
+  </si>
+  <si>
+    <t>01:25:07</t>
+  </si>
+  <si>
+    <t>00:36:16</t>
+  </si>
+  <si>
+    <t>00:39:51</t>
+  </si>
+  <si>
+    <t>00:42:46</t>
+  </si>
+  <si>
+    <t>00:40:35</t>
+  </si>
+  <si>
+    <t>01:55:03</t>
+  </si>
+  <si>
+    <t>01:20:55</t>
+  </si>
+  <si>
+    <t>00:31:47</t>
+  </si>
+  <si>
+    <t>00:56:47</t>
+  </si>
+  <si>
+    <t>01:38:36</t>
+  </si>
+  <si>
+    <t>00:52:15</t>
+  </si>
+  <si>
+    <t>01:14:49</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/2byu0bYPj0c/hq720.jpg</t>
   </si>
   <si>
@@ -1444,13 +1822,73 @@
     <t>https://i.ytimg.com/vi/MSzQ8Fb6Y3s/hq720.jpg?v=662b76cc</t>
   </si>
   <si>
-    <t>http://i3.ytimg.com/vi/OTXv9iZVRNg/hq720.jpg</t>
-  </si>
-  <si>
     <t>https://i.ytimg.com/vi/xzVK5kS-dvA/hq720.jpg?v=659d63c1</t>
   </si>
   <si>
     <t>https://i.ytimg.com/vi/7m3IFmeJEYs/hq720.jpg?sqp=-oaymwEmCIAKENAF8quKqQMa8AEB-AHUBoAC4AOKAgwIABABGGUgTihJMA8=&amp;rs=AOn4CLDNK_rxEk__JEbuXgiva_uy-aw77w</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/_xTA4Ksrj5Q/hq720.jpg?v=6602d52d</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/54tif2wX4HI/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/6_hfvgOcSTQ/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ojmopAyViZE/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/xMUEhm9vFvQ/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/rIG1_GgChLw/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/LC9Zp00l60c/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/D5o67mGcbik/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/jU7gYF5txc0/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/VCaZiGS60Is/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/i6f4PKukLg0/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/pWdFxocXuHs/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/zmT8MHMIOLg/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/qrpp1Mh8EDo/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/runwy5hbu_o/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/rO6Be3PbPi0/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/zvL-YdehLM8/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/IgFzmg8rlAQ/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/l27Jf04oBn4/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/LDueZn4bWUU/hq720.jpg?v=61e133bc</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/5r6cVCW/confrencesfr-high-resolution-logo.png</t>
   </si>
 </sst>
 </file>
@@ -1835,34 +2273,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="188.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,3086 +2339,4418 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L2" t="s">
-        <v>339</v>
+        <v>230</v>
+      </c>
+      <c r="G2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" t="s">
+        <v>246</v>
       </c>
       <c r="M2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="N2" t="s">
-        <v>343</v>
-      </c>
-      <c r="O2" s="3">
+        <v>399</v>
+      </c>
+      <c r="O2" t="s">
+        <v>445</v>
+      </c>
+      <c r="P2" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>449</v>
+      </c>
+      <c r="R2" s="3">
         <v>44144</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K3" t="s">
-        <v>301</v>
-      </c>
-      <c r="L3" t="s">
-        <v>340</v>
+        <v>231</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>267</v>
       </c>
       <c r="M3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="N3" t="s">
-        <v>344</v>
-      </c>
-      <c r="O3" s="3">
+        <v>400</v>
+      </c>
+      <c r="O3" t="s">
+        <v>446</v>
+      </c>
+      <c r="P3" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>450</v>
+      </c>
+      <c r="R3" s="3">
         <v>42516</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" t="s">
-        <v>302</v>
-      </c>
-      <c r="L4" t="s">
-        <v>339</v>
+        <v>230</v>
+      </c>
+      <c r="G4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>230</v>
       </c>
       <c r="M4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="N4" t="s">
-        <v>345</v>
-      </c>
-      <c r="O4" s="3">
+        <v>401</v>
+      </c>
+      <c r="O4" t="s">
+        <v>445</v>
+      </c>
+      <c r="P4" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>451</v>
+      </c>
+      <c r="R4" s="3">
         <v>42541</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" t="s">
-        <v>245</v>
-      </c>
-      <c r="K5" t="s">
-        <v>303</v>
-      </c>
-      <c r="L5" t="s">
-        <v>339</v>
+        <v>231</v>
+      </c>
+      <c r="H5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" t="s">
+        <v>267</v>
       </c>
       <c r="M5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="N5" t="s">
-        <v>346</v>
-      </c>
-      <c r="O5" s="3">
+        <v>402</v>
+      </c>
+      <c r="O5" t="s">
+        <v>445</v>
+      </c>
+      <c r="P5" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>452</v>
+      </c>
+      <c r="R5" s="3">
         <v>42420</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K6" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" t="s">
-        <v>339</v>
+        <v>230</v>
+      </c>
+      <c r="G6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" t="s">
+        <v>248</v>
       </c>
       <c r="M6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="N6" t="s">
-        <v>347</v>
-      </c>
-      <c r="O6" s="3">
+        <v>403</v>
+      </c>
+      <c r="O6" t="s">
+        <v>445</v>
+      </c>
+      <c r="P6" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>453</v>
+      </c>
+      <c r="R6" s="3">
         <v>44691</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" t="s">
-        <v>203</v>
+        <v>231</v>
+      </c>
+      <c r="H7" t="s">
+        <v>249</v>
       </c>
       <c r="I7" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="J7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" t="s">
         <v>305</v>
       </c>
-      <c r="L7" t="s">
-        <v>339</v>
-      </c>
       <c r="M7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N7" t="s">
-        <v>348</v>
-      </c>
-      <c r="O7" s="3">
+        <v>404</v>
+      </c>
+      <c r="O7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>454</v>
+      </c>
+      <c r="R7" s="3">
         <v>41729</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K8" t="s">
-        <v>306</v>
-      </c>
-      <c r="L8" t="s">
-        <v>339</v>
+        <v>245</v>
+      </c>
+      <c r="H8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" t="s">
+        <v>293</v>
       </c>
       <c r="M8" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N8" t="s">
-        <v>349</v>
-      </c>
-      <c r="O8" s="3">
+        <v>405</v>
+      </c>
+      <c r="O8" t="s">
+        <v>445</v>
+      </c>
+      <c r="P8" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>455</v>
+      </c>
+      <c r="R8" s="3">
         <v>45281</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>231</v>
+      </c>
+      <c r="H9" t="s">
+        <v>251</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" t="s">
-        <v>249</v>
-      </c>
-      <c r="K9" t="s">
-        <v>307</v>
-      </c>
-      <c r="L9" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="M9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N9" t="s">
-        <v>350</v>
-      </c>
-      <c r="O9" s="3">
+        <v>406</v>
+      </c>
+      <c r="O9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P9" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>456</v>
+      </c>
+      <c r="R9" s="3">
         <v>45041</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" t="s">
-        <v>250</v>
-      </c>
-      <c r="L10" t="s">
-        <v>339</v>
+        <v>231</v>
+      </c>
+      <c r="H10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" t="s">
+        <v>295</v>
       </c>
       <c r="M10" t="s">
-        <v>340</v>
-      </c>
-      <c r="N10" t="s">
-        <v>351</v>
-      </c>
-      <c r="O10" s="3">
+        <v>336</v>
+      </c>
+      <c r="O10" t="s">
+        <v>445</v>
+      </c>
+      <c r="P10" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>457</v>
+      </c>
+      <c r="R10" s="3">
         <v>43369</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J11" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" t="s">
-        <v>308</v>
-      </c>
-      <c r="L11" t="s">
-        <v>339</v>
+        <v>232</v>
+      </c>
+      <c r="H11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" t="s">
+        <v>261</v>
       </c>
       <c r="M11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N11" t="s">
-        <v>352</v>
-      </c>
-      <c r="O11" s="3">
+        <v>407</v>
+      </c>
+      <c r="O11" t="s">
+        <v>445</v>
+      </c>
+      <c r="P11" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>458</v>
+      </c>
+      <c r="R11" s="3">
         <v>41939</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" t="s">
-        <v>197</v>
-      </c>
-      <c r="J12" t="s">
-        <v>252</v>
-      </c>
-      <c r="K12" t="s">
-        <v>309</v>
-      </c>
-      <c r="L12" t="s">
-        <v>339</v>
+        <v>232</v>
+      </c>
+      <c r="H12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" t="s">
+        <v>268</v>
       </c>
       <c r="M12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N12" t="s">
-        <v>353</v>
-      </c>
-      <c r="O12" s="3">
+        <v>408</v>
+      </c>
+      <c r="O12" t="s">
+        <v>445</v>
+      </c>
+      <c r="P12" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>459</v>
+      </c>
+      <c r="R12" s="3">
         <v>45349</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>255</v>
+      </c>
+      <c r="I13" t="s">
+        <v>296</v>
       </c>
       <c r="J13" t="s">
-        <v>253</v>
-      </c>
-      <c r="K13" t="s">
-        <v>310</v>
-      </c>
-      <c r="L13" t="s">
+        <v>315</v>
+      </c>
+      <c r="M13" t="s">
         <v>339</v>
       </c>
-      <c r="M13" t="s">
-        <v>340</v>
-      </c>
       <c r="N13" t="s">
-        <v>354</v>
-      </c>
-      <c r="O13" s="3">
+        <v>409</v>
+      </c>
+      <c r="O13" t="s">
+        <v>445</v>
+      </c>
+      <c r="P13" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>460</v>
+      </c>
+      <c r="R13" s="3">
         <v>41813</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" t="s">
-        <v>206</v>
-      </c>
-      <c r="J14" t="s">
-        <v>254</v>
-      </c>
-      <c r="L14" t="s">
-        <v>339</v>
+        <v>231</v>
+      </c>
+      <c r="H14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" t="s">
+        <v>277</v>
       </c>
       <c r="M14" t="s">
-        <v>341</v>
-      </c>
-      <c r="N14" t="s">
-        <v>355</v>
-      </c>
-      <c r="O14" s="3">
+        <v>340</v>
+      </c>
+      <c r="O14" t="s">
+        <v>445</v>
+      </c>
+      <c r="P14" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>461</v>
+      </c>
+      <c r="R14" s="3">
         <v>39532</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" t="s">
-        <v>206</v>
-      </c>
-      <c r="J15" t="s">
-        <v>255</v>
-      </c>
-      <c r="L15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H15" t="s">
+        <v>257</v>
+      </c>
+      <c r="I15" t="s">
+        <v>277</v>
+      </c>
+      <c r="M15" t="s">
         <v>341</v>
       </c>
-      <c r="M15" t="s">
-        <v>340</v>
-      </c>
-      <c r="N15" t="s">
-        <v>356</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" t="s">
+        <v>447</v>
+      </c>
+      <c r="P15" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>462</v>
+      </c>
+      <c r="R15" s="3">
         <v>41966</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>206</v>
-      </c>
-      <c r="J16" t="s">
-        <v>256</v>
-      </c>
-      <c r="L16" t="s">
-        <v>339</v>
+        <v>231</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" t="s">
+        <v>277</v>
       </c>
       <c r="M16" t="s">
-        <v>339</v>
-      </c>
-      <c r="N16" t="s">
-        <v>357</v>
-      </c>
-      <c r="O16" s="3">
+        <v>342</v>
+      </c>
+      <c r="O16" t="s">
+        <v>445</v>
+      </c>
+      <c r="P16" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>463</v>
+      </c>
+      <c r="R16" s="3">
         <v>43404</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S16" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" t="s">
-        <v>206</v>
-      </c>
-      <c r="J17" t="s">
-        <v>257</v>
-      </c>
-      <c r="L17" t="s">
-        <v>339</v>
+        <v>231</v>
+      </c>
+      <c r="H17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" t="s">
+        <v>277</v>
       </c>
       <c r="M17" t="s">
-        <v>339</v>
-      </c>
-      <c r="N17" t="s">
-        <v>358</v>
-      </c>
-      <c r="O17" s="3">
+        <v>343</v>
+      </c>
+      <c r="O17" t="s">
+        <v>445</v>
+      </c>
+      <c r="P17" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>464</v>
+      </c>
+      <c r="R17" s="3">
         <v>45232</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S17" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>226</v>
+        <v>259</v>
+      </c>
+      <c r="I18" t="s">
+        <v>277</v>
       </c>
       <c r="J18" t="s">
-        <v>254</v>
-      </c>
-      <c r="L18" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="M18" t="s">
-        <v>339</v>
-      </c>
-      <c r="N18" t="s">
-        <v>359</v>
-      </c>
-      <c r="O18" s="3">
+        <v>340</v>
+      </c>
+      <c r="O18" t="s">
+        <v>445</v>
+      </c>
+      <c r="P18" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>465</v>
+      </c>
+      <c r="R18" s="3">
         <v>45351</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S18" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" t="s">
-        <v>208</v>
-      </c>
-      <c r="J19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K19" t="s">
-        <v>311</v>
-      </c>
-      <c r="L19" t="s">
-        <v>339</v>
+        <v>230</v>
+      </c>
+      <c r="H19" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" t="s">
+        <v>279</v>
       </c>
       <c r="M19" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N19" t="s">
-        <v>360</v>
-      </c>
-      <c r="O19" s="3">
+        <v>410</v>
+      </c>
+      <c r="O19" t="s">
+        <v>445</v>
+      </c>
+      <c r="P19" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>466</v>
+      </c>
+      <c r="R19" s="3">
         <v>44540</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S19" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
-      </c>
-      <c r="J20" t="s">
-        <v>255</v>
-      </c>
-      <c r="K20" t="s">
-        <v>312</v>
-      </c>
-      <c r="L20" t="s">
-        <v>339</v>
+        <v>230</v>
+      </c>
+      <c r="G20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" t="s">
+        <v>261</v>
+      </c>
+      <c r="I20" t="s">
+        <v>297</v>
       </c>
       <c r="M20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N20" t="s">
-        <v>361</v>
-      </c>
-      <c r="O20" s="3">
+        <v>411</v>
+      </c>
+      <c r="O20" t="s">
+        <v>445</v>
+      </c>
+      <c r="P20" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>467</v>
+      </c>
+      <c r="R20" s="3">
         <v>42997</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S20" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>231</v>
+      </c>
+      <c r="H21" t="s">
+        <v>261</v>
+      </c>
+      <c r="I21" t="s">
+        <v>298</v>
       </c>
       <c r="J21" t="s">
-        <v>259</v>
-      </c>
-      <c r="K21" t="s">
-        <v>313</v>
-      </c>
-      <c r="L21" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="M21" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="N21" t="s">
-        <v>362</v>
-      </c>
-      <c r="O21" s="3">
+        <v>412</v>
+      </c>
+      <c r="O21" t="s">
+        <v>445</v>
+      </c>
+      <c r="P21" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>468</v>
+      </c>
+      <c r="R21" s="3">
         <v>42852</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S21" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" t="s">
-        <v>254</v>
-      </c>
-      <c r="L22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" t="s">
+        <v>297</v>
+      </c>
+      <c r="M22" t="s">
         <v>340</v>
       </c>
-      <c r="M22" t="s">
-        <v>342</v>
-      </c>
-      <c r="N22" t="s">
-        <v>363</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" t="s">
+        <v>446</v>
+      </c>
+      <c r="P22" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>469</v>
+      </c>
+      <c r="R22" s="3">
         <v>43643</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S22" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" t="s">
+        <v>297</v>
       </c>
       <c r="J23" t="s">
-        <v>260</v>
-      </c>
-      <c r="K23" t="s">
-        <v>314</v>
-      </c>
-      <c r="L23" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="M23" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="N23" t="s">
-        <v>364</v>
-      </c>
-      <c r="O23" s="3">
+        <v>413</v>
+      </c>
+      <c r="O23" t="s">
+        <v>445</v>
+      </c>
+      <c r="P23" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>470</v>
+      </c>
+      <c r="R23" s="3">
         <v>40813</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S23" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>230</v>
+      </c>
+      <c r="H24" t="s">
+        <v>263</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
-      </c>
-      <c r="J24" t="s">
-        <v>261</v>
-      </c>
-      <c r="L24" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="M24" t="s">
-        <v>340</v>
-      </c>
-      <c r="N24" t="s">
-        <v>365</v>
-      </c>
-      <c r="O24" s="3">
+        <v>347</v>
+      </c>
+      <c r="O24" t="s">
+        <v>445</v>
+      </c>
+      <c r="P24" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>471</v>
+      </c>
+      <c r="R24" s="3">
         <v>43019</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S24" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
-      </c>
-      <c r="J25" t="s">
-        <v>262</v>
-      </c>
-      <c r="L25" t="s">
-        <v>339</v>
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" t="s">
+        <v>264</v>
       </c>
       <c r="M25" t="s">
-        <v>339</v>
-      </c>
-      <c r="N25" t="s">
-        <v>366</v>
-      </c>
-      <c r="O25" s="3">
+        <v>348</v>
+      </c>
+      <c r="O25" t="s">
+        <v>445</v>
+      </c>
+      <c r="P25" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>472</v>
+      </c>
+      <c r="R25" s="3">
         <v>42860</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S25" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" t="s">
-        <v>218</v>
+        <v>231</v>
+      </c>
+      <c r="H26" t="s">
+        <v>265</v>
+      </c>
+      <c r="I26" t="s">
+        <v>291</v>
       </c>
       <c r="J26" t="s">
-        <v>263</v>
-      </c>
-      <c r="K26" t="s">
-        <v>315</v>
-      </c>
-      <c r="L26" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="M26" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="N26" t="s">
-        <v>367</v>
-      </c>
-      <c r="O26" s="3">
+        <v>414</v>
+      </c>
+      <c r="O26" t="s">
+        <v>445</v>
+      </c>
+      <c r="P26" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>473</v>
+      </c>
+      <c r="R26" s="3">
         <v>42791</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S26" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>231</v>
+      </c>
+      <c r="H27" t="s">
+        <v>266</v>
+      </c>
+      <c r="I27" t="s">
+        <v>297</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
-      </c>
-      <c r="L27" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s">
-        <v>340</v>
-      </c>
-      <c r="N27" t="s">
-        <v>368</v>
-      </c>
-      <c r="O27" s="3">
+        <v>350</v>
+      </c>
+      <c r="O27" t="s">
+        <v>447</v>
+      </c>
+      <c r="P27" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>474</v>
+      </c>
+      <c r="R27" s="3">
         <v>42739</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S27" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
+        <v>231</v>
+      </c>
+      <c r="H28" t="s">
+        <v>266</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
-      </c>
-      <c r="L28" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s">
-        <v>340</v>
-      </c>
-      <c r="N28" t="s">
-        <v>369</v>
-      </c>
-      <c r="O28" s="3">
+        <v>351</v>
+      </c>
+      <c r="O28" t="s">
+        <v>445</v>
+      </c>
+      <c r="P28" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>475</v>
+      </c>
+      <c r="R28" s="3">
         <v>43021</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S28" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>231</v>
+      </c>
+      <c r="H29" t="s">
+        <v>264</v>
+      </c>
+      <c r="I29" t="s">
+        <v>297</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
-      </c>
-      <c r="K29" t="s">
-        <v>316</v>
-      </c>
-      <c r="L29" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="N29" t="s">
-        <v>370</v>
-      </c>
-      <c r="O29" s="3">
+        <v>415</v>
+      </c>
+      <c r="O29" t="s">
+        <v>445</v>
+      </c>
+      <c r="P29" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>476</v>
+      </c>
+      <c r="R29" s="3">
         <v>43298</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S29" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>218</v>
+        <v>231</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>317</v>
-      </c>
-      <c r="L30" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="N30" t="s">
-        <v>371</v>
-      </c>
-      <c r="O30" s="3">
+        <v>416</v>
+      </c>
+      <c r="O30" t="s">
+        <v>445</v>
+      </c>
+      <c r="P30" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>477</v>
+      </c>
+      <c r="R30" s="3">
         <v>43426</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S30" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>230</v>
+      </c>
+      <c r="G31" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>229</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
-      </c>
-      <c r="J31" t="s">
-        <v>255</v>
-      </c>
-      <c r="L31" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s">
-        <v>339</v>
-      </c>
-      <c r="N31" t="s">
-        <v>372</v>
-      </c>
-      <c r="O31" s="3">
+        <v>341</v>
+      </c>
+      <c r="O31" t="s">
+        <v>445</v>
+      </c>
+      <c r="P31" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>478</v>
+      </c>
+      <c r="R31" s="3">
         <v>43448</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S31" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
-      </c>
-      <c r="J32" t="s">
-        <v>254</v>
-      </c>
-      <c r="L32" t="s">
-        <v>339</v>
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" t="s">
+        <v>267</v>
       </c>
       <c r="M32" t="s">
         <v>340</v>
       </c>
-      <c r="N32" t="s">
-        <v>373</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" t="s">
+        <v>445</v>
+      </c>
+      <c r="P32" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>479</v>
+      </c>
+      <c r="R32" s="3">
         <v>43580</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S32" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" t="s">
-        <v>203</v>
+        <v>231</v>
+      </c>
+      <c r="H33" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
-      </c>
-      <c r="L33" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s">
-        <v>340</v>
-      </c>
-      <c r="N33" t="s">
-        <v>374</v>
-      </c>
-      <c r="O33" s="3">
+        <v>354</v>
+      </c>
+      <c r="O33" t="s">
+        <v>445</v>
+      </c>
+      <c r="P33" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>480</v>
+      </c>
+      <c r="R33" s="3">
         <v>43652</v>
       </c>
-      <c r="P33" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S33" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
-      </c>
-      <c r="J34" t="s">
-        <v>269</v>
-      </c>
-      <c r="L34" t="s">
-        <v>339</v>
+        <v>230</v>
+      </c>
+      <c r="H34" t="s">
+        <v>268</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
       </c>
       <c r="M34" t="s">
-        <v>340</v>
-      </c>
-      <c r="N34" t="s">
-        <v>375</v>
-      </c>
-      <c r="O34" s="3">
+        <v>355</v>
+      </c>
+      <c r="O34" t="s">
+        <v>445</v>
+      </c>
+      <c r="P34" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>481</v>
+      </c>
+      <c r="R34" s="3">
         <v>43838</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S34" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F35" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" t="s">
-        <v>217</v>
+        <v>230</v>
+      </c>
+      <c r="H35" t="s">
+        <v>268</v>
       </c>
       <c r="I35" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
-        <v>270</v>
-      </c>
-      <c r="L35" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s">
-        <v>340</v>
-      </c>
-      <c r="N35" t="s">
-        <v>376</v>
-      </c>
-      <c r="O35" s="3">
+        <v>356</v>
+      </c>
+      <c r="O35" t="s">
+        <v>445</v>
+      </c>
+      <c r="P35" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>482</v>
+      </c>
+      <c r="R35" s="3">
         <v>43869</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S35" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" t="s">
-        <v>219</v>
+        <v>230</v>
+      </c>
+      <c r="H36" t="s">
+        <v>268</v>
       </c>
       <c r="I36" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
-      </c>
-      <c r="K36" t="s">
-        <v>318</v>
-      </c>
-      <c r="L36" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="N36" t="s">
-        <v>377</v>
-      </c>
-      <c r="O36" s="3">
+        <v>417</v>
+      </c>
+      <c r="O36" t="s">
+        <v>445</v>
+      </c>
+      <c r="P36" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>483</v>
+      </c>
+      <c r="R36" s="3">
         <v>44893</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S36" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>230</v>
+      </c>
+      <c r="H37" t="s">
+        <v>268</v>
       </c>
       <c r="I37" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>272</v>
-      </c>
-      <c r="L37" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s">
-        <v>340</v>
-      </c>
-      <c r="N37" t="s">
-        <v>378</v>
-      </c>
-      <c r="O37" s="3">
+        <v>358</v>
+      </c>
+      <c r="O37" t="s">
+        <v>445</v>
+      </c>
+      <c r="P37" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>484</v>
+      </c>
+      <c r="R37" s="3">
         <v>44972</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S37" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G38" t="s">
-        <v>203</v>
-      </c>
-      <c r="J38" t="s">
-        <v>273</v>
-      </c>
-      <c r="L38" t="s">
-        <v>339</v>
+        <v>231</v>
+      </c>
+      <c r="H38" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" t="s">
+        <v>274</v>
       </c>
       <c r="M38" t="s">
-        <v>340</v>
-      </c>
-      <c r="N38" t="s">
-        <v>379</v>
-      </c>
-      <c r="O38" s="3">
+        <v>359</v>
+      </c>
+      <c r="O38" t="s">
+        <v>445</v>
+      </c>
+      <c r="P38" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>485</v>
+      </c>
+      <c r="R38" s="3">
         <v>42736</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S38" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
-      </c>
-      <c r="J39" t="s">
-        <v>274</v>
-      </c>
-      <c r="L39" t="s">
-        <v>339</v>
+        <v>231</v>
+      </c>
+      <c r="H39" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" t="s">
+        <v>299</v>
       </c>
       <c r="M39" t="s">
-        <v>339</v>
-      </c>
-      <c r="N39" t="s">
-        <v>380</v>
-      </c>
-      <c r="O39" s="3">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>445</v>
+      </c>
+      <c r="P39" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>486</v>
+      </c>
+      <c r="R39" s="3">
         <v>45315</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S39" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="G40" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>226</v>
-      </c>
-      <c r="I40" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="J40" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>319</v>
-      </c>
-      <c r="L40" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="N40" t="s">
-        <v>381</v>
-      </c>
-      <c r="O40" s="3">
+        <v>418</v>
+      </c>
+      <c r="O40" t="s">
+        <v>445</v>
+      </c>
+      <c r="P40" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>487</v>
+      </c>
+      <c r="R40" s="3">
         <v>43706</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S40" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F41" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="G41" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H41" t="s">
-        <v>226</v>
-      </c>
-      <c r="I41" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="J41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>320</v>
-      </c>
-      <c r="L41" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="M41" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="N41" t="s">
-        <v>382</v>
-      </c>
-      <c r="O41" s="3">
+        <v>419</v>
+      </c>
+      <c r="O41" t="s">
+        <v>445</v>
+      </c>
+      <c r="P41" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>488</v>
+      </c>
+      <c r="R41" s="3">
         <v>44445</v>
       </c>
-      <c r="P41" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S41" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F42" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="G42" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="J42" t="s">
-        <v>277</v>
-      </c>
-      <c r="N42" t="s">
-        <v>383</v>
-      </c>
-      <c r="O42" s="3">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s">
+        <v>268</v>
+      </c>
+      <c r="M42" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>489</v>
+      </c>
+      <c r="R42" s="3">
         <v>45246</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S42" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F43" t="s">
-        <v>200</v>
-      </c>
-      <c r="J43" t="s">
-        <v>264</v>
-      </c>
-      <c r="L43" t="s">
-        <v>339</v>
+        <v>233</v>
+      </c>
+      <c r="G43" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" t="s">
+        <v>271</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
       </c>
       <c r="M43" t="s">
-        <v>339</v>
-      </c>
-      <c r="N43" t="s">
-        <v>384</v>
-      </c>
-      <c r="O43" s="3">
+        <v>350</v>
+      </c>
+      <c r="O43" t="s">
+        <v>445</v>
+      </c>
+      <c r="P43" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>490</v>
+      </c>
+      <c r="R43" s="3">
         <v>42736</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S43" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F44" t="s">
-        <v>197</v>
-      </c>
-      <c r="G44" t="s">
-        <v>202</v>
+        <v>233</v>
+      </c>
+      <c r="H44" t="s">
+        <v>268</v>
       </c>
       <c r="I44" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="J44" t="s">
-        <v>278</v>
-      </c>
-      <c r="K44" t="s">
-        <v>321</v>
-      </c>
-      <c r="L44" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="M44" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s">
-        <v>385</v>
-      </c>
-      <c r="O44" s="3">
+        <v>420</v>
+      </c>
+      <c r="O44" t="s">
+        <v>446</v>
+      </c>
+      <c r="P44" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>491</v>
+      </c>
+      <c r="R44" s="3">
         <v>44204</v>
       </c>
-      <c r="P44" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S44" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
-      </c>
-      <c r="G45" t="s">
-        <v>202</v>
+        <v>233</v>
+      </c>
+      <c r="H45" t="s">
+        <v>268</v>
       </c>
       <c r="I45" t="s">
-        <v>239</v>
-      </c>
-      <c r="J45" t="s">
-        <v>279</v>
-      </c>
-      <c r="K45" t="s">
-        <v>322</v>
-      </c>
-      <c r="L45" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="M45" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="N45" t="s">
-        <v>386</v>
-      </c>
-      <c r="O45" s="3">
+        <v>421</v>
+      </c>
+      <c r="O45" t="s">
+        <v>446</v>
+      </c>
+      <c r="P45" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>492</v>
+      </c>
+      <c r="R45" s="3">
         <v>44882</v>
       </c>
-      <c r="P45" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S45" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F46" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J46" t="s">
-        <v>280</v>
-      </c>
-      <c r="L46" t="s">
-        <v>339</v>
+        <v>245</v>
+      </c>
+      <c r="H46" t="s">
+        <v>268</v>
+      </c>
+      <c r="I46" t="s">
+        <v>273</v>
       </c>
       <c r="M46" t="s">
-        <v>339</v>
-      </c>
-      <c r="N46" t="s">
-        <v>387</v>
-      </c>
-      <c r="O46" s="3">
+        <v>366</v>
+      </c>
+      <c r="O46" t="s">
+        <v>445</v>
+      </c>
+      <c r="P46" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>493</v>
+      </c>
+      <c r="R46" s="3">
         <v>44866</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S46" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F47" t="s">
-        <v>201</v>
-      </c>
-      <c r="G47" t="s">
-        <v>221</v>
-      </c>
-      <c r="J47" t="s">
-        <v>281</v>
-      </c>
-      <c r="K47" t="s">
-        <v>323</v>
-      </c>
-      <c r="L47" t="s">
-        <v>339</v>
+        <v>233</v>
+      </c>
+      <c r="H47" t="s">
+        <v>272</v>
+      </c>
+      <c r="I47" t="s">
+        <v>302</v>
       </c>
       <c r="M47" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="N47" t="s">
-        <v>388</v>
-      </c>
-      <c r="O47" s="3">
+        <v>422</v>
+      </c>
+      <c r="O47" t="s">
+        <v>445</v>
+      </c>
+      <c r="P47" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>494</v>
+      </c>
+      <c r="R47" s="3">
         <v>44383</v>
       </c>
-      <c r="P47" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S47" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
-      </c>
-      <c r="G48" t="s">
-        <v>197</v>
+        <v>233</v>
+      </c>
+      <c r="H48" t="s">
+        <v>273</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
-      </c>
-      <c r="J48" t="s">
-        <v>255</v>
-      </c>
-      <c r="L48" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="M48" t="s">
-        <v>339</v>
-      </c>
-      <c r="N48" t="s">
-        <v>389</v>
-      </c>
-      <c r="O48" s="3">
+        <v>341</v>
+      </c>
+      <c r="O48" t="s">
+        <v>445</v>
+      </c>
+      <c r="P48" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>495</v>
+      </c>
+      <c r="R48" s="3">
         <v>43544</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S48" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
-      </c>
-      <c r="I49" t="s">
-        <v>228</v>
-      </c>
-      <c r="J49" t="s">
-        <v>282</v>
-      </c>
-      <c r="K49" t="s">
-        <v>324</v>
-      </c>
-      <c r="L49" t="s">
-        <v>339</v>
+        <v>231</v>
+      </c>
+      <c r="H49" t="s">
+        <v>274</v>
       </c>
       <c r="M49" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="N49" t="s">
-        <v>377</v>
-      </c>
-      <c r="O49" s="3">
+        <v>423</v>
+      </c>
+      <c r="O49" t="s">
+        <v>445</v>
+      </c>
+      <c r="P49" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>483</v>
+      </c>
+      <c r="R49" s="3">
         <v>41948</v>
       </c>
-      <c r="P49" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S49" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
-      </c>
-      <c r="G50" t="s">
-        <v>203</v>
+        <v>231</v>
+      </c>
+      <c r="H50" t="s">
+        <v>275</v>
       </c>
       <c r="I50" t="s">
-        <v>228</v>
-      </c>
-      <c r="J50" t="s">
-        <v>283</v>
-      </c>
-      <c r="K50" t="s">
-        <v>325</v>
-      </c>
-      <c r="L50" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="M50" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="N50" t="s">
-        <v>310</v>
-      </c>
-      <c r="O50" s="3">
+        <v>424</v>
+      </c>
+      <c r="O50" t="s">
+        <v>445</v>
+      </c>
+      <c r="P50" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>409</v>
+      </c>
+      <c r="R50" s="3">
         <v>43013</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S50" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F51" t="s">
-        <v>184</v>
-      </c>
-      <c r="G51" t="s">
-        <v>222</v>
+        <v>232</v>
+      </c>
+      <c r="H51" t="s">
+        <v>255</v>
       </c>
       <c r="I51" t="s">
-        <v>228</v>
-      </c>
-      <c r="J51" t="s">
-        <v>284</v>
-      </c>
-      <c r="K51" t="s">
-        <v>326</v>
-      </c>
-      <c r="L51" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="M51" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="N51" t="s">
-        <v>390</v>
-      </c>
-      <c r="O51" s="3">
+        <v>425</v>
+      </c>
+      <c r="O51" t="s">
+        <v>445</v>
+      </c>
+      <c r="P51" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>496</v>
+      </c>
+      <c r="R51" s="3">
         <v>42816</v>
       </c>
-      <c r="P51" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S51" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="E52" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
-      </c>
-      <c r="I52" t="s">
-        <v>228</v>
-      </c>
-      <c r="J52" t="s">
-        <v>285</v>
-      </c>
-      <c r="K52" t="s">
-        <v>327</v>
-      </c>
-      <c r="L52" t="s">
-        <v>339</v>
+        <v>234</v>
+      </c>
+      <c r="H52" t="s">
+        <v>276</v>
       </c>
       <c r="M52" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="N52" t="s">
-        <v>391</v>
-      </c>
-      <c r="O52" s="3">
+        <v>426</v>
+      </c>
+      <c r="O52" t="s">
+        <v>445</v>
+      </c>
+      <c r="P52" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>497</v>
+      </c>
+      <c r="R52" s="3">
         <v>41942</v>
       </c>
-      <c r="P52" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S52" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
-      </c>
-      <c r="I53" t="s">
-        <v>240</v>
-      </c>
-      <c r="J53" t="s">
-        <v>276</v>
-      </c>
-      <c r="K53" t="s">
-        <v>328</v>
-      </c>
-      <c r="L53" t="s">
-        <v>339</v>
+        <v>234</v>
+      </c>
+      <c r="H53" t="s">
+        <v>277</v>
       </c>
       <c r="M53" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="N53" t="s">
-        <v>392</v>
-      </c>
-      <c r="O53" s="3">
+        <v>427</v>
+      </c>
+      <c r="O53" t="s">
+        <v>445</v>
+      </c>
+      <c r="P53" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>498</v>
+      </c>
+      <c r="R53" s="3">
         <v>41772</v>
       </c>
-      <c r="P53" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S53" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F54" t="s">
-        <v>205</v>
-      </c>
-      <c r="G54" t="s">
-        <v>218</v>
+        <v>234</v>
+      </c>
+      <c r="H54" t="s">
+        <v>276</v>
       </c>
       <c r="I54" t="s">
-        <v>238</v>
-      </c>
-      <c r="J54" t="s">
-        <v>286</v>
-      </c>
-      <c r="K54" t="s">
-        <v>329</v>
-      </c>
-      <c r="L54" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="M54" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="N54" t="s">
-        <v>393</v>
-      </c>
-      <c r="O54" s="3">
+        <v>428</v>
+      </c>
+      <c r="O54" t="s">
+        <v>445</v>
+      </c>
+      <c r="P54" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>499</v>
+      </c>
+      <c r="R54" s="3">
         <v>42046</v>
       </c>
-      <c r="P54" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S54" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
-      </c>
-      <c r="G55" t="s">
-        <v>204</v>
+        <v>235</v>
+      </c>
+      <c r="H55" t="s">
+        <v>261</v>
       </c>
       <c r="I55" t="s">
-        <v>228</v>
-      </c>
-      <c r="J55" t="s">
-        <v>287</v>
-      </c>
-      <c r="K55" t="s">
-        <v>330</v>
-      </c>
-      <c r="L55" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="M55" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="N55" t="s">
-        <v>394</v>
-      </c>
-      <c r="O55" s="3">
+        <v>429</v>
+      </c>
+      <c r="O55" t="s">
+        <v>445</v>
+      </c>
+      <c r="P55" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>500</v>
+      </c>
+      <c r="R55" s="3">
         <v>41939</v>
       </c>
-      <c r="P55" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S55" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F56" t="s">
-        <v>203</v>
-      </c>
-      <c r="I56" t="s">
-        <v>228</v>
-      </c>
-      <c r="J56" t="s">
-        <v>288</v>
-      </c>
-      <c r="K56" t="s">
-        <v>331</v>
-      </c>
-      <c r="L56" t="s">
-        <v>340</v>
+        <v>231</v>
+      </c>
+      <c r="H56" t="s">
+        <v>274</v>
       </c>
       <c r="M56" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="N56" t="s">
-        <v>395</v>
-      </c>
-      <c r="O56" s="3">
+        <v>430</v>
+      </c>
+      <c r="O56" t="s">
+        <v>446</v>
+      </c>
+      <c r="P56" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>501</v>
+      </c>
+      <c r="R56" s="3">
         <v>40295</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S56" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>203</v>
-      </c>
-      <c r="J57" t="s">
-        <v>254</v>
-      </c>
-      <c r="L57" t="s">
-        <v>339</v>
+        <v>231</v>
+      </c>
+      <c r="H57" t="s">
+        <v>274</v>
       </c>
       <c r="M57" t="s">
-        <v>339</v>
-      </c>
-      <c r="N57" t="s">
-        <v>396</v>
-      </c>
-      <c r="O57" s="3">
+        <v>340</v>
+      </c>
+      <c r="O57" t="s">
+        <v>445</v>
+      </c>
+      <c r="P57" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>502</v>
+      </c>
+      <c r="R57" s="3">
         <v>44141</v>
       </c>
-      <c r="P57" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S57" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F58" t="s">
-        <v>207</v>
-      </c>
-      <c r="I58" t="s">
-        <v>228</v>
-      </c>
-      <c r="J58" t="s">
-        <v>289</v>
-      </c>
-      <c r="K58" t="s">
-        <v>332</v>
-      </c>
-      <c r="L58" t="s">
-        <v>339</v>
+        <v>236</v>
+      </c>
+      <c r="H58" t="s">
+        <v>278</v>
       </c>
       <c r="M58" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="N58" t="s">
-        <v>397</v>
-      </c>
-      <c r="O58" s="3">
+        <v>431</v>
+      </c>
+      <c r="O58" t="s">
+        <v>445</v>
+      </c>
+      <c r="P58" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>503</v>
+      </c>
+      <c r="R58" s="3">
         <v>42025</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S58" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
-      </c>
-      <c r="G59" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="H59" t="s">
+        <v>276</v>
       </c>
       <c r="I59" t="s">
-        <v>228</v>
-      </c>
-      <c r="J59" t="s">
-        <v>290</v>
-      </c>
-      <c r="K59" t="s">
-        <v>333</v>
-      </c>
-      <c r="L59" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="M59" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="N59" t="s">
-        <v>398</v>
-      </c>
-      <c r="O59" s="3">
+        <v>432</v>
+      </c>
+      <c r="O59" t="s">
+        <v>445</v>
+      </c>
+      <c r="P59" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>504</v>
+      </c>
+      <c r="R59" s="3">
         <v>41932</v>
       </c>
-      <c r="P59" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S59" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F60" t="s">
-        <v>208</v>
-      </c>
-      <c r="G60" t="s">
-        <v>189</v>
+        <v>237</v>
+      </c>
+      <c r="H60" t="s">
+        <v>279</v>
       </c>
       <c r="I60" t="s">
-        <v>228</v>
-      </c>
-      <c r="J60" t="s">
-        <v>291</v>
-      </c>
-      <c r="K60" t="s">
-        <v>334</v>
-      </c>
-      <c r="L60" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="M60" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="N60" t="s">
-        <v>399</v>
-      </c>
-      <c r="O60" s="3">
+        <v>433</v>
+      </c>
+      <c r="O60" t="s">
+        <v>445</v>
+      </c>
+      <c r="P60" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>505</v>
+      </c>
+      <c r="R60" s="3">
         <v>43061</v>
       </c>
-      <c r="P60" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S60" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F61" t="s">
-        <v>205</v>
-      </c>
-      <c r="I61" t="s">
-        <v>228</v>
-      </c>
-      <c r="J61" t="s">
-        <v>292</v>
-      </c>
-      <c r="K61" t="s">
-        <v>335</v>
-      </c>
-      <c r="L61" t="s">
-        <v>339</v>
+        <v>234</v>
+      </c>
+      <c r="H61" t="s">
+        <v>276</v>
       </c>
       <c r="M61" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="N61" t="s">
-        <v>400</v>
-      </c>
-      <c r="O61" s="3">
+        <v>434</v>
+      </c>
+      <c r="O61" t="s">
+        <v>445</v>
+      </c>
+      <c r="P61" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>506</v>
+      </c>
+      <c r="R61" s="3">
         <v>43152</v>
       </c>
-      <c r="P61" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S61" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F62" t="s">
-        <v>209</v>
-      </c>
-      <c r="G62" t="s">
-        <v>206</v>
-      </c>
-      <c r="J62" t="s">
-        <v>293</v>
-      </c>
-      <c r="L62" t="s">
-        <v>339</v>
+        <v>238</v>
+      </c>
+      <c r="H62" t="s">
+        <v>280</v>
+      </c>
+      <c r="I62" t="s">
+        <v>277</v>
       </c>
       <c r="M62" t="s">
-        <v>339</v>
-      </c>
-      <c r="N62" t="s">
-        <v>401</v>
-      </c>
-      <c r="O62" s="3">
+        <v>379</v>
+      </c>
+      <c r="O62" t="s">
+        <v>445</v>
+      </c>
+      <c r="P62" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>507</v>
+      </c>
+      <c r="R62" s="3">
         <v>42914</v>
       </c>
-      <c r="P62" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S62" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F63" t="s">
-        <v>209</v>
-      </c>
-      <c r="G63" t="s">
-        <v>206</v>
-      </c>
-      <c r="J63" t="s">
-        <v>269</v>
-      </c>
-      <c r="L63" t="s">
-        <v>339</v>
+        <v>238</v>
+      </c>
+      <c r="H63" t="s">
+        <v>280</v>
+      </c>
+      <c r="I63" t="s">
+        <v>277</v>
       </c>
       <c r="M63" t="s">
-        <v>339</v>
-      </c>
-      <c r="N63" t="s">
-        <v>402</v>
-      </c>
-      <c r="O63" s="3">
+        <v>355</v>
+      </c>
+      <c r="O63" t="s">
+        <v>445</v>
+      </c>
+      <c r="P63" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>508</v>
+      </c>
+      <c r="R63" s="3">
         <v>42914</v>
       </c>
-      <c r="P63" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S63" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F64" t="s">
-        <v>180</v>
-      </c>
-      <c r="J64" t="s">
-        <v>294</v>
-      </c>
-      <c r="L64" t="s">
-        <v>340</v>
+        <v>230</v>
+      </c>
+      <c r="H64" t="s">
+        <v>251</v>
       </c>
       <c r="M64" t="s">
-        <v>340</v>
-      </c>
-      <c r="N64" t="s">
-        <v>403</v>
-      </c>
-      <c r="O64" s="3">
+        <v>380</v>
+      </c>
+      <c r="O64" t="s">
+        <v>446</v>
+      </c>
+      <c r="P64" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>509</v>
+      </c>
+      <c r="R64" s="3">
         <v>44539</v>
       </c>
-      <c r="P64" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F65" t="s">
-        <v>210</v>
-      </c>
-      <c r="J65" t="s">
-        <v>295</v>
-      </c>
-      <c r="K65" t="s">
-        <v>329</v>
-      </c>
-      <c r="L65" t="s">
-        <v>339</v>
+        <v>232</v>
+      </c>
+      <c r="H65" t="s">
+        <v>281</v>
       </c>
       <c r="M65" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="N65" t="s">
-        <v>404</v>
-      </c>
-      <c r="O65" s="3">
+        <v>428</v>
+      </c>
+      <c r="O65" t="s">
+        <v>445</v>
+      </c>
+      <c r="P65" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>510</v>
+      </c>
+      <c r="R65" s="3">
         <v>45398</v>
       </c>
-      <c r="P65" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F66" t="s">
-        <v>211</v>
-      </c>
-      <c r="G66" t="s">
-        <v>197</v>
-      </c>
-      <c r="J66" t="s">
-        <v>296</v>
-      </c>
-      <c r="L66" t="s">
-        <v>339</v>
+        <v>239</v>
+      </c>
+      <c r="H66" t="s">
+        <v>282</v>
+      </c>
+      <c r="I66" t="s">
+        <v>268</v>
       </c>
       <c r="M66" t="s">
-        <v>339</v>
-      </c>
-      <c r="N66" t="s">
-        <v>405</v>
-      </c>
-      <c r="O66" s="3">
+        <v>382</v>
+      </c>
+      <c r="O66" t="s">
+        <v>445</v>
+      </c>
+      <c r="P66" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>511</v>
+      </c>
+      <c r="R66" s="3">
         <v>45412</v>
       </c>
-      <c r="P66" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F67" t="s">
-        <v>180</v>
-      </c>
-      <c r="G67" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="H67" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="I67" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="J67" t="s">
-        <v>297</v>
-      </c>
-      <c r="K67" t="s">
-        <v>336</v>
-      </c>
-      <c r="L67" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="M67" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="N67" t="s">
-        <v>406</v>
-      </c>
-      <c r="O67" s="3">
+        <v>435</v>
+      </c>
+      <c r="O67" t="s">
+        <v>445</v>
+      </c>
+      <c r="P67" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>512</v>
+      </c>
+      <c r="R67" s="3">
         <v>45420</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="F68" t="s">
-        <v>205</v>
-      </c>
-      <c r="G68" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="H68" t="s">
-        <v>224</v>
+        <v>276</v>
+      </c>
+      <c r="I68" t="s">
+        <v>304</v>
       </c>
       <c r="J68" t="s">
-        <v>298</v>
-      </c>
-      <c r="K68" t="s">
-        <v>337</v>
-      </c>
-      <c r="L68" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="M68" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="N68" t="s">
-        <v>407</v>
-      </c>
-      <c r="O68" s="3">
+        <v>436</v>
+      </c>
+      <c r="O68" t="s">
+        <v>445</v>
+      </c>
+      <c r="P68" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>513</v>
+      </c>
+      <c r="R68" s="3">
         <v>45307</v>
       </c>
-      <c r="P68" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>173</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H69" t="s">
+        <v>276</v>
+      </c>
+      <c r="I69" t="s">
+        <v>305</v>
+      </c>
+      <c r="J69" t="s">
+        <v>318</v>
+      </c>
+      <c r="M69" t="s">
+        <v>385</v>
+      </c>
+      <c r="N69" t="s">
+        <v>437</v>
+      </c>
+      <c r="O69" t="s">
+        <v>446</v>
+      </c>
+      <c r="P69" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>514</v>
+      </c>
+      <c r="R69" s="3">
+        <v>44243</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" t="s">
+        <v>231</v>
+      </c>
+      <c r="H70" t="s">
+        <v>274</v>
+      </c>
+      <c r="M70" t="s">
+        <v>386</v>
+      </c>
+      <c r="N70" t="s">
+        <v>438</v>
+      </c>
+      <c r="O70" t="s">
+        <v>445</v>
+      </c>
+      <c r="P70" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>515</v>
+      </c>
+      <c r="R70" s="3">
+        <v>45385</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" t="s">
+        <v>228</v>
+      </c>
+      <c r="F71" t="s">
+        <v>233</v>
+      </c>
+      <c r="H71" t="s">
+        <v>283</v>
+      </c>
+      <c r="M71" t="s">
+        <v>387</v>
+      </c>
+      <c r="N71" t="s">
+        <v>439</v>
+      </c>
+      <c r="O71" t="s">
+        <v>445</v>
+      </c>
+      <c r="P71" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>516</v>
+      </c>
+      <c r="R71" s="3">
+        <v>42545</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="s">
+        <v>228</v>
+      </c>
+      <c r="F72" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" t="s">
+        <v>274</v>
+      </c>
+      <c r="I72" t="s">
+        <v>306</v>
+      </c>
+      <c r="J72" t="s">
+        <v>319</v>
+      </c>
+      <c r="M72" t="s">
+        <v>388</v>
+      </c>
+      <c r="O72" t="s">
+        <v>445</v>
+      </c>
+      <c r="P72" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>517</v>
+      </c>
+      <c r="R72" s="3">
+        <v>44653</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" t="s">
+        <v>231</v>
+      </c>
+      <c r="H73" t="s">
+        <v>274</v>
+      </c>
+      <c r="M73" t="s">
+        <v>386</v>
+      </c>
+      <c r="N73" t="s">
+        <v>440</v>
+      </c>
+      <c r="O73" t="s">
+        <v>445</v>
+      </c>
+      <c r="P73" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>515</v>
+      </c>
+      <c r="R73" s="3">
+        <v>45385</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" t="s">
+        <v>216</v>
+      </c>
+      <c r="E74" t="s">
+        <v>228</v>
+      </c>
+      <c r="F74" t="s">
+        <v>232</v>
+      </c>
+      <c r="H74" t="s">
+        <v>253</v>
+      </c>
+      <c r="I74" t="s">
+        <v>307</v>
+      </c>
+      <c r="M74" t="s">
+        <v>389</v>
+      </c>
+      <c r="N74" t="s">
+        <v>441</v>
+      </c>
+      <c r="O74" t="s">
+        <v>445</v>
+      </c>
+      <c r="P74" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>518</v>
+      </c>
+      <c r="R74" s="3">
+        <v>41695</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" t="s">
+        <v>228</v>
+      </c>
+      <c r="F75" t="s">
+        <v>231</v>
+      </c>
+      <c r="H75" t="s">
+        <v>284</v>
+      </c>
+      <c r="I75" t="s">
+        <v>274</v>
+      </c>
+      <c r="J75" t="s">
+        <v>320</v>
+      </c>
+      <c r="M75" t="s">
+        <v>390</v>
+      </c>
+      <c r="N75" t="s">
+        <v>442</v>
+      </c>
+      <c r="O75" t="s">
+        <v>445</v>
+      </c>
+      <c r="P75" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>519</v>
+      </c>
+      <c r="R75" s="3">
+        <v>41677</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" t="s">
+        <v>232</v>
+      </c>
+      <c r="H76" t="s">
+        <v>255</v>
+      </c>
+      <c r="I76" t="s">
+        <v>261</v>
+      </c>
+      <c r="J76" t="s">
+        <v>321</v>
+      </c>
+      <c r="K76" t="s">
+        <v>279</v>
+      </c>
+      <c r="M76" t="s">
+        <v>391</v>
+      </c>
+      <c r="N76" t="s">
+        <v>443</v>
+      </c>
+      <c r="O76" t="s">
+        <v>445</v>
+      </c>
+      <c r="P76" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>520</v>
+      </c>
+      <c r="R76" s="3">
+        <v>43481</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" t="s">
+        <v>228</v>
+      </c>
+      <c r="F77" t="s">
+        <v>230</v>
+      </c>
+      <c r="H77" t="s">
+        <v>285</v>
+      </c>
+      <c r="I77" t="s">
+        <v>308</v>
+      </c>
+      <c r="J77" t="s">
+        <v>322</v>
+      </c>
+      <c r="M77" t="s">
+        <v>392</v>
+      </c>
+      <c r="N77" t="s">
+        <v>444</v>
+      </c>
+      <c r="O77" t="s">
+        <v>445</v>
+      </c>
+      <c r="P77" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>521</v>
+      </c>
+      <c r="R77" s="3">
+        <v>43776</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" t="s">
+        <v>240</v>
+      </c>
+      <c r="H78" t="s">
+        <v>286</v>
+      </c>
+      <c r="I78" t="s">
+        <v>309</v>
+      </c>
+      <c r="M78" t="s">
+        <v>393</v>
+      </c>
+      <c r="O78" t="s">
+        <v>445</v>
+      </c>
+      <c r="P78" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>522</v>
+      </c>
+      <c r="R78" s="3">
+        <v>44728</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" t="s">
+        <v>232</v>
+      </c>
+      <c r="H79" t="s">
+        <v>287</v>
+      </c>
+      <c r="I79" t="s">
+        <v>310</v>
+      </c>
+      <c r="M79" t="s">
+        <v>394</v>
+      </c>
+      <c r="O79" t="s">
+        <v>445</v>
+      </c>
+      <c r="P79" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>523</v>
+      </c>
+      <c r="R79" s="3">
+        <v>43047</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" t="s">
+        <v>228</v>
+      </c>
+      <c r="F80" t="s">
+        <v>241</v>
+      </c>
+      <c r="G80" t="s">
+        <v>244</v>
+      </c>
+      <c r="H80" t="s">
+        <v>288</v>
+      </c>
+      <c r="I80" t="s">
+        <v>276</v>
+      </c>
+      <c r="J80" t="s">
+        <v>252</v>
+      </c>
+      <c r="M80" t="s">
+        <v>360</v>
+      </c>
+      <c r="O80" t="s">
+        <v>445</v>
+      </c>
+      <c r="P80" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>524</v>
+      </c>
+      <c r="R80" s="3">
+        <v>44591</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" t="s">
+        <v>228</v>
+      </c>
+      <c r="F81" t="s">
+        <v>242</v>
+      </c>
+      <c r="H81" t="s">
+        <v>289</v>
+      </c>
+      <c r="I81" t="s">
+        <v>288</v>
+      </c>
+      <c r="M81" t="s">
+        <v>395</v>
+      </c>
+      <c r="O81" t="s">
+        <v>445</v>
+      </c>
+      <c r="P81" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>525</v>
+      </c>
+      <c r="R81" s="3">
+        <v>44591</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" t="s">
+        <v>243</v>
+      </c>
+      <c r="H82" t="s">
+        <v>288</v>
+      </c>
+      <c r="I82" t="s">
+        <v>311</v>
+      </c>
+      <c r="J82" t="s">
+        <v>323</v>
+      </c>
+      <c r="M82" t="s">
+        <v>396</v>
+      </c>
+      <c r="O82" t="s">
+        <v>445</v>
+      </c>
+      <c r="P82" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>526</v>
+      </c>
+      <c r="R82" s="3">
+        <v>44591</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" t="s">
+        <v>228</v>
+      </c>
+      <c r="F83" t="s">
+        <v>234</v>
+      </c>
+      <c r="H83" t="s">
+        <v>276</v>
+      </c>
+      <c r="I83" t="s">
+        <v>288</v>
+      </c>
+      <c r="J83" t="s">
+        <v>291</v>
+      </c>
+      <c r="M83" t="s">
+        <v>397</v>
+      </c>
+      <c r="O83" t="s">
+        <v>445</v>
+      </c>
+      <c r="P83" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>527</v>
+      </c>
+      <c r="R83" s="3">
+        <v>44591</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" t="s">
+        <v>224</v>
+      </c>
+      <c r="E84" t="s">
+        <v>228</v>
+      </c>
+      <c r="F84" t="s">
+        <v>234</v>
+      </c>
+      <c r="H84" t="s">
+        <v>276</v>
+      </c>
+      <c r="I84" t="s">
+        <v>312</v>
+      </c>
+      <c r="J84" t="s">
+        <v>324</v>
+      </c>
+      <c r="K84" t="s">
+        <v>290</v>
+      </c>
+      <c r="M84" t="s">
+        <v>359</v>
+      </c>
+      <c r="O84" t="s">
+        <v>445</v>
+      </c>
+      <c r="P84" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>528</v>
+      </c>
+      <c r="R84" s="3">
+        <v>42382</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F85" t="s">
+        <v>234</v>
+      </c>
+      <c r="H85" t="s">
+        <v>276</v>
+      </c>
+      <c r="I85" t="s">
+        <v>313</v>
+      </c>
+      <c r="J85" t="s">
+        <v>290</v>
+      </c>
+      <c r="K85" t="s">
+        <v>326</v>
+      </c>
+      <c r="M85" t="s">
+        <v>340</v>
+      </c>
+      <c r="O85" t="s">
+        <v>445</v>
+      </c>
+      <c r="P85" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>529</v>
+      </c>
+      <c r="R85" s="3">
+        <v>44108</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="C69" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" t="s">
-        <v>165</v>
-      </c>
-      <c r="E69" t="s">
-        <v>173</v>
-      </c>
-      <c r="F69" t="s">
-        <v>205</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="B86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" t="s">
         <v>224</v>
       </c>
-      <c r="H69" t="s">
+      <c r="E86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F86" t="s">
+        <v>234</v>
+      </c>
+      <c r="H86" t="s">
+        <v>290</v>
+      </c>
+      <c r="I86" t="s">
+        <v>312</v>
+      </c>
+      <c r="J86" t="s">
+        <v>276</v>
+      </c>
+      <c r="M86" t="s">
+        <v>388</v>
+      </c>
+      <c r="O86" t="s">
+        <v>445</v>
+      </c>
+      <c r="P86" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>530</v>
+      </c>
+      <c r="R86" s="3">
+        <v>44589</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" t="s">
+        <v>228</v>
+      </c>
+      <c r="F87" t="s">
+        <v>244</v>
+      </c>
+      <c r="H87" t="s">
+        <v>280</v>
+      </c>
+      <c r="I87" t="s">
+        <v>314</v>
+      </c>
+      <c r="J87" t="s">
+        <v>325</v>
+      </c>
+      <c r="K87" t="s">
+        <v>327</v>
+      </c>
+      <c r="M87" t="s">
+        <v>398</v>
+      </c>
+      <c r="O87" t="s">
+        <v>445</v>
+      </c>
+      <c r="P87" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>531</v>
+      </c>
+      <c r="R87" s="3">
+        <v>45390</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" t="s">
+        <v>201</v>
+      </c>
+      <c r="E88" t="s">
+        <v>228</v>
+      </c>
+      <c r="F88" t="s">
+        <v>230</v>
+      </c>
+      <c r="H88" t="s">
+        <v>291</v>
+      </c>
+      <c r="I88" t="s">
+        <v>268</v>
+      </c>
+      <c r="M88" t="s">
+        <v>385</v>
+      </c>
+      <c r="O88" t="s">
+        <v>445</v>
+      </c>
+      <c r="P88" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>532</v>
+      </c>
+      <c r="R88" s="3">
+        <v>45412</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" t="s">
+        <v>226</v>
+      </c>
+      <c r="E89" t="s">
+        <v>228</v>
+      </c>
+      <c r="F89" t="s">
+        <v>233</v>
+      </c>
+      <c r="G89" t="s">
+        <v>238</v>
+      </c>
+      <c r="H89" t="s">
+        <v>292</v>
+      </c>
+      <c r="I89" t="s">
+        <v>280</v>
+      </c>
+      <c r="M89" t="s">
+        <v>361</v>
+      </c>
+      <c r="O89" t="s">
+        <v>445</v>
+      </c>
+      <c r="P89" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>533</v>
+      </c>
+      <c r="R89" s="3">
+        <v>45306</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" t="s">
         <v>227</v>
       </c>
-      <c r="J69" t="s">
-        <v>299</v>
-      </c>
-      <c r="K69" t="s">
-        <v>338</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="E90" t="s">
+        <v>228</v>
+      </c>
+      <c r="F90" t="s">
+        <v>230</v>
+      </c>
+      <c r="H90" t="s">
+        <v>288</v>
+      </c>
+      <c r="M90" t="s">
         <v>340</v>
       </c>
-      <c r="M69" t="s">
-        <v>340</v>
-      </c>
-      <c r="N69" t="s">
-        <v>408</v>
-      </c>
-      <c r="O69" s="3">
-        <v>44243</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>173</v>
-      </c>
-      <c r="R69">
+      <c r="O90" t="s">
+        <v>445</v>
+      </c>
+      <c r="P90" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>534</v>
+      </c>
+      <c r="R90" s="3">
+        <v>44575</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="T90">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="P3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="S3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="P4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="P5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="S5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="P6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="S6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="P7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="S7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="P8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="S8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="P9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="S9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="P10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="S10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="P11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="S11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="P12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="S12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="P13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="S13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="P14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="S14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="B15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="P15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="S15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="P16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="S16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="P17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="S17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="P18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="S18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="P19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="S19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="P20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="S20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="P21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="S21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="P22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="S22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="P23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="S23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="P24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="S24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="P25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="S25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="P26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="S26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="P27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="S27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="P28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="S28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="B29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="P29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="S29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="B30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="P30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="S30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="B31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="P31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="S31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="B32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="P32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="S32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="B33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="P33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="S33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="B34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="P34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="S34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="B35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="P35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="S35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="B36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="P36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="S36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="B37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="P37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="S37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="B38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="P38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="S38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="B39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="P39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="S39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="B40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="P40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="S40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="B41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="P41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="S41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="B42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="P42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="S42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="B43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="P43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="S43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="B44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="P44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="S44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="B45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="P45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="S45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="B46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="P46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="S46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="B47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="P47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="S47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="B48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="P48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="S48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="B49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="P49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="S49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="B50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="P50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="S50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="B51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="P51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="S51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="B52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="P52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="S52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="B53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="P53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="S53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="B54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="P54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="S54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
     <hyperlink ref="B55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="P55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="S55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
     <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="P56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="S56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="B57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="P57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="S57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="P58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="S58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="B59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="P59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="S59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="B60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="P60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="S60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="B61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="P61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="S61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
     <hyperlink ref="B62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="P62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="S62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
     <hyperlink ref="B63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="P63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="S63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
     <hyperlink ref="B64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="P64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="S64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
     <hyperlink ref="B65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="P65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="S65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
     <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="P66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="S66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
     <hyperlink ref="B67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="P67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="P68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="P69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B68" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="S68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B69" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="S69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B70" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="S70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B71" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="S71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B72" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="S72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B73" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="S73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B74" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="S74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B75" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="S75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B76" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="S76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B77" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="S77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B78" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="S78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B79" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="S79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B80" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="S80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B81" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="S81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B82" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="S82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B83" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="S83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B84" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="S84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B85" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="S85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B86" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="S86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B87" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="S87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B88" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="S88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B89" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="S89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B90" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="S90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="S67" r:id="rId178" xr:uid="{40ED0043-8D3A-4F43-941F-B3BB66B43588}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\conferences\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E974A-F7DD-44B0-9C76-0A519FC3806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="105" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="643">
   <si>
     <t>video_id</t>
   </si>
@@ -31,16 +25,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>author</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>categorie1</t>
-  </si>
-  <si>
-    <t>categorie2</t>
+    <t>cat1</t>
+  </si>
+  <si>
+    <t>cat2</t>
   </si>
   <si>
     <t>tag1</t>
@@ -295,9 +292,6 @@
     <t>https://www.youtube.com/watch?v=6_hfvgOcSTQ</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ojmopAyViZE</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=xMUEhm9vFvQ</t>
   </si>
   <si>
@@ -346,6 +340,18 @@
     <t>https://www.youtube.com/watch?v=LDueZn4bWUU</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JcGPPsuk7U0&amp;t=1350s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SG8lGNHNHIA&amp;list=PLaPZjXlv7CZbdVVJVPb3dyX3aXFFjj9J0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hcqo1BMCdW0&amp;list=PLaPZjXlv7CZbdVVJVPb3dyX3aXFFjj9J0&amp;index=3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LFV4FpfdwEw&amp;list=PLaPZjXlv7CZbdVVJVPb3dyX3aXFFjj9J0&amp;index=5</t>
+  </si>
+  <si>
     <t>Le goût du vrai</t>
   </si>
   <si>
@@ -559,9 +565,6 @@
     <t>Du photon d'Einstein à la cryptographie quantique</t>
   </si>
   <si>
-    <t>De mâle en père. À la recherche de l'instinct paternel</t>
-  </si>
-  <si>
     <t>Le grand anneau du CERN, le boson de Higgs et les deux infinis</t>
   </si>
   <si>
@@ -610,6 +613,18 @@
     <t>Comment le langage fabrique le monde ?</t>
   </si>
   <si>
+    <t>Le sol, la plus riche construction du monde vivant</t>
+  </si>
+  <si>
+    <t>Espace temps, nombres premiers, deux défis pour la géométrie</t>
+  </si>
+  <si>
+    <t>Dualité entre formes et spectres</t>
+  </si>
+  <si>
+    <t>Un topo sur les topos</t>
+  </si>
+  <si>
     <t>Etienne Klein</t>
   </si>
   <si>
@@ -670,9 +685,6 @@
     <t>Jean Tirole</t>
   </si>
   <si>
-    <t>Frank Cezilly</t>
-  </si>
-  <si>
     <t>Michel Spiro</t>
   </si>
   <si>
@@ -721,6 +733,9 @@
     <t>Biologie</t>
   </si>
   <si>
+    <t>Astrophysique</t>
+  </si>
+  <si>
     <t>Economie</t>
   </si>
   <si>
@@ -730,7 +745,7 @@
     <t>Chimie</t>
   </si>
   <si>
-    <t>Neuropsychologie</t>
+    <t>Neurosciences</t>
   </si>
   <si>
     <t>Zététique</t>
@@ -745,9 +760,6 @@
     <t>Musique</t>
   </si>
   <si>
-    <t>Neurosciences</t>
-  </si>
-  <si>
     <t>Linguistique</t>
   </si>
   <si>
@@ -757,6 +769,9 @@
     <t>Psychologie</t>
   </si>
   <si>
+    <t>Géologie</t>
+  </si>
+  <si>
     <t>Politique</t>
   </si>
   <si>
@@ -901,6 +916,18 @@
     <t>Le système éducatif</t>
   </si>
   <si>
+    <t>Les sols</t>
+  </si>
+  <si>
+    <t>L'espace-temps</t>
+  </si>
+  <si>
+    <t>Les formes</t>
+  </si>
+  <si>
+    <t>Grothendieck</t>
+  </si>
+  <si>
     <t>La politique</t>
   </si>
   <si>
@@ -913,12 +940,12 @@
     <t>La génétique</t>
   </si>
   <si>
-    <t>L'astrophysique</t>
-  </si>
-  <si>
     <t>La Terre</t>
   </si>
   <si>
+    <t>La créativité</t>
+  </si>
+  <si>
     <t>Les sciences</t>
   </si>
   <si>
@@ -943,9 +970,6 @@
     <t>La cryptographie quantique</t>
   </si>
   <si>
-    <t>La paternité</t>
-  </si>
-  <si>
     <t>L'impossible</t>
   </si>
   <si>
@@ -958,24 +982,27 @@
     <t>L'informatique</t>
   </si>
   <si>
-    <t>Grothendieck</t>
-  </si>
-  <si>
     <t>Les mathématiciens</t>
   </si>
   <si>
     <t>La confiance</t>
   </si>
   <si>
+    <t>Les nombres premiers</t>
+  </si>
+  <si>
+    <t>Les spectres</t>
+  </si>
+  <si>
+    <t>Les topos</t>
+  </si>
+  <si>
     <t>Darwin</t>
   </si>
   <si>
     <t>L'énergie</t>
   </si>
   <si>
-    <t>La créativité</t>
-  </si>
-  <si>
     <t>John Nash</t>
   </si>
   <si>
@@ -1000,6 +1027,12 @@
     <t>La coopération</t>
   </si>
   <si>
+    <t>La géométrie</t>
+  </si>
+  <si>
+    <t>Philosophie des Sciences</t>
+  </si>
+  <si>
     <t>Von Neumann</t>
   </si>
   <si>
@@ -1189,9 +1222,6 @@
     <t>00:00:14</t>
   </si>
   <si>
-    <t>00:07:06</t>
-  </si>
-  <si>
     <t>00:13:07</t>
   </si>
   <si>
@@ -1219,6 +1249,12 @@
     <t>00:02:05</t>
   </si>
   <si>
+    <t>00:07:54</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
     <t>01:20:31</t>
   </si>
   <si>
@@ -1345,9 +1381,6 @@
     <t>01:31:59</t>
   </si>
   <si>
-    <t>01:11:10</t>
-  </si>
-  <si>
     <t>01:17:00</t>
   </si>
   <si>
@@ -1357,6 +1390,9 @@
     <t>01:02:20</t>
   </si>
   <si>
+    <t>01:05:07</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
@@ -1576,9 +1612,6 @@
     <t>01:14:03</t>
   </si>
   <si>
-    <t>01:37:48</t>
-  </si>
-  <si>
     <t>01:46:55</t>
   </si>
   <si>
@@ -1627,6 +1660,18 @@
     <t>01:14:49</t>
   </si>
   <si>
+    <t>00:54:54</t>
+  </si>
+  <si>
+    <t>01:28:07</t>
+  </si>
+  <si>
+    <t>00:39:37</t>
+  </si>
+  <si>
+    <t>01:57:31</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/2byu0bYPj0c/hq720.jpg</t>
   </si>
   <si>
@@ -1822,6 +1867,9 @@
     <t>https://i.ytimg.com/vi/MSzQ8Fb6Y3s/hq720.jpg?v=662b76cc</t>
   </si>
   <si>
+    <t>https://i.ibb.co/5r6cVCW/confrencesfr-high-resolution-logo.png</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/xzVK5kS-dvA/hq720.jpg?v=659d63c1</t>
   </si>
   <si>
@@ -1837,9 +1885,6 @@
     <t>https://i.ytimg.com/vi/6_hfvgOcSTQ/hq720.jpg</t>
   </si>
   <si>
-    <t>https://i.ytimg.com/vi/ojmopAyViZE/hq720.jpg</t>
-  </si>
-  <si>
     <t>https://i.ytimg.com/vi/xMUEhm9vFvQ/hq720.jpg</t>
   </si>
   <si>
@@ -1888,17 +1933,26 @@
     <t>https://i.ytimg.com/vi/LDueZn4bWUU/hq720.jpg?v=61e133bc</t>
   </si>
   <si>
-    <t>https://i.ibb.co/5r6cVCW/confrencesfr-high-resolution-logo.png</t>
+    <t>https://i.ytimg.com/vi/JcGPPsuk7U0/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/SG8lGNHNHIA/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/hcqo1BMCdW0/hq720.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/LFV4FpfdwEw/hqdefault.jpg?sqp=-oaymwEXCJADEOABSFryq4qpAwkIARUAAIhCGAE=&amp;rs=AOn4CLCehao7GQcjvqUp-ga8YnsuAhh__Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1975,21 +2029,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2027,7 +2073,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2061,7 +2107,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2096,10 +2141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2272,19 +2316,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="19" max="19" width="27.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,4412 +2384,4775 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
+        <v>112</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" t="s">
-        <v>328</v>
+        <v>237</v>
+      </c>
+      <c r="I2" t="s">
+        <v>253</v>
       </c>
       <c r="N2" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="O2" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="P2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q2" t="s">
-        <v>449</v>
-      </c>
-      <c r="R2" s="3">
+        <v>459</v>
+      </c>
+      <c r="R2" t="s">
+        <v>463</v>
+      </c>
+      <c r="S2" s="3">
         <v>44144</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>196</v>
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
-        <v>267</v>
-      </c>
-      <c r="M3" t="s">
-        <v>329</v>
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>274</v>
       </c>
       <c r="N3" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="O3" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="P3" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="s">
-        <v>450</v>
-      </c>
-      <c r="R3" s="3">
+        <v>459</v>
+      </c>
+      <c r="R3" t="s">
+        <v>464</v>
+      </c>
+      <c r="S3" s="3">
         <v>42516</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T3" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" t="s">
-        <v>196</v>
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
-      </c>
-      <c r="M4" t="s">
-        <v>330</v>
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>236</v>
       </c>
       <c r="N4" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="O4" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="P4" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q4" t="s">
-        <v>451</v>
-      </c>
-      <c r="R4" s="3">
+        <v>459</v>
+      </c>
+      <c r="R4" t="s">
+        <v>465</v>
+      </c>
+      <c r="S4" s="3">
         <v>42541</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>196</v>
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" t="s">
-        <v>247</v>
+        <v>234</v>
+      </c>
+      <c r="G5" t="s">
+        <v>237</v>
       </c>
       <c r="I5" t="s">
-        <v>267</v>
-      </c>
-      <c r="M5" t="s">
-        <v>331</v>
+        <v>254</v>
+      </c>
+      <c r="J5" t="s">
+        <v>274</v>
       </c>
       <c r="N5" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="O5" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="P5" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q5" t="s">
-        <v>452</v>
-      </c>
-      <c r="R5" s="3">
+        <v>459</v>
+      </c>
+      <c r="R5" t="s">
+        <v>466</v>
+      </c>
+      <c r="S5" s="3">
         <v>42420</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T5" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>196</v>
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
-      </c>
-      <c r="M6" t="s">
-        <v>332</v>
+        <v>237</v>
+      </c>
+      <c r="I6" t="s">
+        <v>255</v>
       </c>
       <c r="N6" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="O6" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="P6" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q6" t="s">
-        <v>453</v>
-      </c>
-      <c r="R6" s="3">
+        <v>459</v>
+      </c>
+      <c r="R6" t="s">
+        <v>467</v>
+      </c>
+      <c r="S6" s="3">
         <v>44691</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T6" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>196</v>
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H7" t="s">
-        <v>249</v>
+        <v>234</v>
+      </c>
+      <c r="G7" t="s">
+        <v>237</v>
       </c>
       <c r="I7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M7" t="s">
-        <v>333</v>
+        <v>281</v>
+      </c>
+      <c r="K7" t="s">
+        <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="O7" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="P7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q7" t="s">
-        <v>454</v>
-      </c>
-      <c r="R7" s="3">
+        <v>459</v>
+      </c>
+      <c r="R7" t="s">
+        <v>468</v>
+      </c>
+      <c r="S7" s="3">
         <v>41729</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T7" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>196</v>
+        <v>118</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I8" t="s">
-        <v>293</v>
-      </c>
-      <c r="M8" t="s">
-        <v>334</v>
+        <v>257</v>
+      </c>
+      <c r="J8" t="s">
+        <v>304</v>
       </c>
       <c r="N8" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="O8" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="P8" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q8" t="s">
-        <v>455</v>
-      </c>
-      <c r="R8" s="3">
+        <v>460</v>
+      </c>
+      <c r="R8" t="s">
+        <v>469</v>
+      </c>
+      <c r="S8" s="3">
         <v>45281</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>196</v>
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="I9" t="s">
-        <v>294</v>
-      </c>
-      <c r="M9" t="s">
-        <v>335</v>
+        <v>258</v>
+      </c>
+      <c r="J9" t="s">
+        <v>305</v>
       </c>
       <c r="N9" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="O9" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="P9" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q9" t="s">
-        <v>456</v>
-      </c>
-      <c r="R9" s="3">
+        <v>459</v>
+      </c>
+      <c r="R9" t="s">
+        <v>470</v>
+      </c>
+      <c r="S9" s="3">
         <v>45041</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" t="s">
-        <v>196</v>
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="I10" t="s">
-        <v>295</v>
-      </c>
-      <c r="M10" t="s">
-        <v>336</v>
-      </c>
-      <c r="O10" t="s">
-        <v>445</v>
+        <v>259</v>
+      </c>
+      <c r="J10" t="s">
+        <v>306</v>
+      </c>
+      <c r="N10" t="s">
+        <v>349</v>
       </c>
       <c r="P10" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q10" t="s">
-        <v>457</v>
-      </c>
-      <c r="R10" s="3">
+        <v>460</v>
+      </c>
+      <c r="R10" t="s">
+        <v>471</v>
+      </c>
+      <c r="S10" s="3">
         <v>43369</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>197</v>
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" t="s">
-        <v>253</v>
+        <v>234</v>
+      </c>
+      <c r="G11" t="s">
+        <v>238</v>
       </c>
       <c r="I11" t="s">
-        <v>261</v>
-      </c>
-      <c r="M11" t="s">
-        <v>337</v>
+        <v>260</v>
+      </c>
+      <c r="J11" t="s">
+        <v>268</v>
       </c>
       <c r="N11" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="O11" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="P11" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q11" t="s">
-        <v>458</v>
-      </c>
-      <c r="R11" s="3">
+        <v>459</v>
+      </c>
+      <c r="R11" t="s">
+        <v>472</v>
+      </c>
+      <c r="S11" s="3">
         <v>41939</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T11" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>197</v>
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" t="s">
-        <v>254</v>
+        <v>234</v>
+      </c>
+      <c r="G12" t="s">
+        <v>238</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
-      </c>
-      <c r="M12" t="s">
-        <v>338</v>
+        <v>261</v>
+      </c>
+      <c r="J12" t="s">
+        <v>275</v>
       </c>
       <c r="N12" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O12" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="P12" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q12" t="s">
         <v>459</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" t="s">
+        <v>473</v>
+      </c>
+      <c r="S12" s="3">
         <v>45349</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T12" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" t="s">
-        <v>197</v>
+        <v>123</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" t="s">
-        <v>255</v>
+        <v>234</v>
+      </c>
+      <c r="G13" t="s">
+        <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="J13" t="s">
-        <v>315</v>
-      </c>
-      <c r="M13" t="s">
-        <v>339</v>
+        <v>307</v>
+      </c>
+      <c r="K13" t="s">
+        <v>327</v>
       </c>
       <c r="N13" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="O13" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="P13" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q13" t="s">
         <v>460</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" t="s">
+        <v>474</v>
+      </c>
+      <c r="S13" s="3">
         <v>41813</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T13" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="s">
-        <v>198</v>
+        <v>124</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" t="s">
-        <v>256</v>
+        <v>234</v>
+      </c>
+      <c r="G14" t="s">
+        <v>237</v>
       </c>
       <c r="I14" t="s">
-        <v>277</v>
-      </c>
-      <c r="M14" t="s">
-        <v>340</v>
-      </c>
-      <c r="O14" t="s">
-        <v>445</v>
+        <v>263</v>
+      </c>
+      <c r="J14" t="s">
+        <v>284</v>
+      </c>
+      <c r="N14" t="s">
+        <v>353</v>
       </c>
       <c r="P14" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="Q14" t="s">
         <v>461</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S14" s="3">
         <v>39532</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T14" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" t="s">
-        <v>198</v>
+        <v>125</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
-      </c>
-      <c r="H15" t="s">
-        <v>257</v>
+        <v>234</v>
+      </c>
+      <c r="G15" t="s">
+        <v>237</v>
       </c>
       <c r="I15" t="s">
-        <v>277</v>
-      </c>
-      <c r="M15" t="s">
-        <v>341</v>
-      </c>
-      <c r="O15" t="s">
-        <v>447</v>
+        <v>264</v>
+      </c>
+      <c r="J15" t="s">
+        <v>284</v>
+      </c>
+      <c r="N15" t="s">
+        <v>354</v>
       </c>
       <c r="P15" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="Q15" t="s">
-        <v>462</v>
-      </c>
-      <c r="R15" s="3">
+        <v>460</v>
+      </c>
+      <c r="R15" t="s">
+        <v>476</v>
+      </c>
+      <c r="S15" s="3">
         <v>41966</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" t="s">
-        <v>198</v>
+        <v>126</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" t="s">
-        <v>122</v>
+        <v>234</v>
+      </c>
+      <c r="G16" t="s">
+        <v>237</v>
       </c>
       <c r="I16" t="s">
-        <v>277</v>
-      </c>
-      <c r="M16" t="s">
-        <v>342</v>
-      </c>
-      <c r="O16" t="s">
-        <v>445</v>
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>284</v>
+      </c>
+      <c r="N16" t="s">
+        <v>355</v>
       </c>
       <c r="P16" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q16" t="s">
-        <v>463</v>
-      </c>
-      <c r="R16" s="3">
+        <v>459</v>
+      </c>
+      <c r="R16" t="s">
+        <v>477</v>
+      </c>
+      <c r="S16" s="3">
         <v>43404</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" t="s">
-        <v>198</v>
+        <v>127</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" t="s">
-        <v>258</v>
+        <v>234</v>
+      </c>
+      <c r="G17" t="s">
+        <v>237</v>
       </c>
       <c r="I17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M17" t="s">
-        <v>343</v>
-      </c>
-      <c r="O17" t="s">
-        <v>445</v>
+        <v>265</v>
+      </c>
+      <c r="J17" t="s">
+        <v>284</v>
+      </c>
+      <c r="N17" t="s">
+        <v>356</v>
       </c>
       <c r="P17" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q17" t="s">
-        <v>464</v>
-      </c>
-      <c r="R17" s="3">
+        <v>459</v>
+      </c>
+      <c r="R17" t="s">
+        <v>478</v>
+      </c>
+      <c r="S17" s="3">
         <v>45232</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>198</v>
+        <v>128</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
-      </c>
-      <c r="H18" t="s">
-        <v>259</v>
+        <v>234</v>
+      </c>
+      <c r="G18" t="s">
+        <v>237</v>
       </c>
       <c r="I18" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J18" t="s">
-        <v>316</v>
-      </c>
-      <c r="M18" t="s">
-        <v>340</v>
-      </c>
-      <c r="O18" t="s">
-        <v>445</v>
+        <v>284</v>
+      </c>
+      <c r="K18" t="s">
+        <v>328</v>
+      </c>
+      <c r="N18" t="s">
+        <v>353</v>
       </c>
       <c r="P18" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q18" t="s">
-        <v>465</v>
-      </c>
-      <c r="R18" s="3">
+        <v>459</v>
+      </c>
+      <c r="R18" t="s">
+        <v>479</v>
+      </c>
+      <c r="S18" s="3">
         <v>45351</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" t="s">
-        <v>199</v>
+        <v>129</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F19" t="s">
-        <v>230</v>
-      </c>
-      <c r="H19" t="s">
-        <v>260</v>
+        <v>234</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
       </c>
       <c r="I19" t="s">
-        <v>279</v>
-      </c>
-      <c r="M19" t="s">
-        <v>344</v>
+        <v>267</v>
+      </c>
+      <c r="J19" t="s">
+        <v>286</v>
       </c>
       <c r="N19" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="O19" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="P19" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q19" t="s">
-        <v>466</v>
-      </c>
-      <c r="R19" s="3">
+        <v>459</v>
+      </c>
+      <c r="R19" t="s">
+        <v>480</v>
+      </c>
+      <c r="S19" s="3">
         <v>44540</v>
       </c>
-      <c r="S19" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>200</v>
+        <v>130</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="F20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="I20" t="s">
-        <v>297</v>
-      </c>
-      <c r="M20" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="N20" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="O20" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="P20" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q20" t="s">
-        <v>467</v>
-      </c>
-      <c r="R20" s="3">
+        <v>459</v>
+      </c>
+      <c r="R20" t="s">
+        <v>481</v>
+      </c>
+      <c r="S20" s="3">
         <v>42997</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>200</v>
+        <v>131</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G21" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="I21" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="J21" t="s">
-        <v>297</v>
-      </c>
-      <c r="M21" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="N21" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="O21" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="P21" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q21" t="s">
-        <v>468</v>
-      </c>
-      <c r="R21" s="3">
+        <v>459</v>
+      </c>
+      <c r="R21" t="s">
+        <v>482</v>
+      </c>
+      <c r="S21" s="3">
         <v>42852</v>
       </c>
-      <c r="S21" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>200</v>
+        <v>132</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="F22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="I22" t="s">
-        <v>297</v>
-      </c>
-      <c r="M22" t="s">
-        <v>340</v>
-      </c>
-      <c r="O22" t="s">
-        <v>446</v>
+        <v>132</v>
+      </c>
+      <c r="N22" t="s">
+        <v>353</v>
       </c>
       <c r="P22" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="Q22" t="s">
-        <v>469</v>
-      </c>
-      <c r="R22" s="3">
+        <v>462</v>
+      </c>
+      <c r="R22" t="s">
+        <v>483</v>
+      </c>
+      <c r="S22" s="3">
         <v>43643</v>
       </c>
-      <c r="S22" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" t="s">
-        <v>200</v>
+        <v>133</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="I23" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="J23" t="s">
-        <v>317</v>
-      </c>
-      <c r="M23" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="N23" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="O23" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="P23" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q23" t="s">
-        <v>470</v>
-      </c>
-      <c r="R23" s="3">
+        <v>459</v>
+      </c>
+      <c r="R23" t="s">
+        <v>484</v>
+      </c>
+      <c r="S23" s="3">
         <v>40813</v>
       </c>
-      <c r="S23" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
-        <v>201</v>
+        <v>134</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" t="s">
-        <v>263</v>
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>236</v>
       </c>
       <c r="I24" t="s">
-        <v>299</v>
-      </c>
-      <c r="M24" t="s">
-        <v>347</v>
-      </c>
-      <c r="O24" t="s">
-        <v>445</v>
+        <v>270</v>
+      </c>
+      <c r="J24" t="s">
+        <v>310</v>
+      </c>
+      <c r="N24" t="s">
+        <v>360</v>
       </c>
       <c r="P24" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q24" t="s">
-        <v>471</v>
-      </c>
-      <c r="R24" s="3">
+        <v>460</v>
+      </c>
+      <c r="R24" t="s">
+        <v>485</v>
+      </c>
+      <c r="S24" s="3">
         <v>43019</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" t="s">
-        <v>201</v>
+        <v>135</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H25" t="s">
-        <v>264</v>
-      </c>
-      <c r="M25" t="s">
-        <v>348</v>
-      </c>
-      <c r="O25" t="s">
-        <v>445</v>
+        <v>239</v>
+      </c>
+      <c r="I25" t="s">
+        <v>271</v>
+      </c>
+      <c r="N25" t="s">
+        <v>361</v>
       </c>
       <c r="P25" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q25" t="s">
-        <v>472</v>
-      </c>
-      <c r="R25" s="3">
+        <v>459</v>
+      </c>
+      <c r="R25" t="s">
+        <v>486</v>
+      </c>
+      <c r="S25" s="3">
         <v>42860</v>
       </c>
-      <c r="S25" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" t="s">
-        <v>201</v>
+        <v>136</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" t="s">
-        <v>265</v>
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>237</v>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M26" t="s">
-        <v>349</v>
+        <v>298</v>
+      </c>
+      <c r="K26" t="s">
+        <v>281</v>
       </c>
       <c r="N26" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="O26" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="P26" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q26" t="s">
-        <v>473</v>
-      </c>
-      <c r="R26" s="3">
+        <v>460</v>
+      </c>
+      <c r="R26" t="s">
+        <v>487</v>
+      </c>
+      <c r="S26" s="3">
         <v>42791</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" t="s">
-        <v>201</v>
+        <v>137</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" t="s">
-        <v>266</v>
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>239</v>
       </c>
       <c r="I27" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="J27" t="s">
-        <v>274</v>
-      </c>
-      <c r="M27" t="s">
-        <v>350</v>
-      </c>
-      <c r="O27" t="s">
-        <v>447</v>
+        <v>281</v>
+      </c>
+      <c r="N27" t="s">
+        <v>363</v>
       </c>
       <c r="P27" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="Q27" t="s">
-        <v>474</v>
-      </c>
-      <c r="R27" s="3">
+        <v>460</v>
+      </c>
+      <c r="R27" t="s">
+        <v>488</v>
+      </c>
+      <c r="S27" s="3">
         <v>42739</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" t="s">
-        <v>201</v>
+        <v>138</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" t="s">
-        <v>266</v>
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>239</v>
       </c>
       <c r="I28" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="J28" t="s">
-        <v>274</v>
-      </c>
-      <c r="M28" t="s">
-        <v>351</v>
-      </c>
-      <c r="O28" t="s">
-        <v>445</v>
+        <v>281</v>
+      </c>
+      <c r="N28" t="s">
+        <v>364</v>
       </c>
       <c r="P28" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q28" t="s">
-        <v>475</v>
-      </c>
-      <c r="R28" s="3">
+        <v>460</v>
+      </c>
+      <c r="R28" t="s">
+        <v>489</v>
+      </c>
+      <c r="S28" s="3">
         <v>43021</v>
       </c>
-      <c r="S28" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" t="s">
-        <v>201</v>
+        <v>139</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" t="s">
-        <v>264</v>
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>239</v>
       </c>
       <c r="I29" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
-      </c>
-      <c r="M29" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="N29" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="O29" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="P29" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q29" t="s">
-        <v>476</v>
-      </c>
-      <c r="R29" s="3">
+        <v>460</v>
+      </c>
+      <c r="R29" t="s">
+        <v>490</v>
+      </c>
+      <c r="S29" s="3">
         <v>43298</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" t="s">
-        <v>201</v>
+        <v>140</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G30" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
-      </c>
-      <c r="M30" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="N30" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="O30" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="P30" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q30" t="s">
-        <v>477</v>
-      </c>
-      <c r="R30" s="3">
+        <v>459</v>
+      </c>
+      <c r="R30" t="s">
+        <v>491</v>
+      </c>
+      <c r="S30" s="3">
         <v>43426</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" t="s">
-        <v>201</v>
+        <v>141</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H31" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
-      </c>
-      <c r="M31" t="s">
-        <v>341</v>
-      </c>
-      <c r="O31" t="s">
-        <v>445</v>
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>298</v>
+      </c>
+      <c r="N31" t="s">
+        <v>354</v>
       </c>
       <c r="P31" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q31" t="s">
-        <v>478</v>
-      </c>
-      <c r="R31" s="3">
+        <v>459</v>
+      </c>
+      <c r="R31" t="s">
+        <v>492</v>
+      </c>
+      <c r="S31" s="3">
         <v>43448</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" t="s">
-        <v>201</v>
+        <v>142</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G32" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H32" t="s">
-        <v>267</v>
-      </c>
-      <c r="M32" t="s">
-        <v>340</v>
-      </c>
-      <c r="O32" t="s">
-        <v>445</v>
+        <v>237</v>
+      </c>
+      <c r="I32" t="s">
+        <v>274</v>
+      </c>
+      <c r="N32" t="s">
+        <v>353</v>
       </c>
       <c r="P32" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q32" t="s">
-        <v>479</v>
-      </c>
-      <c r="R32" s="3">
+        <v>460</v>
+      </c>
+      <c r="R32" t="s">
+        <v>493</v>
+      </c>
+      <c r="S32" s="3">
         <v>43580</v>
       </c>
-      <c r="S32" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" t="s">
-        <v>201</v>
+        <v>143</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>237</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
-      </c>
-      <c r="M33" t="s">
-        <v>354</v>
-      </c>
-      <c r="O33" t="s">
-        <v>445</v>
+        <v>281</v>
+      </c>
+      <c r="N33" t="s">
+        <v>367</v>
       </c>
       <c r="P33" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q33" t="s">
-        <v>480</v>
-      </c>
-      <c r="R33" s="3">
+        <v>460</v>
+      </c>
+      <c r="R33" t="s">
+        <v>494</v>
+      </c>
+      <c r="S33" s="3">
         <v>43652</v>
       </c>
-      <c r="S33" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" t="s">
-        <v>201</v>
+        <v>144</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F34" t="s">
-        <v>230</v>
-      </c>
-      <c r="H34" t="s">
-        <v>268</v>
+        <v>234</v>
+      </c>
+      <c r="G34" t="s">
+        <v>236</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
-      </c>
-      <c r="M34" t="s">
-        <v>355</v>
-      </c>
-      <c r="O34" t="s">
-        <v>445</v>
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>298</v>
+      </c>
+      <c r="N34" t="s">
+        <v>368</v>
       </c>
       <c r="P34" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q34" t="s">
-        <v>481</v>
-      </c>
-      <c r="R34" s="3">
+        <v>460</v>
+      </c>
+      <c r="R34" t="s">
+        <v>495</v>
+      </c>
+      <c r="S34" s="3">
         <v>43838</v>
       </c>
-      <c r="S34" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" t="s">
-        <v>201</v>
+        <v>145</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F35" t="s">
-        <v>230</v>
-      </c>
-      <c r="H35" t="s">
-        <v>268</v>
+        <v>234</v>
+      </c>
+      <c r="G35" t="s">
+        <v>236</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="J35" t="s">
-        <v>293</v>
-      </c>
-      <c r="M35" t="s">
-        <v>356</v>
-      </c>
-      <c r="O35" t="s">
-        <v>445</v>
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+      <c r="N35" t="s">
+        <v>369</v>
       </c>
       <c r="P35" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q35" t="s">
-        <v>482</v>
-      </c>
-      <c r="R35" s="3">
+        <v>460</v>
+      </c>
+      <c r="R35" t="s">
+        <v>496</v>
+      </c>
+      <c r="S35" s="3">
         <v>43869</v>
       </c>
-      <c r="S35" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s">
-        <v>201</v>
+        <v>146</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
-      </c>
-      <c r="H36" t="s">
-        <v>268</v>
+        <v>234</v>
+      </c>
+      <c r="G36" t="s">
+        <v>236</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
-      </c>
-      <c r="M36" t="s">
-        <v>357</v>
+        <v>311</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
       </c>
       <c r="N36" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="O36" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="P36" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q36" t="s">
-        <v>483</v>
-      </c>
-      <c r="R36" s="3">
+        <v>459</v>
+      </c>
+      <c r="R36" t="s">
+        <v>497</v>
+      </c>
+      <c r="S36" s="3">
         <v>44893</v>
       </c>
-      <c r="S36" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" t="s">
-        <v>201</v>
+        <v>147</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
-      </c>
-      <c r="H37" t="s">
-        <v>268</v>
+        <v>234</v>
+      </c>
+      <c r="G37" t="s">
+        <v>236</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="J37" t="s">
         <v>298</v>
       </c>
-      <c r="M37" t="s">
-        <v>358</v>
-      </c>
-      <c r="O37" t="s">
-        <v>445</v>
+      <c r="K37" t="s">
+        <v>308</v>
+      </c>
+      <c r="N37" t="s">
+        <v>371</v>
       </c>
       <c r="P37" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q37" t="s">
-        <v>484</v>
-      </c>
-      <c r="R37" s="3">
+        <v>460</v>
+      </c>
+      <c r="R37" t="s">
+        <v>498</v>
+      </c>
+      <c r="S37" s="3">
         <v>44972</v>
       </c>
-      <c r="S37" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" t="s">
-        <v>201</v>
+        <v>148</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" t="s">
-        <v>269</v>
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>237</v>
       </c>
       <c r="I38" t="s">
-        <v>274</v>
-      </c>
-      <c r="M38" t="s">
-        <v>359</v>
-      </c>
-      <c r="O38" t="s">
-        <v>445</v>
+        <v>276</v>
+      </c>
+      <c r="J38" t="s">
+        <v>281</v>
+      </c>
+      <c r="N38" t="s">
+        <v>372</v>
       </c>
       <c r="P38" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q38" t="s">
-        <v>485</v>
-      </c>
-      <c r="R38" s="3">
+        <v>460</v>
+      </c>
+      <c r="R38" t="s">
+        <v>499</v>
+      </c>
+      <c r="S38" s="3">
         <v>42736</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" t="s">
-        <v>201</v>
+        <v>149</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H39" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="I39" t="s">
-        <v>299</v>
-      </c>
-      <c r="M39" t="s">
-        <v>360</v>
-      </c>
-      <c r="O39" t="s">
-        <v>445</v>
+        <v>275</v>
+      </c>
+      <c r="J39" t="s">
+        <v>310</v>
+      </c>
+      <c r="N39" t="s">
+        <v>373</v>
       </c>
       <c r="P39" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q39" t="s">
-        <v>486</v>
-      </c>
-      <c r="R39" s="3">
+        <v>459</v>
+      </c>
+      <c r="R39" t="s">
+        <v>500</v>
+      </c>
+      <c r="S39" s="3">
         <v>45315</v>
       </c>
-      <c r="S39" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" t="s">
-        <v>202</v>
+        <v>150</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H40" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" t="s">
-        <v>316</v>
+        <v>240</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
       </c>
       <c r="K40" t="s">
-        <v>268</v>
-      </c>
-      <c r="M40" t="s">
-        <v>361</v>
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>275</v>
       </c>
       <c r="N40" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="P40" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q40" t="s">
-        <v>487</v>
-      </c>
-      <c r="R40" s="3">
+        <v>460</v>
+      </c>
+      <c r="R40" t="s">
+        <v>501</v>
+      </c>
+      <c r="S40" s="3">
         <v>43706</v>
       </c>
-      <c r="S40" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" t="s">
-        <v>202</v>
+        <v>151</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G41" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>270</v>
-      </c>
-      <c r="J41" t="s">
-        <v>316</v>
+        <v>237</v>
+      </c>
+      <c r="I41" t="s">
+        <v>277</v>
       </c>
       <c r="K41" t="s">
-        <v>268</v>
-      </c>
-      <c r="M41" t="s">
-        <v>362</v>
+        <v>328</v>
+      </c>
+      <c r="L41" t="s">
+        <v>275</v>
       </c>
       <c r="N41" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="P41" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q41" t="s">
-        <v>488</v>
-      </c>
-      <c r="R41" s="3">
+        <v>460</v>
+      </c>
+      <c r="R41" t="s">
+        <v>502</v>
+      </c>
+      <c r="S41" s="3">
         <v>44445</v>
       </c>
-      <c r="S41" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" t="s">
-        <v>202</v>
+        <v>152</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G42" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H42" t="s">
-        <v>270</v>
-      </c>
-      <c r="J42" t="s">
-        <v>316</v>
+        <v>237</v>
+      </c>
+      <c r="I42" t="s">
+        <v>277</v>
       </c>
       <c r="K42" t="s">
-        <v>268</v>
-      </c>
-      <c r="M42" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>489</v>
-      </c>
-      <c r="R42" s="3">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s">
+        <v>275</v>
+      </c>
+      <c r="N42" t="s">
+        <v>376</v>
+      </c>
+      <c r="R42" t="s">
+        <v>503</v>
+      </c>
+      <c r="S42" s="3">
         <v>45246</v>
       </c>
-      <c r="S42" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" t="s">
-        <v>203</v>
+        <v>153</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
-      </c>
-      <c r="M43" t="s">
-        <v>350</v>
-      </c>
-      <c r="O43" t="s">
-        <v>445</v>
+        <v>278</v>
+      </c>
+      <c r="J43" t="s">
+        <v>312</v>
+      </c>
+      <c r="N43" t="s">
+        <v>363</v>
       </c>
       <c r="P43" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q43" t="s">
-        <v>490</v>
-      </c>
-      <c r="R43" s="3">
+        <v>459</v>
+      </c>
+      <c r="R43" t="s">
+        <v>504</v>
+      </c>
+      <c r="S43" s="3">
         <v>42736</v>
       </c>
-      <c r="S43" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" t="s">
-        <v>203</v>
+        <v>154</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F44" t="s">
-        <v>233</v>
-      </c>
-      <c r="H44" t="s">
-        <v>268</v>
+        <v>234</v>
+      </c>
+      <c r="G44" t="s">
+        <v>240</v>
       </c>
       <c r="I44" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J44" t="s">
-        <v>270</v>
-      </c>
-      <c r="M44" t="s">
-        <v>364</v>
+        <v>280</v>
+      </c>
+      <c r="K44" t="s">
+        <v>277</v>
       </c>
       <c r="N44" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="O44" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="P44" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Q44" t="s">
-        <v>491</v>
-      </c>
-      <c r="R44" s="3">
+        <v>460</v>
+      </c>
+      <c r="R44" t="s">
+        <v>505</v>
+      </c>
+      <c r="S44" s="3">
         <v>44204</v>
       </c>
-      <c r="S44" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" t="s">
-        <v>203</v>
+        <v>155</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>233</v>
-      </c>
-      <c r="H45" t="s">
-        <v>268</v>
+        <v>234</v>
+      </c>
+      <c r="G45" t="s">
+        <v>240</v>
       </c>
       <c r="I45" t="s">
-        <v>273</v>
-      </c>
-      <c r="M45" t="s">
-        <v>365</v>
+        <v>275</v>
+      </c>
+      <c r="J45" t="s">
+        <v>280</v>
       </c>
       <c r="N45" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="O45" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="P45" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="Q45" t="s">
-        <v>492</v>
-      </c>
-      <c r="R45" s="3">
+        <v>459</v>
+      </c>
+      <c r="R45" t="s">
+        <v>506</v>
+      </c>
+      <c r="S45" s="3">
         <v>44882</v>
       </c>
-      <c r="S45" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" t="s">
-        <v>203</v>
+        <v>156</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G46" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="I46" t="s">
-        <v>273</v>
-      </c>
-      <c r="M46" t="s">
-        <v>366</v>
-      </c>
-      <c r="O46" t="s">
-        <v>445</v>
+        <v>275</v>
+      </c>
+      <c r="J46" t="s">
+        <v>280</v>
+      </c>
+      <c r="N46" t="s">
+        <v>379</v>
       </c>
       <c r="P46" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q46" t="s">
-        <v>493</v>
-      </c>
-      <c r="R46" s="3">
+        <v>459</v>
+      </c>
+      <c r="R46" t="s">
+        <v>507</v>
+      </c>
+      <c r="S46" s="3">
         <v>44866</v>
       </c>
-      <c r="S46" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" t="s">
-        <v>203</v>
+        <v>157</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
-      </c>
-      <c r="H47" t="s">
-        <v>272</v>
+        <v>234</v>
+      </c>
+      <c r="G47" t="s">
+        <v>240</v>
       </c>
       <c r="I47" t="s">
-        <v>302</v>
-      </c>
-      <c r="M47" t="s">
-        <v>367</v>
+        <v>279</v>
+      </c>
+      <c r="J47" t="s">
+        <v>313</v>
       </c>
       <c r="N47" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="O47" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="P47" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q47" t="s">
-        <v>494</v>
-      </c>
-      <c r="R47" s="3">
+        <v>459</v>
+      </c>
+      <c r="R47" t="s">
+        <v>508</v>
+      </c>
+      <c r="S47" s="3">
         <v>44383</v>
       </c>
-      <c r="S47" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" t="s">
-        <v>203</v>
+        <v>158</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>233</v>
-      </c>
-      <c r="H48" t="s">
-        <v>273</v>
+        <v>235</v>
+      </c>
+      <c r="G48" t="s">
+        <v>240</v>
       </c>
       <c r="I48" t="s">
-        <v>268</v>
-      </c>
-      <c r="M48" t="s">
-        <v>341</v>
-      </c>
-      <c r="O48" t="s">
-        <v>445</v>
+        <v>280</v>
+      </c>
+      <c r="J48" t="s">
+        <v>275</v>
+      </c>
+      <c r="N48" t="s">
+        <v>354</v>
       </c>
       <c r="P48" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q48" t="s">
-        <v>495</v>
-      </c>
-      <c r="R48" s="3">
+        <v>459</v>
+      </c>
+      <c r="R48" t="s">
+        <v>509</v>
+      </c>
+      <c r="S48" s="3">
         <v>43544</v>
       </c>
-      <c r="S48" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" t="s">
-        <v>204</v>
+        <v>159</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>231</v>
-      </c>
-      <c r="H49" t="s">
-        <v>274</v>
-      </c>
-      <c r="M49" t="s">
-        <v>368</v>
+        <v>234</v>
+      </c>
+      <c r="G49" t="s">
+        <v>237</v>
+      </c>
+      <c r="I49" t="s">
+        <v>281</v>
       </c>
       <c r="N49" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="O49" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P49" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q49" t="s">
-        <v>483</v>
-      </c>
-      <c r="R49" s="3">
+        <v>459</v>
+      </c>
+      <c r="R49" t="s">
+        <v>497</v>
+      </c>
+      <c r="S49" s="3">
         <v>41948</v>
       </c>
-      <c r="S49" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" t="s">
-        <v>204</v>
+        <v>160</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
-        <v>231</v>
-      </c>
-      <c r="H50" t="s">
-        <v>275</v>
+        <v>234</v>
+      </c>
+      <c r="G50" t="s">
+        <v>237</v>
       </c>
       <c r="I50" t="s">
-        <v>274</v>
-      </c>
-      <c r="M50" t="s">
-        <v>369</v>
+        <v>282</v>
+      </c>
+      <c r="J50" t="s">
+        <v>281</v>
       </c>
       <c r="N50" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="O50" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="P50" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q50" t="s">
-        <v>409</v>
-      </c>
-      <c r="R50" s="3">
+        <v>459</v>
+      </c>
+      <c r="R50" t="s">
+        <v>423</v>
+      </c>
+      <c r="S50" s="3">
         <v>43013</v>
       </c>
-      <c r="S50" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" t="s">
-        <v>205</v>
+        <v>161</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
-      </c>
-      <c r="H51" t="s">
-        <v>255</v>
+        <v>234</v>
+      </c>
+      <c r="G51" t="s">
+        <v>238</v>
       </c>
       <c r="I51" t="s">
-        <v>303</v>
-      </c>
-      <c r="M51" t="s">
-        <v>370</v>
+        <v>262</v>
+      </c>
+      <c r="J51" t="s">
+        <v>314</v>
       </c>
       <c r="N51" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="O51" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P51" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q51" t="s">
-        <v>496</v>
-      </c>
-      <c r="R51" s="3">
+        <v>459</v>
+      </c>
+      <c r="R51" t="s">
+        <v>510</v>
+      </c>
+      <c r="S51" s="3">
         <v>42816</v>
       </c>
-      <c r="S51" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" t="s">
-        <v>206</v>
+        <v>162</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F52" t="s">
         <v>234</v>
       </c>
-      <c r="H52" t="s">
-        <v>276</v>
-      </c>
-      <c r="M52" t="s">
-        <v>371</v>
+      <c r="G52" t="s">
+        <v>241</v>
+      </c>
+      <c r="I52" t="s">
+        <v>283</v>
       </c>
       <c r="N52" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="O52" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="P52" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q52" t="s">
-        <v>497</v>
-      </c>
-      <c r="R52" s="3">
+        <v>459</v>
+      </c>
+      <c r="R52" t="s">
+        <v>511</v>
+      </c>
+      <c r="S52" s="3">
         <v>41942</v>
       </c>
-      <c r="S52" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" t="s">
-        <v>207</v>
+        <v>163</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s">
         <v>234</v>
       </c>
-      <c r="H53" t="s">
-        <v>277</v>
-      </c>
-      <c r="M53" t="s">
-        <v>362</v>
+      <c r="G53" t="s">
+        <v>241</v>
+      </c>
+      <c r="I53" t="s">
+        <v>284</v>
       </c>
       <c r="N53" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="O53" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P53" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q53" t="s">
-        <v>498</v>
-      </c>
-      <c r="R53" s="3">
+        <v>460</v>
+      </c>
+      <c r="R53" t="s">
+        <v>512</v>
+      </c>
+      <c r="S53" s="3">
         <v>41772</v>
       </c>
-      <c r="S53" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" t="s">
-        <v>207</v>
+        <v>164</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F54" t="s">
         <v>234</v>
       </c>
-      <c r="H54" t="s">
-        <v>276</v>
+      <c r="G54" t="s">
+        <v>241</v>
       </c>
       <c r="I54" t="s">
-        <v>291</v>
-      </c>
-      <c r="M54" t="s">
-        <v>372</v>
+        <v>283</v>
+      </c>
+      <c r="J54" t="s">
+        <v>298</v>
       </c>
       <c r="N54" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="O54" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P54" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q54" t="s">
-        <v>499</v>
-      </c>
-      <c r="R54" s="3">
+        <v>459</v>
+      </c>
+      <c r="R54" t="s">
+        <v>513</v>
+      </c>
+      <c r="S54" s="3">
         <v>42046</v>
       </c>
-      <c r="S54" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" t="s">
-        <v>208</v>
+        <v>165</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F55" t="s">
-        <v>235</v>
-      </c>
-      <c r="H55" t="s">
-        <v>261</v>
+        <v>234</v>
+      </c>
+      <c r="G55" t="s">
+        <v>242</v>
       </c>
       <c r="I55" t="s">
-        <v>275</v>
-      </c>
-      <c r="M55" t="s">
-        <v>373</v>
+        <v>268</v>
+      </c>
+      <c r="J55" t="s">
+        <v>282</v>
       </c>
       <c r="N55" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="O55" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P55" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q55" t="s">
-        <v>500</v>
-      </c>
-      <c r="R55" s="3">
+        <v>459</v>
+      </c>
+      <c r="R55" t="s">
+        <v>514</v>
+      </c>
+      <c r="S55" s="3">
         <v>41939</v>
       </c>
-      <c r="S55" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
-      </c>
-      <c r="D56" t="s">
-        <v>209</v>
+        <v>166</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
-      </c>
-      <c r="H56" t="s">
-        <v>274</v>
-      </c>
-      <c r="M56" t="s">
-        <v>374</v>
+        <v>234</v>
+      </c>
+      <c r="G56" t="s">
+        <v>237</v>
+      </c>
+      <c r="I56" t="s">
+        <v>281</v>
       </c>
       <c r="N56" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="O56" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P56" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="Q56" t="s">
-        <v>501</v>
-      </c>
-      <c r="R56" s="3">
+        <v>459</v>
+      </c>
+      <c r="R56" t="s">
+        <v>515</v>
+      </c>
+      <c r="S56" s="3">
         <v>40295</v>
       </c>
-      <c r="S56" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" t="s">
-        <v>209</v>
+        <v>167</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
-      </c>
-      <c r="H57" t="s">
-        <v>274</v>
-      </c>
-      <c r="M57" t="s">
-        <v>340</v>
-      </c>
-      <c r="O57" t="s">
-        <v>445</v>
+        <v>235</v>
+      </c>
+      <c r="G57" t="s">
+        <v>237</v>
+      </c>
+      <c r="I57" t="s">
+        <v>281</v>
+      </c>
+      <c r="N57" t="s">
+        <v>353</v>
       </c>
       <c r="P57" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q57" t="s">
-        <v>502</v>
-      </c>
-      <c r="R57" s="3">
+        <v>459</v>
+      </c>
+      <c r="R57" t="s">
+        <v>516</v>
+      </c>
+      <c r="S57" s="3">
         <v>44141</v>
       </c>
-      <c r="S57" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" t="s">
-        <v>210</v>
+        <v>168</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
-      </c>
-      <c r="H58" t="s">
-        <v>278</v>
-      </c>
-      <c r="M58" t="s">
-        <v>375</v>
+        <v>234</v>
+      </c>
+      <c r="G58" t="s">
+        <v>243</v>
+      </c>
+      <c r="I58" t="s">
+        <v>285</v>
       </c>
       <c r="N58" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="O58" t="s">
         <v>445</v>
       </c>
       <c r="P58" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q58" t="s">
-        <v>503</v>
-      </c>
-      <c r="R58" s="3">
+        <v>459</v>
+      </c>
+      <c r="R58" t="s">
+        <v>517</v>
+      </c>
+      <c r="S58" s="3">
         <v>42025</v>
       </c>
-      <c r="S58" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" t="s">
-        <v>210</v>
+        <v>169</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>236</v>
-      </c>
-      <c r="H59" t="s">
-        <v>276</v>
+        <v>234</v>
+      </c>
+      <c r="G59" t="s">
+        <v>243</v>
       </c>
       <c r="I59" t="s">
-        <v>278</v>
-      </c>
-      <c r="M59" t="s">
-        <v>376</v>
+        <v>283</v>
+      </c>
+      <c r="J59" t="s">
+        <v>285</v>
       </c>
       <c r="N59" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="O59" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P59" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q59" t="s">
-        <v>504</v>
-      </c>
-      <c r="R59" s="3">
+        <v>459</v>
+      </c>
+      <c r="R59" t="s">
+        <v>518</v>
+      </c>
+      <c r="S59" s="3">
         <v>41932</v>
       </c>
-      <c r="S59" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" t="s">
-        <v>211</v>
+        <v>170</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
-      </c>
-      <c r="H60" t="s">
-        <v>279</v>
+        <v>234</v>
+      </c>
+      <c r="G60" t="s">
+        <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>260</v>
-      </c>
-      <c r="M60" t="s">
-        <v>377</v>
+        <v>286</v>
+      </c>
+      <c r="J60" t="s">
+        <v>267</v>
       </c>
       <c r="N60" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="O60" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P60" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q60" t="s">
-        <v>505</v>
-      </c>
-      <c r="R60" s="3">
+        <v>459</v>
+      </c>
+      <c r="R60" t="s">
+        <v>519</v>
+      </c>
+      <c r="S60" s="3">
         <v>43061</v>
       </c>
-      <c r="S60" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" t="s">
-        <v>212</v>
+        <v>171</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F61" t="s">
         <v>234</v>
       </c>
-      <c r="H61" t="s">
-        <v>276</v>
-      </c>
-      <c r="M61" t="s">
-        <v>378</v>
+      <c r="G61" t="s">
+        <v>241</v>
+      </c>
+      <c r="I61" t="s">
+        <v>283</v>
       </c>
       <c r="N61" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="O61" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P61" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q61" t="s">
-        <v>506</v>
-      </c>
-      <c r="R61" s="3">
+        <v>459</v>
+      </c>
+      <c r="R61" t="s">
+        <v>520</v>
+      </c>
+      <c r="S61" s="3">
         <v>43152</v>
       </c>
-      <c r="S61" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" t="s">
-        <v>213</v>
+        <v>172</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F62" t="s">
-        <v>238</v>
-      </c>
-      <c r="H62" t="s">
-        <v>280</v>
+        <v>234</v>
+      </c>
+      <c r="G62" t="s">
+        <v>245</v>
       </c>
       <c r="I62" t="s">
-        <v>277</v>
-      </c>
-      <c r="M62" t="s">
-        <v>379</v>
-      </c>
-      <c r="O62" t="s">
-        <v>445</v>
+        <v>287</v>
+      </c>
+      <c r="J62" t="s">
+        <v>284</v>
+      </c>
+      <c r="N62" t="s">
+        <v>392</v>
       </c>
       <c r="P62" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q62" t="s">
-        <v>507</v>
-      </c>
-      <c r="R62" s="3">
+        <v>459</v>
+      </c>
+      <c r="R62" t="s">
+        <v>521</v>
+      </c>
+      <c r="S62" s="3">
         <v>42914</v>
       </c>
-      <c r="S62" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" t="s">
-        <v>213</v>
+        <v>173</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
-        <v>238</v>
-      </c>
-      <c r="H63" t="s">
-        <v>280</v>
+        <v>234</v>
+      </c>
+      <c r="G63" t="s">
+        <v>245</v>
       </c>
       <c r="I63" t="s">
-        <v>277</v>
-      </c>
-      <c r="M63" t="s">
-        <v>355</v>
-      </c>
-      <c r="O63" t="s">
-        <v>445</v>
+        <v>287</v>
+      </c>
+      <c r="J63" t="s">
+        <v>284</v>
+      </c>
+      <c r="N63" t="s">
+        <v>368</v>
       </c>
       <c r="P63" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q63" t="s">
-        <v>508</v>
-      </c>
-      <c r="R63" s="3">
+        <v>459</v>
+      </c>
+      <c r="R63" t="s">
+        <v>522</v>
+      </c>
+      <c r="S63" s="3">
         <v>42914</v>
       </c>
-      <c r="S63" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
-      </c>
-      <c r="D64" t="s">
-        <v>196</v>
+        <v>174</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F64" t="s">
-        <v>230</v>
-      </c>
-      <c r="H64" t="s">
-        <v>251</v>
-      </c>
-      <c r="M64" t="s">
-        <v>380</v>
-      </c>
-      <c r="O64" t="s">
-        <v>446</v>
+        <v>234</v>
+      </c>
+      <c r="G64" t="s">
+        <v>236</v>
+      </c>
+      <c r="I64" t="s">
+        <v>258</v>
+      </c>
+      <c r="N64" t="s">
+        <v>393</v>
       </c>
       <c r="P64" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Q64" t="s">
-        <v>509</v>
-      </c>
-      <c r="R64" s="3">
+        <v>460</v>
+      </c>
+      <c r="R64" t="s">
+        <v>523</v>
+      </c>
+      <c r="S64" s="3">
         <v>44539</v>
       </c>
-      <c r="S64" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T64" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" t="s">
-        <v>214</v>
+        <v>175</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F65" t="s">
-        <v>232</v>
-      </c>
-      <c r="H65" t="s">
-        <v>281</v>
-      </c>
-      <c r="M65" t="s">
-        <v>381</v>
+        <v>234</v>
+      </c>
+      <c r="G65" t="s">
+        <v>238</v>
+      </c>
+      <c r="I65" t="s">
+        <v>288</v>
       </c>
       <c r="N65" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="O65" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P65" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q65" t="s">
-        <v>510</v>
-      </c>
-      <c r="R65" s="3">
+        <v>459</v>
+      </c>
+      <c r="R65" t="s">
+        <v>524</v>
+      </c>
+      <c r="S65" s="3">
         <v>45398</v>
       </c>
-      <c r="S65" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T65" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
-      </c>
-      <c r="D66" t="s">
-        <v>202</v>
+        <v>176</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s">
-        <v>239</v>
-      </c>
-      <c r="H66" t="s">
-        <v>282</v>
+        <v>234</v>
+      </c>
+      <c r="G66" t="s">
+        <v>246</v>
       </c>
       <c r="I66" t="s">
-        <v>268</v>
-      </c>
-      <c r="M66" t="s">
-        <v>382</v>
-      </c>
-      <c r="O66" t="s">
-        <v>445</v>
+        <v>289</v>
+      </c>
+      <c r="J66" t="s">
+        <v>275</v>
+      </c>
+      <c r="N66" t="s">
+        <v>395</v>
       </c>
       <c r="P66" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q66" t="s">
-        <v>511</v>
-      </c>
-      <c r="R66" s="3">
+        <v>459</v>
+      </c>
+      <c r="R66" t="s">
+        <v>525</v>
+      </c>
+      <c r="S66" s="3">
         <v>45412</v>
       </c>
-      <c r="S66" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T66" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
-      </c>
-      <c r="D67" t="s">
-        <v>201</v>
+        <v>177</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F67" t="s">
-        <v>229</v>
-      </c>
-      <c r="H67" t="s">
-        <v>251</v>
+        <v>234</v>
+      </c>
+      <c r="G67" t="s">
+        <v>235</v>
       </c>
       <c r="I67" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="J67" t="s">
-        <v>268</v>
-      </c>
-      <c r="M67" t="s">
-        <v>383</v>
+        <v>298</v>
+      </c>
+      <c r="K67" t="s">
+        <v>275</v>
       </c>
       <c r="N67" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="O67" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P67" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q67" t="s">
-        <v>512</v>
-      </c>
-      <c r="R67" s="3">
+        <v>459</v>
+      </c>
+      <c r="R67" t="s">
+        <v>526</v>
+      </c>
+      <c r="S67" s="3">
         <v>45420</v>
       </c>
-      <c r="S67" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T67" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
-      </c>
-      <c r="D68" t="s">
-        <v>207</v>
+        <v>178</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F68" t="s">
         <v>234</v>
       </c>
-      <c r="H68" t="s">
-        <v>276</v>
+      <c r="G68" t="s">
+        <v>241</v>
       </c>
       <c r="I68" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="J68" t="s">
-        <v>305</v>
-      </c>
-      <c r="M68" t="s">
-        <v>384</v>
+        <v>315</v>
+      </c>
+      <c r="K68" t="s">
+        <v>316</v>
       </c>
       <c r="N68" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="O68" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P68" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q68" t="s">
-        <v>513</v>
-      </c>
-      <c r="R68" s="3">
+        <v>459</v>
+      </c>
+      <c r="R68" t="s">
+        <v>527</v>
+      </c>
+      <c r="S68" s="3">
         <v>45307</v>
       </c>
-      <c r="S68" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T68" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
-      </c>
-      <c r="D69" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F69" t="s">
         <v>234</v>
       </c>
-      <c r="H69" t="s">
-        <v>276</v>
+      <c r="G69" t="s">
+        <v>241</v>
       </c>
       <c r="I69" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="J69" t="s">
-        <v>318</v>
-      </c>
-      <c r="M69" t="s">
-        <v>385</v>
+        <v>316</v>
+      </c>
+      <c r="K69" t="s">
+        <v>329</v>
       </c>
       <c r="N69" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="O69" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="P69" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Q69" t="s">
-        <v>514</v>
-      </c>
-      <c r="R69" s="3">
+        <v>460</v>
+      </c>
+      <c r="R69" t="s">
+        <v>528</v>
+      </c>
+      <c r="S69" s="3">
         <v>44243</v>
       </c>
-      <c r="S69" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T69" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
-      </c>
-      <c r="D70" t="s">
-        <v>209</v>
+        <v>180</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>231</v>
-      </c>
-      <c r="H70" t="s">
-        <v>274</v>
-      </c>
-      <c r="M70" t="s">
-        <v>386</v>
+        <v>234</v>
+      </c>
+      <c r="G70" t="s">
+        <v>237</v>
+      </c>
+      <c r="I70" t="s">
+        <v>281</v>
       </c>
       <c r="N70" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="O70" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P70" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q70" t="s">
-        <v>515</v>
-      </c>
-      <c r="R70" s="3">
+        <v>459</v>
+      </c>
+      <c r="R70" t="s">
+        <v>529</v>
+      </c>
+      <c r="S70" s="3">
         <v>45385</v>
       </c>
-      <c r="S70" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T70" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71" t="s">
-        <v>215</v>
+        <v>181</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F71" t="s">
-        <v>233</v>
-      </c>
-      <c r="H71" t="s">
-        <v>283</v>
-      </c>
-      <c r="M71" t="s">
-        <v>387</v>
+        <v>234</v>
+      </c>
+      <c r="G71" t="s">
+        <v>240</v>
+      </c>
+      <c r="I71" t="s">
+        <v>290</v>
       </c>
       <c r="N71" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="O71" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="P71" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q71" t="s">
-        <v>516</v>
-      </c>
-      <c r="R71" s="3">
+        <v>459</v>
+      </c>
+      <c r="R71" t="s">
+        <v>530</v>
+      </c>
+      <c r="S71" s="3">
         <v>42545</v>
       </c>
-      <c r="S71" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T71" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" t="s">
-        <v>209</v>
+        <v>182</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
-        <v>231</v>
-      </c>
-      <c r="H72" t="s">
-        <v>274</v>
+        <v>234</v>
+      </c>
+      <c r="G72" t="s">
+        <v>237</v>
       </c>
       <c r="I72" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="J72" t="s">
-        <v>319</v>
-      </c>
-      <c r="M72" t="s">
-        <v>388</v>
-      </c>
-      <c r="O72" t="s">
-        <v>445</v>
+        <v>317</v>
+      </c>
+      <c r="K72" t="s">
+        <v>330</v>
+      </c>
+      <c r="N72" t="s">
+        <v>401</v>
       </c>
       <c r="P72" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q72" t="s">
-        <v>517</v>
-      </c>
-      <c r="R72" s="3">
+        <v>459</v>
+      </c>
+      <c r="R72" t="s">
+        <v>531</v>
+      </c>
+      <c r="S72" s="3">
         <v>44653</v>
       </c>
-      <c r="S72" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T72" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" t="s">
-        <v>209</v>
+        <v>180</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F73" t="s">
-        <v>231</v>
-      </c>
-      <c r="H73" t="s">
-        <v>274</v>
-      </c>
-      <c r="M73" t="s">
-        <v>386</v>
+        <v>234</v>
+      </c>
+      <c r="G73" t="s">
+        <v>237</v>
+      </c>
+      <c r="I73" t="s">
+        <v>281</v>
       </c>
       <c r="N73" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="O73" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="P73" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q73" t="s">
-        <v>515</v>
-      </c>
-      <c r="R73" s="3">
+        <v>459</v>
+      </c>
+      <c r="R73" t="s">
+        <v>529</v>
+      </c>
+      <c r="S73" s="3">
         <v>45385</v>
       </c>
-      <c r="S73" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T73" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
-      </c>
-      <c r="D74" t="s">
-        <v>216</v>
+        <v>183</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
-      </c>
-      <c r="H74" t="s">
-        <v>253</v>
+        <v>234</v>
+      </c>
+      <c r="G74" t="s">
+        <v>237</v>
       </c>
       <c r="I74" t="s">
-        <v>307</v>
-      </c>
-      <c r="M74" t="s">
-        <v>389</v>
+        <v>291</v>
+      </c>
+      <c r="J74" t="s">
+        <v>281</v>
+      </c>
+      <c r="K74" t="s">
+        <v>331</v>
       </c>
       <c r="N74" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="O74" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="P74" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q74" t="s">
-        <v>518</v>
-      </c>
-      <c r="R74" s="3">
-        <v>41695</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="R74" t="s">
+        <v>532</v>
+      </c>
+      <c r="S74" s="3">
+        <v>41677</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" t="s">
+        <v>234</v>
+      </c>
+      <c r="G75" t="s">
+        <v>238</v>
+      </c>
+      <c r="I75" t="s">
+        <v>262</v>
+      </c>
+      <c r="J75" t="s">
+        <v>268</v>
+      </c>
+      <c r="K75" t="s">
+        <v>332</v>
+      </c>
+      <c r="L75" t="s">
+        <v>286</v>
+      </c>
+      <c r="N75" t="s">
+        <v>403</v>
+      </c>
+      <c r="O75" t="s">
+        <v>456</v>
+      </c>
+      <c r="P75" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>459</v>
+      </c>
+      <c r="R75" t="s">
+        <v>533</v>
+      </c>
+      <c r="S75" s="3">
+        <v>43481</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" t="s">
+        <v>234</v>
+      </c>
+      <c r="G76" t="s">
+        <v>236</v>
+      </c>
+      <c r="I76" t="s">
+        <v>292</v>
+      </c>
+      <c r="J76" t="s">
+        <v>318</v>
+      </c>
+      <c r="K76" t="s">
+        <v>333</v>
+      </c>
+      <c r="N76" t="s">
+        <v>404</v>
+      </c>
+      <c r="O76" t="s">
+        <v>457</v>
+      </c>
+      <c r="P76" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>459</v>
+      </c>
+      <c r="R76" t="s">
+        <v>534</v>
+      </c>
+      <c r="S76" s="3">
+        <v>43776</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" t="s">
+        <v>234</v>
+      </c>
+      <c r="G77" t="s">
+        <v>247</v>
+      </c>
+      <c r="I77" t="s">
+        <v>293</v>
+      </c>
+      <c r="J77" t="s">
+        <v>319</v>
+      </c>
+      <c r="N77" t="s">
+        <v>405</v>
+      </c>
+      <c r="P77" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>459</v>
+      </c>
+      <c r="R77" t="s">
+        <v>535</v>
+      </c>
+      <c r="S77" s="3">
+        <v>44728</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" t="s">
+        <v>234</v>
+      </c>
+      <c r="G78" t="s">
+        <v>238</v>
+      </c>
+      <c r="I78" t="s">
+        <v>294</v>
+      </c>
+      <c r="J78" t="s">
+        <v>320</v>
+      </c>
+      <c r="N78" t="s">
+        <v>406</v>
+      </c>
+      <c r="P78" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>459</v>
+      </c>
+      <c r="R78" t="s">
+        <v>536</v>
+      </c>
+      <c r="S78" s="3">
+        <v>43047</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
         <v>217</v>
       </c>
-      <c r="E75" t="s">
-        <v>228</v>
-      </c>
-      <c r="F75" t="s">
-        <v>231</v>
-      </c>
-      <c r="H75" t="s">
-        <v>284</v>
-      </c>
-      <c r="I75" t="s">
-        <v>274</v>
-      </c>
-      <c r="J75" t="s">
-        <v>320</v>
-      </c>
-      <c r="M75" t="s">
-        <v>390</v>
-      </c>
-      <c r="N75" t="s">
-        <v>442</v>
-      </c>
-      <c r="O75" t="s">
-        <v>445</v>
-      </c>
-      <c r="P75" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>519</v>
-      </c>
-      <c r="R75" s="3">
-        <v>41677</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76" t="s">
-        <v>228</v>
-      </c>
-      <c r="F76" t="s">
-        <v>232</v>
-      </c>
-      <c r="H76" t="s">
-        <v>255</v>
-      </c>
-      <c r="I76" t="s">
-        <v>261</v>
-      </c>
-      <c r="J76" t="s">
-        <v>321</v>
-      </c>
-      <c r="K76" t="s">
-        <v>279</v>
-      </c>
-      <c r="M76" t="s">
-        <v>391</v>
-      </c>
-      <c r="N76" t="s">
-        <v>443</v>
-      </c>
-      <c r="O76" t="s">
-        <v>445</v>
-      </c>
-      <c r="P76" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>520</v>
-      </c>
-      <c r="R76" s="3">
-        <v>43481</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" t="s">
-        <v>228</v>
-      </c>
-      <c r="F77" t="s">
-        <v>230</v>
-      </c>
-      <c r="H77" t="s">
-        <v>285</v>
-      </c>
-      <c r="I77" t="s">
-        <v>308</v>
-      </c>
-      <c r="J77" t="s">
-        <v>322</v>
-      </c>
-      <c r="M77" t="s">
-        <v>392</v>
-      </c>
-      <c r="N77" t="s">
-        <v>444</v>
-      </c>
-      <c r="O77" t="s">
-        <v>445</v>
-      </c>
-      <c r="P77" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>521</v>
-      </c>
-      <c r="R77" s="3">
-        <v>43776</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78" t="s">
-        <v>220</v>
-      </c>
-      <c r="E78" t="s">
-        <v>228</v>
-      </c>
-      <c r="F78" t="s">
-        <v>240</v>
-      </c>
-      <c r="H78" t="s">
-        <v>286</v>
-      </c>
-      <c r="I78" t="s">
-        <v>309</v>
-      </c>
-      <c r="M78" t="s">
-        <v>393</v>
-      </c>
-      <c r="O78" t="s">
-        <v>445</v>
-      </c>
-      <c r="P78" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>522</v>
-      </c>
-      <c r="R78" s="3">
-        <v>44728</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" t="s">
-        <v>228</v>
-      </c>
       <c r="F79" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="G79" t="s">
+        <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="I79" t="s">
-        <v>310</v>
-      </c>
-      <c r="M79" t="s">
-        <v>394</v>
-      </c>
-      <c r="O79" t="s">
-        <v>445</v>
+        <v>295</v>
+      </c>
+      <c r="J79" t="s">
+        <v>283</v>
+      </c>
+      <c r="K79" t="s">
+        <v>259</v>
+      </c>
+      <c r="N79" t="s">
+        <v>373</v>
       </c>
       <c r="P79" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q79" t="s">
-        <v>523</v>
-      </c>
-      <c r="R79" s="3">
-        <v>43047</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="R79" t="s">
+        <v>537</v>
+      </c>
+      <c r="S79" s="3">
+        <v>44591</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" t="s">
-        <v>210</v>
+        <v>189</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
       </c>
       <c r="E80" t="s">
         <v>228</v>
       </c>
       <c r="F80" t="s">
+        <v>234</v>
+      </c>
+      <c r="G80" t="s">
+        <v>248</v>
+      </c>
+      <c r="I80" t="s">
+        <v>296</v>
+      </c>
+      <c r="J80" t="s">
+        <v>295</v>
+      </c>
+      <c r="N80" t="s">
+        <v>407</v>
+      </c>
+      <c r="P80" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>459</v>
+      </c>
+      <c r="R80" t="s">
+        <v>538</v>
+      </c>
+      <c r="S80" s="3">
+        <v>44591</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" t="s">
+        <v>249</v>
+      </c>
+      <c r="I81" t="s">
+        <v>295</v>
+      </c>
+      <c r="J81" t="s">
+        <v>321</v>
+      </c>
+      <c r="K81" t="s">
+        <v>334</v>
+      </c>
+      <c r="N81" t="s">
+        <v>408</v>
+      </c>
+      <c r="P81" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>459</v>
+      </c>
+      <c r="R81" t="s">
+        <v>539</v>
+      </c>
+      <c r="S81" s="3">
+        <v>44591</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>230</v>
+      </c>
+      <c r="F82" t="s">
+        <v>234</v>
+      </c>
+      <c r="G82" t="s">
         <v>241</v>
       </c>
-      <c r="G80" t="s">
-        <v>244</v>
-      </c>
-      <c r="H80" t="s">
-        <v>288</v>
-      </c>
-      <c r="I80" t="s">
-        <v>276</v>
-      </c>
-      <c r="J80" t="s">
-        <v>252</v>
-      </c>
-      <c r="M80" t="s">
-        <v>360</v>
-      </c>
-      <c r="O80" t="s">
-        <v>445</v>
-      </c>
-      <c r="P80" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>524</v>
-      </c>
-      <c r="R80" s="3">
+      <c r="I82" t="s">
+        <v>283</v>
+      </c>
+      <c r="J82" t="s">
+        <v>295</v>
+      </c>
+      <c r="K82" t="s">
+        <v>298</v>
+      </c>
+      <c r="N82" t="s">
+        <v>409</v>
+      </c>
+      <c r="P82" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>459</v>
+      </c>
+      <c r="R82" t="s">
+        <v>540</v>
+      </c>
+      <c r="S82" s="3">
         <v>44591</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" t="s">
-        <v>222</v>
-      </c>
-      <c r="E81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F81" t="s">
-        <v>242</v>
-      </c>
-      <c r="H81" t="s">
-        <v>289</v>
-      </c>
-      <c r="I81" t="s">
-        <v>288</v>
-      </c>
-      <c r="M81" t="s">
-        <v>395</v>
-      </c>
-      <c r="O81" t="s">
-        <v>445</v>
-      </c>
-      <c r="P81" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>525</v>
-      </c>
-      <c r="R81" s="3">
-        <v>44591</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" t="s">
-        <v>223</v>
-      </c>
-      <c r="E82" t="s">
-        <v>228</v>
-      </c>
-      <c r="F82" t="s">
-        <v>243</v>
-      </c>
-      <c r="H82" t="s">
-        <v>288</v>
-      </c>
-      <c r="I82" t="s">
-        <v>311</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="T82" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" t="s">
+        <v>234</v>
+      </c>
+      <c r="G83" t="s">
+        <v>241</v>
+      </c>
+      <c r="I83" t="s">
+        <v>283</v>
+      </c>
+      <c r="J83" t="s">
+        <v>303</v>
+      </c>
+      <c r="K83" t="s">
+        <v>335</v>
+      </c>
+      <c r="L83" t="s">
+        <v>297</v>
+      </c>
+      <c r="N83" t="s">
+        <v>372</v>
+      </c>
+      <c r="P83" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>459</v>
+      </c>
+      <c r="R83" t="s">
+        <v>541</v>
+      </c>
+      <c r="S83" s="3">
+        <v>42382</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>230</v>
+      </c>
+      <c r="F84" t="s">
+        <v>234</v>
+      </c>
+      <c r="G84" t="s">
+        <v>241</v>
+      </c>
+      <c r="I84" t="s">
+        <v>283</v>
+      </c>
+      <c r="J84" t="s">
+        <v>322</v>
+      </c>
+      <c r="K84" t="s">
+        <v>297</v>
+      </c>
+      <c r="L84" t="s">
+        <v>339</v>
+      </c>
+      <c r="N84" t="s">
+        <v>353</v>
+      </c>
+      <c r="P84" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>459</v>
+      </c>
+      <c r="R84" t="s">
+        <v>542</v>
+      </c>
+      <c r="S84" s="3">
+        <v>44108</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" t="s">
+        <v>234</v>
+      </c>
+      <c r="G85" t="s">
+        <v>241</v>
+      </c>
+      <c r="I85" t="s">
+        <v>297</v>
+      </c>
+      <c r="J85" t="s">
+        <v>303</v>
+      </c>
+      <c r="K85" t="s">
+        <v>283</v>
+      </c>
+      <c r="N85" t="s">
+        <v>401</v>
+      </c>
+      <c r="P85" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>459</v>
+      </c>
+      <c r="R85" t="s">
+        <v>543</v>
+      </c>
+      <c r="S85" s="3">
+        <v>44589</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>231</v>
+      </c>
+      <c r="F86" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" t="s">
+        <v>250</v>
+      </c>
+      <c r="I86" t="s">
+        <v>287</v>
+      </c>
+      <c r="J86" t="s">
         <v>323</v>
       </c>
-      <c r="M82" t="s">
-        <v>396</v>
-      </c>
-      <c r="O82" t="s">
-        <v>445</v>
-      </c>
-      <c r="P82" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>526</v>
-      </c>
-      <c r="R82" s="3">
-        <v>44591</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" t="s">
-        <v>188</v>
-      </c>
-      <c r="D83" t="s">
-        <v>224</v>
-      </c>
-      <c r="E83" t="s">
-        <v>228</v>
-      </c>
-      <c r="F83" t="s">
-        <v>234</v>
-      </c>
-      <c r="H83" t="s">
-        <v>276</v>
-      </c>
-      <c r="I83" t="s">
-        <v>288</v>
-      </c>
-      <c r="J83" t="s">
-        <v>291</v>
-      </c>
-      <c r="M83" t="s">
-        <v>397</v>
-      </c>
-      <c r="O83" t="s">
-        <v>445</v>
-      </c>
-      <c r="P83" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>527</v>
-      </c>
-      <c r="R83" s="3">
-        <v>44591</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" t="s">
-        <v>224</v>
-      </c>
-      <c r="E84" t="s">
-        <v>228</v>
-      </c>
-      <c r="F84" t="s">
-        <v>234</v>
-      </c>
-      <c r="H84" t="s">
-        <v>276</v>
-      </c>
-      <c r="I84" t="s">
-        <v>312</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="K86" t="s">
+        <v>336</v>
+      </c>
+      <c r="L86" t="s">
+        <v>340</v>
+      </c>
+      <c r="N86" t="s">
+        <v>410</v>
+      </c>
+      <c r="P86" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>459</v>
+      </c>
+      <c r="R86" t="s">
+        <v>544</v>
+      </c>
+      <c r="S86" s="3">
+        <v>45390</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>208</v>
+      </c>
+      <c r="F87" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" t="s">
+        <v>236</v>
+      </c>
+      <c r="I87" t="s">
+        <v>298</v>
+      </c>
+      <c r="J87" t="s">
+        <v>275</v>
+      </c>
+      <c r="N87" t="s">
+        <v>398</v>
+      </c>
+      <c r="P87" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>459</v>
+      </c>
+      <c r="R87" t="s">
+        <v>545</v>
+      </c>
+      <c r="S87" s="3">
+        <v>45412</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>232</v>
+      </c>
+      <c r="F88" t="s">
+        <v>234</v>
+      </c>
+      <c r="G88" t="s">
+        <v>240</v>
+      </c>
+      <c r="H88" t="s">
+        <v>245</v>
+      </c>
+      <c r="I88" t="s">
+        <v>299</v>
+      </c>
+      <c r="J88" t="s">
+        <v>287</v>
+      </c>
+      <c r="N88" t="s">
+        <v>374</v>
+      </c>
+      <c r="P88" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>459</v>
+      </c>
+      <c r="R88" t="s">
+        <v>546</v>
+      </c>
+      <c r="S88" s="3">
+        <v>45306</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" t="s">
+        <v>234</v>
+      </c>
+      <c r="G89" t="s">
+        <v>236</v>
+      </c>
+      <c r="I89" t="s">
+        <v>295</v>
+      </c>
+      <c r="N89" t="s">
+        <v>353</v>
+      </c>
+      <c r="P89" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>459</v>
+      </c>
+      <c r="R89" t="s">
+        <v>547</v>
+      </c>
+      <c r="S89" s="3">
+        <v>44575</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>227</v>
+      </c>
+      <c r="F90" t="s">
+        <v>234</v>
+      </c>
+      <c r="G90" t="s">
+        <v>251</v>
+      </c>
+      <c r="H90" t="s">
+        <v>238</v>
+      </c>
+      <c r="I90" t="s">
+        <v>300</v>
+      </c>
+      <c r="J90" t="s">
+        <v>261</v>
+      </c>
+      <c r="N90" t="s">
+        <v>411</v>
+      </c>
+      <c r="P90" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>460</v>
+      </c>
+      <c r="R90" t="s">
+        <v>548</v>
+      </c>
+      <c r="S90" s="3">
+        <v>44526</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" t="s">
+        <v>200</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F91" t="s">
+        <v>234</v>
+      </c>
+      <c r="G91" t="s">
+        <v>241</v>
+      </c>
+      <c r="I91" t="s">
+        <v>301</v>
+      </c>
+      <c r="J91" t="s">
         <v>324</v>
       </c>
-      <c r="K84" t="s">
-        <v>290</v>
-      </c>
-      <c r="M84" t="s">
-        <v>359</v>
-      </c>
-      <c r="O84" t="s">
-        <v>445</v>
-      </c>
-      <c r="P84" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>528</v>
-      </c>
-      <c r="R84" s="3">
-        <v>42382</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" t="s">
-        <v>190</v>
-      </c>
-      <c r="D85" t="s">
-        <v>224</v>
-      </c>
-      <c r="E85" t="s">
-        <v>228</v>
-      </c>
-      <c r="F85" t="s">
-        <v>234</v>
-      </c>
-      <c r="H85" t="s">
-        <v>276</v>
-      </c>
-      <c r="I85" t="s">
-        <v>313</v>
-      </c>
-      <c r="J85" t="s">
-        <v>290</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="K91" t="s">
+        <v>337</v>
+      </c>
+      <c r="N91" t="s">
+        <v>398</v>
+      </c>
+      <c r="O91" t="s">
+        <v>458</v>
+      </c>
+      <c r="P91" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>459</v>
+      </c>
+      <c r="R91" t="s">
+        <v>549</v>
+      </c>
+      <c r="S91" s="3">
+        <v>43993</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" t="s">
+        <v>234</v>
+      </c>
+      <c r="G92" t="s">
+        <v>241</v>
+      </c>
+      <c r="I92" t="s">
+        <v>302</v>
+      </c>
+      <c r="J92" t="s">
+        <v>325</v>
+      </c>
+      <c r="N92" t="s">
+        <v>355</v>
+      </c>
+      <c r="P92" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>459</v>
+      </c>
+      <c r="R92" t="s">
+        <v>550</v>
+      </c>
+      <c r="S92" s="3">
+        <v>44587</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>230</v>
+      </c>
+      <c r="F93" t="s">
+        <v>234</v>
+      </c>
+      <c r="G93" t="s">
+        <v>241</v>
+      </c>
+      <c r="H93" t="s">
+        <v>236</v>
+      </c>
+      <c r="I93" t="s">
+        <v>303</v>
+      </c>
+      <c r="J93" t="s">
         <v>326</v>
       </c>
-      <c r="M85" t="s">
-        <v>340</v>
-      </c>
-      <c r="O85" t="s">
-        <v>445</v>
-      </c>
-      <c r="P85" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>529</v>
-      </c>
-      <c r="R85" s="3">
-        <v>44108</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" t="s">
-        <v>224</v>
-      </c>
-      <c r="E86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F86" t="s">
-        <v>234</v>
-      </c>
-      <c r="H86" t="s">
-        <v>290</v>
-      </c>
-      <c r="I86" t="s">
-        <v>312</v>
-      </c>
-      <c r="J86" t="s">
-        <v>276</v>
-      </c>
-      <c r="M86" t="s">
-        <v>388</v>
-      </c>
-      <c r="O86" t="s">
-        <v>445</v>
-      </c>
-      <c r="P86" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>530</v>
-      </c>
-      <c r="R86" s="3">
-        <v>44589</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" t="s">
-        <v>192</v>
-      </c>
-      <c r="D87" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" t="s">
-        <v>228</v>
-      </c>
-      <c r="F87" t="s">
-        <v>244</v>
-      </c>
-      <c r="H87" t="s">
-        <v>280</v>
-      </c>
-      <c r="I87" t="s">
-        <v>314</v>
-      </c>
-      <c r="J87" t="s">
-        <v>325</v>
-      </c>
-      <c r="K87" t="s">
-        <v>327</v>
-      </c>
-      <c r="M87" t="s">
-        <v>398</v>
-      </c>
-      <c r="O87" t="s">
-        <v>445</v>
-      </c>
-      <c r="P87" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>531</v>
-      </c>
-      <c r="R87" s="3">
-        <v>45390</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C88" t="s">
-        <v>193</v>
-      </c>
-      <c r="D88" t="s">
-        <v>201</v>
-      </c>
-      <c r="E88" t="s">
-        <v>228</v>
-      </c>
-      <c r="F88" t="s">
-        <v>230</v>
-      </c>
-      <c r="H88" t="s">
-        <v>291</v>
-      </c>
-      <c r="I88" t="s">
-        <v>268</v>
-      </c>
-      <c r="M88" t="s">
-        <v>385</v>
-      </c>
-      <c r="O88" t="s">
-        <v>445</v>
-      </c>
-      <c r="P88" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>532</v>
-      </c>
-      <c r="R88" s="3">
-        <v>45412</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" t="s">
-        <v>194</v>
-      </c>
-      <c r="D89" t="s">
-        <v>226</v>
-      </c>
-      <c r="E89" t="s">
-        <v>228</v>
-      </c>
-      <c r="F89" t="s">
-        <v>233</v>
-      </c>
-      <c r="G89" t="s">
-        <v>238</v>
-      </c>
-      <c r="H89" t="s">
-        <v>292</v>
-      </c>
-      <c r="I89" t="s">
-        <v>280</v>
-      </c>
-      <c r="M89" t="s">
-        <v>361</v>
-      </c>
-      <c r="O89" t="s">
-        <v>445</v>
-      </c>
-      <c r="P89" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>533</v>
-      </c>
-      <c r="R89" s="3">
-        <v>45306</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" t="s">
-        <v>195</v>
-      </c>
-      <c r="D90" t="s">
-        <v>227</v>
-      </c>
-      <c r="E90" t="s">
-        <v>228</v>
-      </c>
-      <c r="F90" t="s">
-        <v>230</v>
-      </c>
-      <c r="H90" t="s">
-        <v>288</v>
-      </c>
-      <c r="M90" t="s">
-        <v>340</v>
-      </c>
-      <c r="O90" t="s">
-        <v>445</v>
-      </c>
-      <c r="P90" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>534</v>
-      </c>
-      <c r="R90" s="3">
-        <v>44575</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="T90">
+      <c r="K93" t="s">
+        <v>338</v>
+      </c>
+      <c r="N93" t="s">
+        <v>412</v>
+      </c>
+      <c r="P93" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>460</v>
+      </c>
+      <c r="R93" t="s">
+        <v>551</v>
+      </c>
+      <c r="S93" s="3">
+        <v>43380</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="U93">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="S3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="S4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="S5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="S6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="S7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="S8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="S9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="S10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="S11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="S12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="S13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="S14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="S15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="S16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="S17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="S18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="S19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="S20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="S21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="S22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="S23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="S24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="S25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="S26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="S27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="S28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="S29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="S30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="S31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="S32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="S33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="S34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="S35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="S36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="S37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="S38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="S39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="S40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="S41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="S42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="S43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="S44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="S45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="S46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="S47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="S48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="S49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="S50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="S51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="S52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="S53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="S54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="S55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="S56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="S57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="S58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="S59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="S60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="S61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="S62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="S63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="S64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="S65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="S66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B68" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="S68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B69" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="S69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B70" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="S70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B71" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="S71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B72" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="S72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B73" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="S73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B74" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="S74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B75" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="S75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B76" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="S76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B77" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="S77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B78" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="S78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B79" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="S79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B80" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="S80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B81" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="S81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B82" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="S82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B83" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="S83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B84" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="S84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B85" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="S85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B86" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="S86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B87" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="S87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B88" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="S88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B89" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="S89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B90" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="S90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="S67" r:id="rId178" xr:uid="{40ED0043-8D3A-4F43-941F-B3BB66B43588}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="T2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="T3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="T4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="T5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="T6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="T7" r:id="rId12"/>
+    <hyperlink ref="B8" r:id="rId13"/>
+    <hyperlink ref="T8" r:id="rId14"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="T9" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="T10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="T11" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="T12" r:id="rId22"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="T13" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="T14" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="T15" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="T16" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="T17" r:id="rId32"/>
+    <hyperlink ref="B18" r:id="rId33"/>
+    <hyperlink ref="T18" r:id="rId34"/>
+    <hyperlink ref="B19" r:id="rId35"/>
+    <hyperlink ref="T19" r:id="rId36"/>
+    <hyperlink ref="B20" r:id="rId37"/>
+    <hyperlink ref="T20" r:id="rId38"/>
+    <hyperlink ref="B21" r:id="rId39"/>
+    <hyperlink ref="T21" r:id="rId40"/>
+    <hyperlink ref="B22" r:id="rId41"/>
+    <hyperlink ref="T22" r:id="rId42"/>
+    <hyperlink ref="B23" r:id="rId43"/>
+    <hyperlink ref="T23" r:id="rId44"/>
+    <hyperlink ref="B24" r:id="rId45"/>
+    <hyperlink ref="T24" r:id="rId46"/>
+    <hyperlink ref="B25" r:id="rId47"/>
+    <hyperlink ref="T25" r:id="rId48"/>
+    <hyperlink ref="B26" r:id="rId49"/>
+    <hyperlink ref="T26" r:id="rId50"/>
+    <hyperlink ref="B27" r:id="rId51"/>
+    <hyperlink ref="T27" r:id="rId52"/>
+    <hyperlink ref="B28" r:id="rId53"/>
+    <hyperlink ref="T28" r:id="rId54"/>
+    <hyperlink ref="B29" r:id="rId55"/>
+    <hyperlink ref="T29" r:id="rId56"/>
+    <hyperlink ref="B30" r:id="rId57"/>
+    <hyperlink ref="T30" r:id="rId58"/>
+    <hyperlink ref="B31" r:id="rId59"/>
+    <hyperlink ref="T31" r:id="rId60"/>
+    <hyperlink ref="B32" r:id="rId61"/>
+    <hyperlink ref="T32" r:id="rId62"/>
+    <hyperlink ref="B33" r:id="rId63"/>
+    <hyperlink ref="T33" r:id="rId64"/>
+    <hyperlink ref="B34" r:id="rId65"/>
+    <hyperlink ref="T34" r:id="rId66"/>
+    <hyperlink ref="B35" r:id="rId67"/>
+    <hyperlink ref="T35" r:id="rId68"/>
+    <hyperlink ref="B36" r:id="rId69"/>
+    <hyperlink ref="T36" r:id="rId70"/>
+    <hyperlink ref="B37" r:id="rId71"/>
+    <hyperlink ref="T37" r:id="rId72"/>
+    <hyperlink ref="B38" r:id="rId73"/>
+    <hyperlink ref="T38" r:id="rId74"/>
+    <hyperlink ref="B39" r:id="rId75"/>
+    <hyperlink ref="T39" r:id="rId76"/>
+    <hyperlink ref="B40" r:id="rId77"/>
+    <hyperlink ref="T40" r:id="rId78"/>
+    <hyperlink ref="B41" r:id="rId79"/>
+    <hyperlink ref="T41" r:id="rId80"/>
+    <hyperlink ref="B42" r:id="rId81"/>
+    <hyperlink ref="T42" r:id="rId82"/>
+    <hyperlink ref="B43" r:id="rId83"/>
+    <hyperlink ref="T43" r:id="rId84"/>
+    <hyperlink ref="B44" r:id="rId85"/>
+    <hyperlink ref="T44" r:id="rId86"/>
+    <hyperlink ref="B45" r:id="rId87"/>
+    <hyperlink ref="T45" r:id="rId88"/>
+    <hyperlink ref="B46" r:id="rId89"/>
+    <hyperlink ref="T46" r:id="rId90"/>
+    <hyperlink ref="B47" r:id="rId91"/>
+    <hyperlink ref="T47" r:id="rId92"/>
+    <hyperlink ref="B48" r:id="rId93"/>
+    <hyperlink ref="T48" r:id="rId94"/>
+    <hyperlink ref="B49" r:id="rId95"/>
+    <hyperlink ref="T49" r:id="rId96"/>
+    <hyperlink ref="B50" r:id="rId97"/>
+    <hyperlink ref="T50" r:id="rId98"/>
+    <hyperlink ref="B51" r:id="rId99"/>
+    <hyperlink ref="T51" r:id="rId100"/>
+    <hyperlink ref="B52" r:id="rId101"/>
+    <hyperlink ref="T52" r:id="rId102"/>
+    <hyperlink ref="B53" r:id="rId103"/>
+    <hyperlink ref="T53" r:id="rId104"/>
+    <hyperlink ref="B54" r:id="rId105"/>
+    <hyperlink ref="T54" r:id="rId106"/>
+    <hyperlink ref="B55" r:id="rId107"/>
+    <hyperlink ref="T55" r:id="rId108"/>
+    <hyperlink ref="B56" r:id="rId109"/>
+    <hyperlink ref="T56" r:id="rId110"/>
+    <hyperlink ref="B57" r:id="rId111"/>
+    <hyperlink ref="T57" r:id="rId112"/>
+    <hyperlink ref="B58" r:id="rId113"/>
+    <hyperlink ref="T58" r:id="rId114"/>
+    <hyperlink ref="B59" r:id="rId115"/>
+    <hyperlink ref="T59" r:id="rId116"/>
+    <hyperlink ref="B60" r:id="rId117"/>
+    <hyperlink ref="T60" r:id="rId118"/>
+    <hyperlink ref="B61" r:id="rId119"/>
+    <hyperlink ref="T61" r:id="rId120"/>
+    <hyperlink ref="B62" r:id="rId121"/>
+    <hyperlink ref="T62" r:id="rId122"/>
+    <hyperlink ref="B63" r:id="rId123"/>
+    <hyperlink ref="T63" r:id="rId124"/>
+    <hyperlink ref="B64" r:id="rId125"/>
+    <hyperlink ref="T64" r:id="rId126"/>
+    <hyperlink ref="B65" r:id="rId127"/>
+    <hyperlink ref="T65" r:id="rId128"/>
+    <hyperlink ref="B66" r:id="rId129"/>
+    <hyperlink ref="T66" r:id="rId130"/>
+    <hyperlink ref="B67" r:id="rId131"/>
+    <hyperlink ref="T67" r:id="rId132"/>
+    <hyperlink ref="B68" r:id="rId133"/>
+    <hyperlink ref="T68" r:id="rId134"/>
+    <hyperlink ref="B69" r:id="rId135"/>
+    <hyperlink ref="T69" r:id="rId136"/>
+    <hyperlink ref="B70" r:id="rId137"/>
+    <hyperlink ref="T70" r:id="rId138"/>
+    <hyperlink ref="B71" r:id="rId139"/>
+    <hyperlink ref="T71" r:id="rId140"/>
+    <hyperlink ref="B72" r:id="rId141"/>
+    <hyperlink ref="T72" r:id="rId142"/>
+    <hyperlink ref="B73" r:id="rId143"/>
+    <hyperlink ref="T73" r:id="rId144"/>
+    <hyperlink ref="B74" r:id="rId145"/>
+    <hyperlink ref="T74" r:id="rId146"/>
+    <hyperlink ref="B75" r:id="rId147"/>
+    <hyperlink ref="T75" r:id="rId148"/>
+    <hyperlink ref="B76" r:id="rId149"/>
+    <hyperlink ref="T76" r:id="rId150"/>
+    <hyperlink ref="B77" r:id="rId151"/>
+    <hyperlink ref="T77" r:id="rId152"/>
+    <hyperlink ref="B78" r:id="rId153"/>
+    <hyperlink ref="T78" r:id="rId154"/>
+    <hyperlink ref="B79" r:id="rId155"/>
+    <hyperlink ref="T79" r:id="rId156"/>
+    <hyperlink ref="B80" r:id="rId157"/>
+    <hyperlink ref="T80" r:id="rId158"/>
+    <hyperlink ref="B81" r:id="rId159"/>
+    <hyperlink ref="T81" r:id="rId160"/>
+    <hyperlink ref="B82" r:id="rId161"/>
+    <hyperlink ref="T82" r:id="rId162"/>
+    <hyperlink ref="B83" r:id="rId163"/>
+    <hyperlink ref="T83" r:id="rId164"/>
+    <hyperlink ref="B84" r:id="rId165"/>
+    <hyperlink ref="T84" r:id="rId166"/>
+    <hyperlink ref="B85" r:id="rId167"/>
+    <hyperlink ref="T85" r:id="rId168"/>
+    <hyperlink ref="B86" r:id="rId169"/>
+    <hyperlink ref="T86" r:id="rId170"/>
+    <hyperlink ref="B87" r:id="rId171"/>
+    <hyperlink ref="T87" r:id="rId172"/>
+    <hyperlink ref="B88" r:id="rId173"/>
+    <hyperlink ref="T88" r:id="rId174"/>
+    <hyperlink ref="B89" r:id="rId175"/>
+    <hyperlink ref="T89" r:id="rId176"/>
+    <hyperlink ref="B90" r:id="rId177"/>
+    <hyperlink ref="T90" r:id="rId178"/>
+    <hyperlink ref="B91" r:id="rId179"/>
+    <hyperlink ref="T91" r:id="rId180"/>
+    <hyperlink ref="B92" r:id="rId181"/>
+    <hyperlink ref="T92" r:id="rId182"/>
+    <hyperlink ref="B93" r:id="rId183"/>
+    <hyperlink ref="T93" r:id="rId184"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\conferences\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E01D915-AA51-4425-8349-8136921FB50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="643">
   <si>
     <t>video_id</t>
   </si>
@@ -1948,11 +1954,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,13 +2035,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2073,7 +2087,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2107,6 +2121,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2141,9 +2156,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2316,14 +2332,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2438,7 +2465,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2491,7 +2518,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2544,7 +2571,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2594,7 +2621,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2644,7 +2671,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2697,7 +2724,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2750,7 +2777,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2803,7 +2830,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2853,7 +2880,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2903,7 +2930,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2953,7 +2980,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3006,7 +3033,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3053,7 +3080,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3100,7 +3127,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3147,7 +3174,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3194,7 +3221,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3244,7 +3271,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3294,7 +3321,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3344,7 +3371,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3397,7 +3424,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3444,7 +3471,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3497,7 +3524,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3544,7 +3571,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3591,7 +3618,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3644,7 +3671,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3691,7 +3718,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3738,7 +3765,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3788,7 +3815,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3844,7 +3871,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3894,7 +3921,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3941,7 +3968,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3991,7 +4018,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4038,7 +4065,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4088,7 +4115,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4141,7 +4168,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4191,7 +4218,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4238,7 +4265,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4261,7 +4288,7 @@
         <v>236</v>
       </c>
       <c r="H39" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I39" t="s">
         <v>275</v>
@@ -4288,7 +4315,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4308,7 +4335,7 @@
         <v>234</v>
       </c>
       <c r="G40" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H40" t="s">
         <v>240</v>
@@ -4344,7 +4371,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4364,10 +4391,10 @@
         <v>234</v>
       </c>
       <c r="G41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" t="s">
         <v>240</v>
-      </c>
-      <c r="H41" t="s">
-        <v>237</v>
       </c>
       <c r="I41" t="s">
         <v>277</v>
@@ -4400,7 +4427,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4420,10 +4447,10 @@
         <v>234</v>
       </c>
       <c r="G42" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" t="s">
         <v>240</v>
-      </c>
-      <c r="H42" t="s">
-        <v>237</v>
       </c>
       <c r="I42" t="s">
         <v>277</v>
@@ -4447,7 +4474,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4470,7 +4497,7 @@
         <v>240</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I43" t="s">
         <v>278</v>
@@ -4497,7 +4524,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4519,6 +4546,9 @@
       <c r="G44" t="s">
         <v>240</v>
       </c>
+      <c r="H44" t="s">
+        <v>246</v>
+      </c>
       <c r="I44" t="s">
         <v>275</v>
       </c>
@@ -4550,7 +4580,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4572,6 +4602,9 @@
       <c r="G45" t="s">
         <v>240</v>
       </c>
+      <c r="H45" t="s">
+        <v>246</v>
+      </c>
       <c r="I45" t="s">
         <v>275</v>
       </c>
@@ -4600,7 +4633,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4650,7 +4683,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4700,7 +4733,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4747,7 +4780,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4794,7 +4827,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4844,7 +4877,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4894,7 +4927,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4941,7 +4974,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4988,7 +5021,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5038,7 +5071,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5088,7 +5121,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5135,7 +5168,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5179,7 +5212,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5226,7 +5259,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5276,7 +5309,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5326,7 +5359,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5373,7 +5406,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5420,7 +5453,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5467,7 +5500,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5511,7 +5544,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5558,7 +5591,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5605,7 +5638,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5658,7 +5691,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5711,7 +5744,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5764,7 +5797,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5811,7 +5844,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5858,7 +5891,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5908,7 +5941,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5955,7 +5988,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -6008,7 +6041,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -6064,7 +6097,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -6117,7 +6150,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -6164,7 +6197,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -6211,7 +6244,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -6264,7 +6297,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -6311,7 +6344,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -6361,7 +6394,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -6411,7 +6444,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -6464,7 +6497,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -6517,7 +6550,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -6567,7 +6600,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -6620,7 +6653,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -6667,7 +6700,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -6717,7 +6750,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -6761,7 +6794,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -6811,7 +6844,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -6864,7 +6897,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -6911,7 +6944,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -6969,190 +7002,190 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="T2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="T3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="T4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="T5" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="T6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="T7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="T8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="T9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="T10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="T11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="T12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23"/>
-    <hyperlink ref="T13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25"/>
-    <hyperlink ref="T14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27"/>
-    <hyperlink ref="T15" r:id="rId28"/>
-    <hyperlink ref="B16" r:id="rId29"/>
-    <hyperlink ref="T16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31"/>
-    <hyperlink ref="T17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33"/>
-    <hyperlink ref="T18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35"/>
-    <hyperlink ref="T19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="T20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="T21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="T22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="T23" r:id="rId44"/>
-    <hyperlink ref="B24" r:id="rId45"/>
-    <hyperlink ref="T24" r:id="rId46"/>
-    <hyperlink ref="B25" r:id="rId47"/>
-    <hyperlink ref="T25" r:id="rId48"/>
-    <hyperlink ref="B26" r:id="rId49"/>
-    <hyperlink ref="T26" r:id="rId50"/>
-    <hyperlink ref="B27" r:id="rId51"/>
-    <hyperlink ref="T27" r:id="rId52"/>
-    <hyperlink ref="B28" r:id="rId53"/>
-    <hyperlink ref="T28" r:id="rId54"/>
-    <hyperlink ref="B29" r:id="rId55"/>
-    <hyperlink ref="T29" r:id="rId56"/>
-    <hyperlink ref="B30" r:id="rId57"/>
-    <hyperlink ref="T30" r:id="rId58"/>
-    <hyperlink ref="B31" r:id="rId59"/>
-    <hyperlink ref="T31" r:id="rId60"/>
-    <hyperlink ref="B32" r:id="rId61"/>
-    <hyperlink ref="T32" r:id="rId62"/>
-    <hyperlink ref="B33" r:id="rId63"/>
-    <hyperlink ref="T33" r:id="rId64"/>
-    <hyperlink ref="B34" r:id="rId65"/>
-    <hyperlink ref="T34" r:id="rId66"/>
-    <hyperlink ref="B35" r:id="rId67"/>
-    <hyperlink ref="T35" r:id="rId68"/>
-    <hyperlink ref="B36" r:id="rId69"/>
-    <hyperlink ref="T36" r:id="rId70"/>
-    <hyperlink ref="B37" r:id="rId71"/>
-    <hyperlink ref="T37" r:id="rId72"/>
-    <hyperlink ref="B38" r:id="rId73"/>
-    <hyperlink ref="T38" r:id="rId74"/>
-    <hyperlink ref="B39" r:id="rId75"/>
-    <hyperlink ref="T39" r:id="rId76"/>
-    <hyperlink ref="B40" r:id="rId77"/>
-    <hyperlink ref="T40" r:id="rId78"/>
-    <hyperlink ref="B41" r:id="rId79"/>
-    <hyperlink ref="T41" r:id="rId80"/>
-    <hyperlink ref="B42" r:id="rId81"/>
-    <hyperlink ref="T42" r:id="rId82"/>
-    <hyperlink ref="B43" r:id="rId83"/>
-    <hyperlink ref="T43" r:id="rId84"/>
-    <hyperlink ref="B44" r:id="rId85"/>
-    <hyperlink ref="T44" r:id="rId86"/>
-    <hyperlink ref="B45" r:id="rId87"/>
-    <hyperlink ref="T45" r:id="rId88"/>
-    <hyperlink ref="B46" r:id="rId89"/>
-    <hyperlink ref="T46" r:id="rId90"/>
-    <hyperlink ref="B47" r:id="rId91"/>
-    <hyperlink ref="T47" r:id="rId92"/>
-    <hyperlink ref="B48" r:id="rId93"/>
-    <hyperlink ref="T48" r:id="rId94"/>
-    <hyperlink ref="B49" r:id="rId95"/>
-    <hyperlink ref="T49" r:id="rId96"/>
-    <hyperlink ref="B50" r:id="rId97"/>
-    <hyperlink ref="T50" r:id="rId98"/>
-    <hyperlink ref="B51" r:id="rId99"/>
-    <hyperlink ref="T51" r:id="rId100"/>
-    <hyperlink ref="B52" r:id="rId101"/>
-    <hyperlink ref="T52" r:id="rId102"/>
-    <hyperlink ref="B53" r:id="rId103"/>
-    <hyperlink ref="T53" r:id="rId104"/>
-    <hyperlink ref="B54" r:id="rId105"/>
-    <hyperlink ref="T54" r:id="rId106"/>
-    <hyperlink ref="B55" r:id="rId107"/>
-    <hyperlink ref="T55" r:id="rId108"/>
-    <hyperlink ref="B56" r:id="rId109"/>
-    <hyperlink ref="T56" r:id="rId110"/>
-    <hyperlink ref="B57" r:id="rId111"/>
-    <hyperlink ref="T57" r:id="rId112"/>
-    <hyperlink ref="B58" r:id="rId113"/>
-    <hyperlink ref="T58" r:id="rId114"/>
-    <hyperlink ref="B59" r:id="rId115"/>
-    <hyperlink ref="T59" r:id="rId116"/>
-    <hyperlink ref="B60" r:id="rId117"/>
-    <hyperlink ref="T60" r:id="rId118"/>
-    <hyperlink ref="B61" r:id="rId119"/>
-    <hyperlink ref="T61" r:id="rId120"/>
-    <hyperlink ref="B62" r:id="rId121"/>
-    <hyperlink ref="T62" r:id="rId122"/>
-    <hyperlink ref="B63" r:id="rId123"/>
-    <hyperlink ref="T63" r:id="rId124"/>
-    <hyperlink ref="B64" r:id="rId125"/>
-    <hyperlink ref="T64" r:id="rId126"/>
-    <hyperlink ref="B65" r:id="rId127"/>
-    <hyperlink ref="T65" r:id="rId128"/>
-    <hyperlink ref="B66" r:id="rId129"/>
-    <hyperlink ref="T66" r:id="rId130"/>
-    <hyperlink ref="B67" r:id="rId131"/>
-    <hyperlink ref="T67" r:id="rId132"/>
-    <hyperlink ref="B68" r:id="rId133"/>
-    <hyperlink ref="T68" r:id="rId134"/>
-    <hyperlink ref="B69" r:id="rId135"/>
-    <hyperlink ref="T69" r:id="rId136"/>
-    <hyperlink ref="B70" r:id="rId137"/>
-    <hyperlink ref="T70" r:id="rId138"/>
-    <hyperlink ref="B71" r:id="rId139"/>
-    <hyperlink ref="T71" r:id="rId140"/>
-    <hyperlink ref="B72" r:id="rId141"/>
-    <hyperlink ref="T72" r:id="rId142"/>
-    <hyperlink ref="B73" r:id="rId143"/>
-    <hyperlink ref="T73" r:id="rId144"/>
-    <hyperlink ref="B74" r:id="rId145"/>
-    <hyperlink ref="T74" r:id="rId146"/>
-    <hyperlink ref="B75" r:id="rId147"/>
-    <hyperlink ref="T75" r:id="rId148"/>
-    <hyperlink ref="B76" r:id="rId149"/>
-    <hyperlink ref="T76" r:id="rId150"/>
-    <hyperlink ref="B77" r:id="rId151"/>
-    <hyperlink ref="T77" r:id="rId152"/>
-    <hyperlink ref="B78" r:id="rId153"/>
-    <hyperlink ref="T78" r:id="rId154"/>
-    <hyperlink ref="B79" r:id="rId155"/>
-    <hyperlink ref="T79" r:id="rId156"/>
-    <hyperlink ref="B80" r:id="rId157"/>
-    <hyperlink ref="T80" r:id="rId158"/>
-    <hyperlink ref="B81" r:id="rId159"/>
-    <hyperlink ref="T81" r:id="rId160"/>
-    <hyperlink ref="B82" r:id="rId161"/>
-    <hyperlink ref="T82" r:id="rId162"/>
-    <hyperlink ref="B83" r:id="rId163"/>
-    <hyperlink ref="T83" r:id="rId164"/>
-    <hyperlink ref="B84" r:id="rId165"/>
-    <hyperlink ref="T84" r:id="rId166"/>
-    <hyperlink ref="B85" r:id="rId167"/>
-    <hyperlink ref="T85" r:id="rId168"/>
-    <hyperlink ref="B86" r:id="rId169"/>
-    <hyperlink ref="T86" r:id="rId170"/>
-    <hyperlink ref="B87" r:id="rId171"/>
-    <hyperlink ref="T87" r:id="rId172"/>
-    <hyperlink ref="B88" r:id="rId173"/>
-    <hyperlink ref="T88" r:id="rId174"/>
-    <hyperlink ref="B89" r:id="rId175"/>
-    <hyperlink ref="T89" r:id="rId176"/>
-    <hyperlink ref="B90" r:id="rId177"/>
-    <hyperlink ref="T90" r:id="rId178"/>
-    <hyperlink ref="B91" r:id="rId179"/>
-    <hyperlink ref="T91" r:id="rId180"/>
-    <hyperlink ref="B92" r:id="rId181"/>
-    <hyperlink ref="T92" r:id="rId182"/>
-    <hyperlink ref="B93" r:id="rId183"/>
-    <hyperlink ref="T93" r:id="rId184"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="T3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="T4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="T5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="T7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="T8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="T9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="T10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="T11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="T12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="T13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="T14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="T15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="T16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="T17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="T18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="T19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="T20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="T21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="T22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="T23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="T24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="T25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="T26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="T27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="T28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="T29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="T30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="T31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="T32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="T33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="T34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="T35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="T36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="T37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="T38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="T39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="T40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="T41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="T42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="T43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="T44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="T45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="T46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="T47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="T48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="T49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="T50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="T51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="T52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="T53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="T54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="T55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="T56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="T57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="T58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="T59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="T60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="T61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="T62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="T63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="T64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="T65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="T66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="T67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="T68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="T69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="T70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="T71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="T72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="T73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="T74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="T75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="T76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="T77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="T78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="T79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="T80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="T81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="T82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="T83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="T84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="T85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="T86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="T87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="T88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="T89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="T90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="T91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="T92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="T93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\conferences\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E01D915-AA51-4425-8349-8136921FB50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="661">
   <si>
     <t>video_id</t>
   </si>
@@ -358,6 +352,12 @@
     <t>https://www.youtube.com/watch?v=LFV4FpfdwEw&amp;list=PLaPZjXlv7CZbdVVJVPb3dyX3aXFFjj9J0&amp;index=5</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=5l-SXv-VeJE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MvZkdD6J5vY</t>
+  </si>
+  <si>
     <t>Le goût du vrai</t>
   </si>
   <si>
@@ -631,6 +631,12 @@
     <t>Un topo sur les topos</t>
   </si>
   <si>
+    <t>La beauté est-elle dans l'art ou dans notre regard ?</t>
+  </si>
+  <si>
+    <t>La beauté : Pourquoi en avons-nous plus que jamais besoin ?</t>
+  </si>
+  <si>
     <t>Etienne Klein</t>
   </si>
   <si>
@@ -724,6 +730,9 @@
     <t>Francis Wolff</t>
   </si>
   <si>
+    <t>Charles Pépin</t>
+  </si>
+  <si>
     <t>Conférence</t>
   </si>
   <si>
@@ -739,9 +748,15 @@
     <t>Biologie</t>
   </si>
   <si>
+    <t>Zététique</t>
+  </si>
+  <si>
     <t>Astrophysique</t>
   </si>
   <si>
+    <t>Ecologie</t>
+  </si>
+  <si>
     <t>Economie</t>
   </si>
   <si>
@@ -754,13 +769,10 @@
     <t>Neurosciences</t>
   </si>
   <si>
-    <t>Zététique</t>
-  </si>
-  <si>
     <t>Sociologie</t>
   </si>
   <si>
-    <t>Ecologie</t>
+    <t>Art</t>
   </si>
   <si>
     <t>Musique</t>
@@ -853,162 +865,168 @@
     <t>Le multivers</t>
   </si>
   <si>
-    <t>La transition énergétique</t>
+    <t>La monnaie</t>
+  </si>
+  <si>
+    <t>La catastrophe financière</t>
+  </si>
+  <si>
+    <t>La physique quantique</t>
+  </si>
+  <si>
+    <t>La matière</t>
+  </si>
+  <si>
+    <t>Les mathématiques</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>La conscience</t>
+  </si>
+  <si>
+    <t>L'esprit critique</t>
+  </si>
+  <si>
+    <t>L'éducation</t>
+  </si>
+  <si>
+    <t>La forêt</t>
+  </si>
+  <si>
+    <t>Le climat</t>
+  </si>
+  <si>
+    <t>L'économie</t>
+  </si>
+  <si>
+    <t>Le CERN</t>
+  </si>
+  <si>
+    <t>L'art</t>
+  </si>
+  <si>
+    <t>Le jazz</t>
+  </si>
+  <si>
+    <t>Les microbes</t>
+  </si>
+  <si>
+    <t>Le langage</t>
+  </si>
+  <si>
+    <t>Le sanskrit</t>
+  </si>
+  <si>
+    <t>Histoires de vie</t>
+  </si>
+  <si>
+    <t>Philosophie des sciences</t>
+  </si>
+  <si>
+    <t>Le système éducatif</t>
+  </si>
+  <si>
+    <t>Les sols</t>
+  </si>
+  <si>
+    <t>L'espace-temps</t>
+  </si>
+  <si>
+    <t>Les formes</t>
+  </si>
+  <si>
+    <t>Grothendieck</t>
+  </si>
+  <si>
+    <t>Le beau</t>
+  </si>
+  <si>
+    <t>La politique</t>
+  </si>
+  <si>
+    <t>Les nouvelles technologies</t>
+  </si>
+  <si>
+    <t>La pensée</t>
+  </si>
+  <si>
+    <t>La génétique</t>
+  </si>
+  <si>
+    <t>La Terre</t>
+  </si>
+  <si>
+    <t>La créativité</t>
+  </si>
+  <si>
+    <t>Les sciences</t>
+  </si>
+  <si>
+    <t>Les ingénieurs</t>
+  </si>
+  <si>
+    <t>L'énergie</t>
   </si>
   <si>
     <t>Le commun</t>
   </si>
   <si>
-    <t>La monnaie</t>
-  </si>
-  <si>
-    <t>La catastrophe financière</t>
-  </si>
-  <si>
-    <t>La physique quantique</t>
-  </si>
-  <si>
-    <t>La matière</t>
-  </si>
-  <si>
-    <t>Les mathématiques</t>
-  </si>
-  <si>
-    <t>Fun</t>
-  </si>
-  <si>
-    <t>La conscience</t>
-  </si>
-  <si>
-    <t>L'esprit critique</t>
-  </si>
-  <si>
-    <t>L'éducation</t>
-  </si>
-  <si>
-    <t>La forêt</t>
-  </si>
-  <si>
-    <t>Le climat</t>
-  </si>
-  <si>
-    <t>L'économie</t>
-  </si>
-  <si>
-    <t>Le CERN</t>
-  </si>
-  <si>
-    <t>L'art</t>
-  </si>
-  <si>
-    <t>Le jazz</t>
-  </si>
-  <si>
-    <t>Les microbes</t>
-  </si>
-  <si>
-    <t>Le langage</t>
-  </si>
-  <si>
-    <t>Le sanskrit</t>
-  </si>
-  <si>
-    <t>Histoires de vie</t>
-  </si>
-  <si>
-    <t>Philosophie des sciences</t>
-  </si>
-  <si>
-    <t>Le système éducatif</t>
-  </si>
-  <si>
-    <t>Les sols</t>
-  </si>
-  <si>
-    <t>L'espace-temps</t>
-  </si>
-  <si>
-    <t>Les formes</t>
-  </si>
-  <si>
-    <t>Grothendieck</t>
-  </si>
-  <si>
-    <t>La politique</t>
-  </si>
-  <si>
-    <t>Les nouvelles technologies</t>
-  </si>
-  <si>
-    <t>La pensée</t>
-  </si>
-  <si>
-    <t>La génétique</t>
-  </si>
-  <si>
-    <t>La Terre</t>
-  </si>
-  <si>
-    <t>La créativité</t>
-  </si>
-  <si>
-    <t>Les sciences</t>
-  </si>
-  <si>
-    <t>Les ingénieurs</t>
+    <t>Le revenu universel</t>
+  </si>
+  <si>
+    <t>L'espèce</t>
+  </si>
+  <si>
+    <t>Blaise Pascale</t>
+  </si>
+  <si>
+    <t>Histoire de vie</t>
+  </si>
+  <si>
+    <t>La cryptographie quantique</t>
+  </si>
+  <si>
+    <t>L'impossible</t>
+  </si>
+  <si>
+    <t>Le blues</t>
+  </si>
+  <si>
+    <t>Les parasites</t>
+  </si>
+  <si>
+    <t>L'informatique</t>
+  </si>
+  <si>
+    <t>Les mathématiciens</t>
+  </si>
+  <si>
+    <t>La confiance</t>
+  </si>
+  <si>
+    <t>Les nombres premiers</t>
+  </si>
+  <si>
+    <t>Les spectres</t>
+  </si>
+  <si>
+    <t>Les topos</t>
+  </si>
+  <si>
+    <t>Philsophie de l'art</t>
+  </si>
+  <si>
+    <t>L'esthétique</t>
+  </si>
+  <si>
+    <t>Darwin</t>
   </si>
   <si>
     <t>Le bien commun</t>
   </si>
   <si>
-    <t>Le revenu universel</t>
-  </si>
-  <si>
-    <t>L'espèce</t>
-  </si>
-  <si>
-    <t>Blaise Pascale</t>
-  </si>
-  <si>
-    <t>Histoire de vie</t>
-  </si>
-  <si>
-    <t>La cryptographie quantique</t>
-  </si>
-  <si>
-    <t>L'impossible</t>
-  </si>
-  <si>
-    <t>Le blues</t>
-  </si>
-  <si>
-    <t>Les parasites</t>
-  </si>
-  <si>
-    <t>L'informatique</t>
-  </si>
-  <si>
-    <t>Les mathématiciens</t>
-  </si>
-  <si>
-    <t>La confiance</t>
-  </si>
-  <si>
-    <t>Les nombres premiers</t>
-  </si>
-  <si>
-    <t>Les spectres</t>
-  </si>
-  <si>
-    <t>Les topos</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>L'énergie</t>
-  </si>
-  <si>
     <t>John Nash</t>
   </si>
   <si>
@@ -1039,6 +1057,12 @@
     <t>Philosophie des Sciences</t>
   </si>
   <si>
+    <t>Philosophie de l'art</t>
+  </si>
+  <si>
+    <t>Einstein</t>
+  </si>
+  <si>
     <t>Von Neumann</t>
   </si>
   <si>
@@ -1261,6 +1285,12 @@
     <t>00:00:11</t>
   </si>
   <si>
+    <t>00:05:25</t>
+  </si>
+  <si>
+    <t>00:06:26</t>
+  </si>
+  <si>
     <t>01:20:31</t>
   </si>
   <si>
@@ -1399,6 +1429,12 @@
     <t>01:05:07</t>
   </si>
   <si>
+    <t>01:04:22</t>
+  </si>
+  <si>
+    <t>01:00:38</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
@@ -1678,6 +1714,12 @@
     <t>01:57:31</t>
   </si>
   <si>
+    <t>01:39:57</t>
+  </si>
+  <si>
+    <t>01:29:13</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/2byu0bYPj0c/hq720.jpg</t>
   </si>
   <si>
@@ -1949,16 +1991,22 @@
   </si>
   <si>
     <t>https://i.ytimg.com/vi/LFV4FpfdwEw/hqdefault.jpg?sqp=-oaymwEXCJADEOABSFryq4qpAwkIARUAAIhCGAE=&amp;rs=AOn4CLCehao7GQcjvqUp-ga8YnsuAhh__Q</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/5l-SXv-VeJE/hq720.jpg?sqp=-oaymwEmCIAKENAF8quKqQMa8AEB-AH-CYAC0AWKAgwIABABGHIgYChDMA8=&amp;rs=AOn4CLCaBc0PiGKTXOCUeKAFJ0US8zh3qQ</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/MvZkdD6J5vY/hq720.jpg?sqp=-oaymwEmCIAKENAF8quKqQMa8AEB-AH-CYAC0AWKAgwIABABGF8gXyhfMA8=&amp;rs=AOn4CLDyTarguNTDehXEyB0d7x7yLmWDng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2035,21 +2083,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2087,7 +2127,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2121,7 +2161,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2156,10 +2195,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2332,25 +2370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2415,7 +2442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2423,49 +2450,52 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>253</v>
+        <v>259</v>
+      </c>
+      <c r="J2" t="s">
+        <v>302</v>
       </c>
       <c r="N2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="O2" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="P2" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q2" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="S2" s="3">
         <v>44144</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2473,52 +2503,52 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="N3" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="O3" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="P3" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q3" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R3" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="S3" s="3">
         <v>42516</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2526,52 +2556,52 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="N4" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="O4" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="P4" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q4" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R4" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="S4" s="3">
         <v>42541</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2579,49 +2609,49 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J5" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="N5" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="O5" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="P5" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q5" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R5" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="S5" s="3">
         <v>42420</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2629,49 +2659,49 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N6" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="O6" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="P6" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q6" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R6" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="S6" s="3">
         <v>44691</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2679,52 +2709,52 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="O7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="P7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="S7" s="3">
         <v>41729</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2732,52 +2762,55 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J8" t="s">
-        <v>304</v>
+        <v>309</v>
+      </c>
+      <c r="K8" t="s">
+        <v>302</v>
       </c>
       <c r="N8" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="O8" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="P8" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q8" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R8" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="S8" s="3">
         <v>45281</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2785,52 +2818,58 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I9" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J9" t="s">
-        <v>305</v>
+        <v>310</v>
+      </c>
+      <c r="K9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L9" t="s">
+        <v>309</v>
       </c>
       <c r="N9" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="O9" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="P9" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q9" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R9" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="S9" s="3">
         <v>45041</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2838,49 +2877,49 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="I10" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N10" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="P10" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q10" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R10" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="S10" s="3">
         <v>43369</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2888,49 +2927,49 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I11" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J11" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N11" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="O11" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="P11" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q11" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R11" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="S11" s="3">
         <v>41939</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2938,49 +2977,49 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I12" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N12" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="O12" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="P12" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q12" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R12" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="S12" s="3">
         <v>45349</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2988,52 +3027,52 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I13" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J13" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K13" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N13" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="O13" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="P13" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q13" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R13" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="S13" s="3">
         <v>41813</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3041,46 +3080,46 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I14" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J14" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N14" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P14" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q14" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="R14" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="S14" s="3">
         <v>39532</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3088,46 +3127,46 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I15" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J15" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N15" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P15" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="Q15" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R15" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="S15" s="3">
         <v>41966</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3135,46 +3174,46 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J16" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N16" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P16" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q16" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R16" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="S16" s="3">
         <v>43404</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3182,46 +3221,46 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G17" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I17" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J17" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N17" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P17" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q17" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R17" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="S17" s="3">
         <v>45232</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3229,49 +3268,49 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I18" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J18" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K18" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="N18" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P18" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q18" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R18" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="S18" s="3">
         <v>45351</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3279,49 +3318,49 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="I19" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J19" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N19" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="O19" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="P19" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q19" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R19" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="S19" s="3">
         <v>44540</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3329,49 +3368,49 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G20" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I20" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N20" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="O20" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="P20" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q20" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R20" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="S20" s="3">
         <v>42997</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3379,52 +3418,52 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I21" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J21" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="N21" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="O21" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="P21" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q21" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R21" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="S21" s="3">
         <v>42852</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3432,46 +3471,46 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H22" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N22" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P22" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q22" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="R22" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="S22" s="3">
         <v>43643</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3479,52 +3518,52 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H23" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I23" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="N23" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="O23" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="P23" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q23" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R23" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="S23" s="3">
         <v>40813</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3532,46 +3571,46 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I24" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J24" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N24" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="P24" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q24" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R24" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="S24" s="3">
         <v>43019</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3579,46 +3618,46 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H25" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I25" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="N25" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="P25" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q25" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R25" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="S25" s="3">
         <v>42860</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3626,52 +3665,55 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I26" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K26" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="L26" t="s">
+        <v>348</v>
       </c>
       <c r="N26" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="O26" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="P26" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q26" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R26" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="S26" s="3">
         <v>42791</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3679,46 +3721,46 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I27" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N27" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="P27" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="Q27" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R27" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="S27" s="3">
         <v>42739</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3726,46 +3768,46 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I28" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J28" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="P28" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q28" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R28" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="S28" s="3">
         <v>43021</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3773,49 +3815,49 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="O29" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="P29" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q29" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R29" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="S29" s="3">
         <v>43298</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3823,55 +3865,55 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H30" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="O30" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P30" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q30" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R30" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="S30" s="3">
         <v>43426</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3879,49 +3921,49 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H31" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N31" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P31" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q31" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R31" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="S31" s="3">
         <v>43448</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3929,46 +3971,46 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H32" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P32" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q32" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R32" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="S32" s="3">
         <v>43580</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3976,49 +4018,49 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H33" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="P33" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q33" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R33" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="S33" s="3">
         <v>43652</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4026,46 +4068,46 @@
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I34" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J34" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N34" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="P34" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q34" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R34" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="S34" s="3">
         <v>43838</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4073,49 +4115,52 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G35" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I35" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>309</v>
+      </c>
+      <c r="L35" t="s">
+        <v>302</v>
       </c>
       <c r="N35" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="P35" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q35" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R35" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="S35" s="3">
         <v>43869</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4123,52 +4168,55 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G36" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I36" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J36" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>309</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
       </c>
       <c r="N36" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="O36" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="P36" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q36" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R36" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="S36" s="3">
         <v>44893</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4176,49 +4224,49 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F37" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G37" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I37" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J37" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K37" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="N37" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P37" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q37" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R37" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="S37" s="3">
         <v>44972</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4226,46 +4274,46 @@
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I38" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J38" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N38" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="P38" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q38" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R38" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="S38" s="3">
         <v>42736</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4273,49 +4321,49 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H39" t="s">
         <v>246</v>
       </c>
       <c r="I39" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J39" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N39" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="P39" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q39" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R39" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="S39" s="3">
         <v>45315</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4323,55 +4371,52 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D40">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G40" t="s">
         <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
-      </c>
-      <c r="K40" t="s">
-        <v>328</v>
-      </c>
-      <c r="L40" t="s">
-        <v>275</v>
+        <v>281</v>
+      </c>
+      <c r="J40" t="s">
+        <v>317</v>
       </c>
       <c r="N40" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="O40" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="P40" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q40" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R40" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="S40" s="3">
         <v>43706</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4379,55 +4424,52 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F41" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G41" t="s">
         <v>246</v>
       </c>
       <c r="H41" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>277</v>
-      </c>
-      <c r="K41" t="s">
-        <v>328</v>
-      </c>
-      <c r="L41" t="s">
-        <v>275</v>
+        <v>281</v>
+      </c>
+      <c r="J41" t="s">
+        <v>317</v>
       </c>
       <c r="N41" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="O41" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="P41" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q41" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R41" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="S41" s="3">
         <v>44445</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4435,46 +4477,43 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G42" t="s">
         <v>246</v>
       </c>
       <c r="H42" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I42" t="s">
-        <v>277</v>
-      </c>
-      <c r="K42" t="s">
-        <v>328</v>
-      </c>
-      <c r="L42" t="s">
-        <v>275</v>
+        <v>281</v>
+      </c>
+      <c r="J42" t="s">
+        <v>317</v>
       </c>
       <c r="N42" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="R42" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="S42" s="3">
         <v>45246</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4482,49 +4521,52 @@
         <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H43" t="s">
         <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J43" t="s">
-        <v>312</v>
+        <v>318</v>
+      </c>
+      <c r="K43" t="s">
+        <v>336</v>
       </c>
       <c r="N43" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="P43" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q43" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R43" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="S43" s="3">
         <v>42736</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4532,55 +4574,55 @@
         <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G44" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H44" t="s">
         <v>246</v>
       </c>
       <c r="I44" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J44" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K44" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N44" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="O44" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="P44" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q44" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R44" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="S44" s="3">
         <v>44204</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4588,52 +4630,52 @@
         <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G45" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H45" t="s">
         <v>246</v>
       </c>
       <c r="I45" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J45" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N45" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="O45" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="P45" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q45" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R45" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="S45" s="3">
         <v>44882</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4641,49 +4683,49 @@
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F46" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G46" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I46" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J46" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N46" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="P46" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q46" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R46" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="S46" s="3">
         <v>44866</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4691,49 +4733,49 @@
         <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F47" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G47" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I47" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J47" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N47" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="O47" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="P47" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q47" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R47" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="S47" s="3">
         <v>44383</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4741,46 +4783,46 @@
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I48" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J48" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N48" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P48" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q48" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R48" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="S48" s="3">
         <v>43544</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4788,46 +4830,46 @@
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D49">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I49" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N49" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="O49" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="P49" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q49" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R49" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="S49" s="3">
         <v>41948</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4835,49 +4877,49 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G50" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I50" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J50" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N50" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="O50" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="P50" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q50" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R50" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="S50" s="3">
         <v>43013</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4885,49 +4927,49 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I51" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J51" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N51" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="P51" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q51" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R51" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="S51" s="3">
         <v>42816</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4935,46 +4977,46 @@
         <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F52" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G52" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I52" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N52" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="P52" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q52" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R52" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="S52" s="3">
         <v>41942</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4982,46 +5024,46 @@
         <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G53" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I53" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N53" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="O53" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="P53" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q53" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R53" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="S53" s="3">
         <v>41772</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5029,49 +5071,49 @@
         <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G54" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I54" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J54" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N54" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="O54" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="P54" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q54" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R54" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="S54" s="3">
         <v>42046</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5079,49 +5121,49 @@
         <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G55" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="I55" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J55" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="N55" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="O55" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="P55" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q55" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R55" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="S55" s="3">
         <v>41939</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5129,46 +5171,46 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G56" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I56" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N56" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="O56" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="P56" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q56" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R56" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="S56" s="3">
         <v>40295</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5176,43 +5218,43 @@
         <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F57" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G57" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I57" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N57" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P57" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q57" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R57" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="S57" s="3">
         <v>44141</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5220,46 +5262,46 @@
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F58" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G58" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I58" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N58" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="O58" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="P58" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q58" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R58" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="S58" s="3">
         <v>42025</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5267,49 +5309,49 @@
         <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F59" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G59" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I59" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J59" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N59" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="O59" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="P59" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q59" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R59" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="S59" s="3">
         <v>41932</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5317,49 +5359,49 @@
         <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F60" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G60" t="s">
         <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J60" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="N60" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="O60" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="P60" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q60" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R60" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="S60" s="3">
         <v>43061</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5367,46 +5409,46 @@
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F61" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G61" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I61" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N61" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="O61" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="P61" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q61" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R61" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="S61" s="3">
         <v>43152</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5414,46 +5456,46 @@
         <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F62" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I62" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J62" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N62" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="P62" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q62" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R62" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="S62" s="3">
         <v>42914</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5461,46 +5503,46 @@
         <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D63">
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F63" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I63" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J63" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N63" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="P63" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q63" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R63" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="S63" s="3">
         <v>42914</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5508,43 +5550,43 @@
         <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F64" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I64" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N64" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="P64" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q64" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R64" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="S64" s="3">
         <v>44539</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5552,46 +5594,46 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F65" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I65" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N65" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="O65" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="P65" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q65" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R65" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="S65" s="3">
         <v>45398</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5599,46 +5641,46 @@
         <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F66" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G66" t="s">
         <v>246</v>
       </c>
       <c r="I66" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J66" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N66" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="P66" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q66" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R66" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="S66" s="3">
         <v>45412</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5646,52 +5688,52 @@
         <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F67" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G67" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I67" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="J67" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K67" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N67" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="O67" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="P67" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q67" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R67" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="S67" s="3">
         <v>45420</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5699,52 +5741,52 @@
         <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F68" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G68" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I68" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J68" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K68" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N68" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="O68" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="P68" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q68" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R68" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="S68" s="3">
         <v>45307</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5752,52 +5794,52 @@
         <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F69" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G69" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I69" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J69" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K69" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="N69" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="O69" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="P69" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Q69" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R69" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="S69" s="3">
         <v>44243</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5805,46 +5847,46 @@
         <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D70">
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F70" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I70" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N70" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="O70" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="P70" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q70" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R70" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="S70" s="3">
         <v>45385</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5852,46 +5894,46 @@
         <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F71" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G71" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I71" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N71" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="O71" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="P71" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q71" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R71" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="S71" s="3">
         <v>42545</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5899,49 +5941,52 @@
         <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F72" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G72" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I72" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="J72" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K72" t="s">
-        <v>330</v>
+        <v>338</v>
+      </c>
+      <c r="L72" t="s">
+        <v>348</v>
       </c>
       <c r="N72" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="P72" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q72" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R72" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="S72" s="3">
         <v>44653</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5949,46 +5994,46 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F73" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G73" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N73" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="O73" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="P73" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q73" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R73" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="S73" s="3">
         <v>45385</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74">
         <v>74</v>
       </c>
@@ -5996,52 +6041,52 @@
         <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F74" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I74" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="J74" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K74" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="N74" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="O74" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="P74" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q74" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R74" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="S74" s="3">
         <v>41677</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75">
         <v>75</v>
       </c>
@@ -6049,55 +6094,55 @@
         <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D75">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F75" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G75" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I75" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J75" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K75" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L75" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N75" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="O75" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="P75" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q75" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R75" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="S75" s="3">
         <v>43481</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76">
         <v>76</v>
       </c>
@@ -6105,52 +6150,55 @@
         <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F76" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>252</v>
+      </c>
+      <c r="H76" t="s">
+        <v>241</v>
       </c>
       <c r="I76" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J76" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K76" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="N76" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="O76" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="P76" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q76" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R76" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="S76" s="3">
         <v>43776</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77">
         <v>77</v>
       </c>
@@ -6158,46 +6206,46 @@
         <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F77" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G77" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I77" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="J77" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N77" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="P77" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q77" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R77" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="S77" s="3">
         <v>44728</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78">
         <v>78</v>
       </c>
@@ -6205,46 +6253,46 @@
         <v>96</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F78" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G78" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I78" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J78" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N78" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="P78" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q78" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R78" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="S78" s="3">
         <v>43047</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79">
         <v>79</v>
       </c>
@@ -6252,52 +6300,52 @@
         <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F79" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H79" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I79" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="J79" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K79" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N79" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="P79" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q79" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R79" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="S79" s="3">
         <v>44591</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80">
         <v>80</v>
       </c>
@@ -6305,46 +6353,46 @@
         <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F80" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="I80" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J80" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N80" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="P80" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q80" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R80" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="S80" s="3">
         <v>44591</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>81</v>
       </c>
@@ -6352,49 +6400,49 @@
         <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D81">
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F81" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G81" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I81" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="J81" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K81" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="N81" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P81" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q81" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R81" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="S81" s="3">
         <v>44591</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>82</v>
       </c>
@@ -6402,49 +6450,49 @@
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F82" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G82" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I82" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J82" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K82" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N82" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="P82" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q82" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R82" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="S82" s="3">
         <v>44591</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>83</v>
       </c>
@@ -6452,52 +6500,52 @@
         <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D83">
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F83" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G83" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I83" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J83" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K83" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L83" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N83" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="P83" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q83" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R83" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="S83" s="3">
         <v>42382</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>84</v>
       </c>
@@ -6505,52 +6553,52 @@
         <v>102</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D84">
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G84" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I84" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J84" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K84" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L84" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="N84" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P84" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q84" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R84" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="S84" s="3">
         <v>44108</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>85</v>
       </c>
@@ -6558,49 +6606,49 @@
         <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F85" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G85" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I85" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="J85" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K85" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N85" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="P85" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q85" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R85" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="S85" s="3">
         <v>44589</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>86</v>
       </c>
@@ -6608,52 +6656,52 @@
         <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F86" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G86" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I86" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J86" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K86" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L86" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N86" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="P86" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q86" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R86" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="S86" s="3">
         <v>45390</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>87</v>
       </c>
@@ -6661,46 +6709,46 @@
         <v>105</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D87">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F87" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G87" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I87" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J87" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N87" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="P87" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q87" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R87" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="S87" s="3">
         <v>45412</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>88</v>
       </c>
@@ -6708,49 +6756,49 @@
         <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F88" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G88" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H88" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I88" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="J88" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N88" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P88" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q88" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R88" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="S88" s="3">
         <v>45306</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>89</v>
       </c>
@@ -6758,43 +6806,43 @@
         <v>107</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F89" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G89" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I89" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N89" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P89" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q89" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R89" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="S89" s="3">
         <v>44575</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>90</v>
       </c>
@@ -6802,49 +6850,49 @@
         <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D90">
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F90" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G90" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H90" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I90" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="J90" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N90" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="P90" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q90" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R90" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="S90" s="3">
         <v>44526</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>91</v>
       </c>
@@ -6852,52 +6900,52 @@
         <v>109</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F91" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G91" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I91" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J91" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K91" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="N91" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="O91" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P91" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q91" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R91" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="S91" s="3">
         <v>43993</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>92</v>
       </c>
@@ -6905,46 +6953,46 @@
         <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F92" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G92" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I92" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J92" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N92" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P92" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q92" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="R92" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="S92" s="3">
         <v>44587</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>93</v>
       </c>
@@ -6952,240 +7000,356 @@
         <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F93" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G93" t="s">
+        <v>248</v>
+      </c>
+      <c r="H93" t="s">
         <v>241</v>
       </c>
-      <c r="H93" t="s">
-        <v>236</v>
-      </c>
       <c r="I93" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="J93" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K93" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N93" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P93" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="Q93" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R93" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="S93" s="3">
         <v>43380</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="U93">
         <v>0</v>
       </c>
     </row>
+    <row r="94" spans="1:21">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>238</v>
+      </c>
+      <c r="F94" t="s">
+        <v>239</v>
+      </c>
+      <c r="G94" t="s">
+        <v>252</v>
+      </c>
+      <c r="H94" t="s">
+        <v>241</v>
+      </c>
+      <c r="I94" t="s">
+        <v>308</v>
+      </c>
+      <c r="J94" t="s">
+        <v>333</v>
+      </c>
+      <c r="K94" t="s">
+        <v>334</v>
+      </c>
+      <c r="N94" t="s">
+        <v>423</v>
+      </c>
+      <c r="O94" t="s">
+        <v>471</v>
+      </c>
+      <c r="P94" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>473</v>
+      </c>
+      <c r="R94" t="s">
+        <v>566</v>
+      </c>
+      <c r="S94" s="3">
+        <v>44713</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>238</v>
+      </c>
+      <c r="F95" t="s">
+        <v>239</v>
+      </c>
+      <c r="G95" t="s">
+        <v>252</v>
+      </c>
+      <c r="H95" t="s">
+        <v>241</v>
+      </c>
+      <c r="I95" t="s">
+        <v>308</v>
+      </c>
+      <c r="J95" t="s">
+        <v>334</v>
+      </c>
+      <c r="K95" t="s">
+        <v>347</v>
+      </c>
+      <c r="N95" t="s">
+        <v>424</v>
+      </c>
+      <c r="O95" t="s">
+        <v>472</v>
+      </c>
+      <c r="P95" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>473</v>
+      </c>
+      <c r="R95" t="s">
+        <v>567</v>
+      </c>
+      <c r="S95" s="3">
+        <v>44641</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="T3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="T4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="T5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="T6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="T7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="T8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="T9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="T10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="T11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="T12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="T13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="T14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="T15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="T16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="T17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="T18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="T19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="T20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="T21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="T22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="T23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="T24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="T25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="T26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="T27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="T28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="T29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="T30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="T31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="T32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="T33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="T34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="T35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="T36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="T37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="T38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="T39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="T40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="T41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="T42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="T43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="T44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="T45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="T46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="T47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="T48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="T49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="T50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="T51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="T52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="T53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="T54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="T55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="T56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="T57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="T58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="T59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="T60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="T61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="T62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="T63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="T64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="T65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="T66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="T67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="T68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="T69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="T70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="T71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="T72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="T73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="T74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="T75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="T76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="T77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="T78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="T79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="T80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="T81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="T82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="T83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="T84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="T85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="T86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="T87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="T88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="T89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="T90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="T91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="T92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="T93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="T2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="T3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="T4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="T5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="T6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="T7" r:id="rId12"/>
+    <hyperlink ref="B8" r:id="rId13"/>
+    <hyperlink ref="T8" r:id="rId14"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="T9" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="T10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="T11" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="T12" r:id="rId22"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="T13" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="T14" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="T15" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="T16" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="T17" r:id="rId32"/>
+    <hyperlink ref="B18" r:id="rId33"/>
+    <hyperlink ref="T18" r:id="rId34"/>
+    <hyperlink ref="B19" r:id="rId35"/>
+    <hyperlink ref="T19" r:id="rId36"/>
+    <hyperlink ref="B20" r:id="rId37"/>
+    <hyperlink ref="T20" r:id="rId38"/>
+    <hyperlink ref="B21" r:id="rId39"/>
+    <hyperlink ref="T21" r:id="rId40"/>
+    <hyperlink ref="B22" r:id="rId41"/>
+    <hyperlink ref="T22" r:id="rId42"/>
+    <hyperlink ref="B23" r:id="rId43"/>
+    <hyperlink ref="T23" r:id="rId44"/>
+    <hyperlink ref="B24" r:id="rId45"/>
+    <hyperlink ref="T24" r:id="rId46"/>
+    <hyperlink ref="B25" r:id="rId47"/>
+    <hyperlink ref="T25" r:id="rId48"/>
+    <hyperlink ref="B26" r:id="rId49"/>
+    <hyperlink ref="T26" r:id="rId50"/>
+    <hyperlink ref="B27" r:id="rId51"/>
+    <hyperlink ref="T27" r:id="rId52"/>
+    <hyperlink ref="B28" r:id="rId53"/>
+    <hyperlink ref="T28" r:id="rId54"/>
+    <hyperlink ref="B29" r:id="rId55"/>
+    <hyperlink ref="T29" r:id="rId56"/>
+    <hyperlink ref="B30" r:id="rId57"/>
+    <hyperlink ref="T30" r:id="rId58"/>
+    <hyperlink ref="B31" r:id="rId59"/>
+    <hyperlink ref="T31" r:id="rId60"/>
+    <hyperlink ref="B32" r:id="rId61"/>
+    <hyperlink ref="T32" r:id="rId62"/>
+    <hyperlink ref="B33" r:id="rId63"/>
+    <hyperlink ref="T33" r:id="rId64"/>
+    <hyperlink ref="B34" r:id="rId65"/>
+    <hyperlink ref="T34" r:id="rId66"/>
+    <hyperlink ref="B35" r:id="rId67"/>
+    <hyperlink ref="T35" r:id="rId68"/>
+    <hyperlink ref="B36" r:id="rId69"/>
+    <hyperlink ref="T36" r:id="rId70"/>
+    <hyperlink ref="B37" r:id="rId71"/>
+    <hyperlink ref="T37" r:id="rId72"/>
+    <hyperlink ref="B38" r:id="rId73"/>
+    <hyperlink ref="T38" r:id="rId74"/>
+    <hyperlink ref="B39" r:id="rId75"/>
+    <hyperlink ref="T39" r:id="rId76"/>
+    <hyperlink ref="B40" r:id="rId77"/>
+    <hyperlink ref="T40" r:id="rId78"/>
+    <hyperlink ref="B41" r:id="rId79"/>
+    <hyperlink ref="T41" r:id="rId80"/>
+    <hyperlink ref="B42" r:id="rId81"/>
+    <hyperlink ref="T42" r:id="rId82"/>
+    <hyperlink ref="B43" r:id="rId83"/>
+    <hyperlink ref="T43" r:id="rId84"/>
+    <hyperlink ref="B44" r:id="rId85"/>
+    <hyperlink ref="T44" r:id="rId86"/>
+    <hyperlink ref="B45" r:id="rId87"/>
+    <hyperlink ref="T45" r:id="rId88"/>
+    <hyperlink ref="B46" r:id="rId89"/>
+    <hyperlink ref="T46" r:id="rId90"/>
+    <hyperlink ref="B47" r:id="rId91"/>
+    <hyperlink ref="T47" r:id="rId92"/>
+    <hyperlink ref="B48" r:id="rId93"/>
+    <hyperlink ref="T48" r:id="rId94"/>
+    <hyperlink ref="B49" r:id="rId95"/>
+    <hyperlink ref="T49" r:id="rId96"/>
+    <hyperlink ref="B50" r:id="rId97"/>
+    <hyperlink ref="T50" r:id="rId98"/>
+    <hyperlink ref="B51" r:id="rId99"/>
+    <hyperlink ref="T51" r:id="rId100"/>
+    <hyperlink ref="B52" r:id="rId101"/>
+    <hyperlink ref="T52" r:id="rId102"/>
+    <hyperlink ref="B53" r:id="rId103"/>
+    <hyperlink ref="T53" r:id="rId104"/>
+    <hyperlink ref="B54" r:id="rId105"/>
+    <hyperlink ref="T54" r:id="rId106"/>
+    <hyperlink ref="B55" r:id="rId107"/>
+    <hyperlink ref="T55" r:id="rId108"/>
+    <hyperlink ref="B56" r:id="rId109"/>
+    <hyperlink ref="T56" r:id="rId110"/>
+    <hyperlink ref="B57" r:id="rId111"/>
+    <hyperlink ref="T57" r:id="rId112"/>
+    <hyperlink ref="B58" r:id="rId113"/>
+    <hyperlink ref="T58" r:id="rId114"/>
+    <hyperlink ref="B59" r:id="rId115"/>
+    <hyperlink ref="T59" r:id="rId116"/>
+    <hyperlink ref="B60" r:id="rId117"/>
+    <hyperlink ref="T60" r:id="rId118"/>
+    <hyperlink ref="B61" r:id="rId119"/>
+    <hyperlink ref="T61" r:id="rId120"/>
+    <hyperlink ref="B62" r:id="rId121"/>
+    <hyperlink ref="T62" r:id="rId122"/>
+    <hyperlink ref="B63" r:id="rId123"/>
+    <hyperlink ref="T63" r:id="rId124"/>
+    <hyperlink ref="B64" r:id="rId125"/>
+    <hyperlink ref="T64" r:id="rId126"/>
+    <hyperlink ref="B65" r:id="rId127"/>
+    <hyperlink ref="T65" r:id="rId128"/>
+    <hyperlink ref="B66" r:id="rId129"/>
+    <hyperlink ref="T66" r:id="rId130"/>
+    <hyperlink ref="B67" r:id="rId131"/>
+    <hyperlink ref="T67" r:id="rId132"/>
+    <hyperlink ref="B68" r:id="rId133"/>
+    <hyperlink ref="T68" r:id="rId134"/>
+    <hyperlink ref="B69" r:id="rId135"/>
+    <hyperlink ref="T69" r:id="rId136"/>
+    <hyperlink ref="B70" r:id="rId137"/>
+    <hyperlink ref="T70" r:id="rId138"/>
+    <hyperlink ref="B71" r:id="rId139"/>
+    <hyperlink ref="T71" r:id="rId140"/>
+    <hyperlink ref="B72" r:id="rId141"/>
+    <hyperlink ref="T72" r:id="rId142"/>
+    <hyperlink ref="B73" r:id="rId143"/>
+    <hyperlink ref="T73" r:id="rId144"/>
+    <hyperlink ref="B74" r:id="rId145"/>
+    <hyperlink ref="T74" r:id="rId146"/>
+    <hyperlink ref="B75" r:id="rId147"/>
+    <hyperlink ref="T75" r:id="rId148"/>
+    <hyperlink ref="B76" r:id="rId149"/>
+    <hyperlink ref="T76" r:id="rId150"/>
+    <hyperlink ref="B77" r:id="rId151"/>
+    <hyperlink ref="T77" r:id="rId152"/>
+    <hyperlink ref="B78" r:id="rId153"/>
+    <hyperlink ref="T78" r:id="rId154"/>
+    <hyperlink ref="B79" r:id="rId155"/>
+    <hyperlink ref="T79" r:id="rId156"/>
+    <hyperlink ref="B80" r:id="rId157"/>
+    <hyperlink ref="T80" r:id="rId158"/>
+    <hyperlink ref="B81" r:id="rId159"/>
+    <hyperlink ref="T81" r:id="rId160"/>
+    <hyperlink ref="B82" r:id="rId161"/>
+    <hyperlink ref="T82" r:id="rId162"/>
+    <hyperlink ref="B83" r:id="rId163"/>
+    <hyperlink ref="T83" r:id="rId164"/>
+    <hyperlink ref="B84" r:id="rId165"/>
+    <hyperlink ref="T84" r:id="rId166"/>
+    <hyperlink ref="B85" r:id="rId167"/>
+    <hyperlink ref="T85" r:id="rId168"/>
+    <hyperlink ref="B86" r:id="rId169"/>
+    <hyperlink ref="T86" r:id="rId170"/>
+    <hyperlink ref="B87" r:id="rId171"/>
+    <hyperlink ref="T87" r:id="rId172"/>
+    <hyperlink ref="B88" r:id="rId173"/>
+    <hyperlink ref="T88" r:id="rId174"/>
+    <hyperlink ref="B89" r:id="rId175"/>
+    <hyperlink ref="T89" r:id="rId176"/>
+    <hyperlink ref="B90" r:id="rId177"/>
+    <hyperlink ref="T90" r:id="rId178"/>
+    <hyperlink ref="B91" r:id="rId179"/>
+    <hyperlink ref="T91" r:id="rId180"/>
+    <hyperlink ref="B92" r:id="rId181"/>
+    <hyperlink ref="T92" r:id="rId182"/>
+    <hyperlink ref="B93" r:id="rId183"/>
+    <hyperlink ref="T93" r:id="rId184"/>
+    <hyperlink ref="B94" r:id="rId185"/>
+    <hyperlink ref="T94" r:id="rId186"/>
+    <hyperlink ref="B95" r:id="rId187"/>
+    <hyperlink ref="T95" r:id="rId188"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\conferences\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03915F07-5797-46D2-84C3-C3494C91BE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$95</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="660">
   <si>
     <t>video_id</t>
   </si>
@@ -74,9 +83,6 @@
   </si>
   <si>
     <t>tn_link</t>
-  </si>
-  <si>
-    <t>Unnamed: 0</t>
   </si>
   <si>
     <t>https://youtu.be/2byu0bYPj0c?si=n3H56mTljA4HRVl7</t>
@@ -2002,11 +2008,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2083,13 +2089,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2127,7 +2141,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2161,6 +2175,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2195,9 +2210,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2370,14 +2386,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2438,4918 +2460,4912 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" t="s">
         <v>241</v>
       </c>
-      <c r="H2" t="s">
-        <v>242</v>
-      </c>
       <c r="I2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S2" s="3">
         <v>44144</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" t="s">
         <v>241</v>
       </c>
-      <c r="H3" t="s">
-        <v>242</v>
-      </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S3" s="3">
         <v>42516</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" t="s">
-        <v>242</v>
-      </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S4" s="3">
         <v>42541</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S5" s="3">
         <v>42420</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" t="s">
         <v>241</v>
       </c>
-      <c r="H6" t="s">
-        <v>242</v>
-      </c>
       <c r="I6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S6" s="3">
         <v>44691</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S7" s="3">
         <v>41729</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P8" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q8" t="s">
         <v>473</v>
       </c>
-      <c r="Q8" t="s">
-        <v>474</v>
-      </c>
       <c r="R8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S8" s="3">
         <v>45281</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" t="s">
         <v>241</v>
       </c>
-      <c r="H9" t="s">
-        <v>242</v>
-      </c>
       <c r="I9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S9" s="3">
         <v>45041</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P10" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q10" t="s">
         <v>473</v>
       </c>
-      <c r="Q10" t="s">
-        <v>474</v>
-      </c>
       <c r="R10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S10" s="3">
         <v>43369</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="S11" s="3">
         <v>41939</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S12" s="3">
         <v>45349</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P13" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q13" t="s">
         <v>473</v>
       </c>
-      <c r="Q13" t="s">
-        <v>474</v>
-      </c>
       <c r="R13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S13" s="3">
         <v>41813</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="S14" s="3">
         <v>39532</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S15" s="3">
         <v>41966</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S16" s="3">
         <v>43404</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S17" s="3">
         <v>45232</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="S18" s="3">
         <v>45351</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S19" s="3">
         <v>44540</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S20" s="3">
         <v>42997</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G21" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" t="s">
         <v>241</v>
       </c>
-      <c r="H21" t="s">
-        <v>242</v>
-      </c>
       <c r="I21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S21" s="3">
         <v>42852</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S22" s="3">
         <v>43643</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S23" s="3">
         <v>40813</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P24" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q24" t="s">
         <v>473</v>
       </c>
-      <c r="Q24" t="s">
-        <v>474</v>
-      </c>
       <c r="R24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="S24" s="3">
         <v>43019</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S25" s="3">
         <v>42860</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P26" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q26" t="s">
         <v>473</v>
       </c>
-      <c r="Q26" t="s">
-        <v>474</v>
-      </c>
       <c r="R26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S26" s="3">
         <v>42791</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S27" s="3">
         <v>42739</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P28" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q28" t="s">
         <v>473</v>
       </c>
-      <c r="Q28" t="s">
-        <v>474</v>
-      </c>
       <c r="R28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S28" s="3">
         <v>43021</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P29" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q29" t="s">
         <v>473</v>
       </c>
-      <c r="Q29" t="s">
-        <v>474</v>
-      </c>
       <c r="R29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S29" s="3">
         <v>43298</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S30" s="3">
         <v>43426</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
         <v>240</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>241</v>
       </c>
-      <c r="H31" t="s">
-        <v>242</v>
-      </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S31" s="3">
         <v>43448</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" t="s">
         <v>241</v>
       </c>
-      <c r="H32" t="s">
-        <v>242</v>
-      </c>
       <c r="I32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P32" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q32" t="s">
         <v>473</v>
       </c>
-      <c r="Q32" t="s">
-        <v>474</v>
-      </c>
       <c r="R32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S32" s="3">
         <v>43580</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P33" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q33" t="s">
         <v>473</v>
       </c>
-      <c r="Q33" t="s">
-        <v>474</v>
-      </c>
       <c r="R33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S33" s="3">
         <v>43652</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P34" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q34" t="s">
         <v>473</v>
       </c>
-      <c r="Q34" t="s">
-        <v>474</v>
-      </c>
       <c r="R34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S34" s="3">
         <v>43838</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P35" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q35" t="s">
         <v>473</v>
       </c>
-      <c r="Q35" t="s">
-        <v>474</v>
-      </c>
       <c r="R35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S35" s="3">
         <v>43869</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S36" s="3">
         <v>44893</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P37" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q37" t="s">
         <v>473</v>
       </c>
-      <c r="Q37" t="s">
-        <v>474</v>
-      </c>
       <c r="R37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S37" s="3">
         <v>44972</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P38" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q38" t="s">
         <v>473</v>
       </c>
-      <c r="Q38" t="s">
-        <v>474</v>
-      </c>
       <c r="R38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S38" s="3">
         <v>42736</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S39" s="3">
         <v>45315</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G40" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" t="s">
         <v>246</v>
       </c>
-      <c r="H40" t="s">
-        <v>247</v>
-      </c>
       <c r="I40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P40" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q40" t="s">
         <v>473</v>
       </c>
-      <c r="Q40" t="s">
-        <v>474</v>
-      </c>
       <c r="R40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S40" s="3">
         <v>43706</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H41" t="s">
         <v>246</v>
       </c>
-      <c r="H41" t="s">
-        <v>247</v>
-      </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P41" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q41" t="s">
         <v>473</v>
       </c>
-      <c r="Q41" t="s">
-        <v>474</v>
-      </c>
       <c r="R41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S41" s="3">
         <v>44445</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G42" t="s">
+        <v>245</v>
+      </c>
+      <c r="H42" t="s">
         <v>246</v>
       </c>
-      <c r="H42" t="s">
-        <v>247</v>
-      </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S42" s="3">
         <v>45246</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S43" s="3">
         <v>42736</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="S44" s="3">
         <v>44204</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S45" s="3">
         <v>44882</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" t="s">
         <v>240</v>
       </c>
-      <c r="G46" t="s">
-        <v>241</v>
-      </c>
       <c r="H46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P46" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q46" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R46" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S46" s="3">
         <v>44866</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S47" s="3">
         <v>44383</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R48" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S48" s="3">
         <v>43544</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P49" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q49" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S49" s="3">
         <v>41948</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S50" s="3">
         <v>43013</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R51" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S51" s="3">
         <v>42816</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R52" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="S52" s="3">
         <v>41942</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P53" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q53" t="s">
         <v>473</v>
       </c>
-      <c r="Q53" t="s">
-        <v>474</v>
-      </c>
       <c r="R53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="S53" s="3">
         <v>41772</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S54" s="3">
         <v>42046</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O55" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="S55" s="3">
         <v>41939</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S56" s="3">
         <v>40295</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N57" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S57" s="3">
         <v>44141</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S58" s="3">
         <v>42025</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N59" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O59" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R59" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S59" s="3">
         <v>41932</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R60" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S60" s="3">
         <v>43061</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N61" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P61" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q61" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="S61" s="3">
         <v>43152</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P62" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q62" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R62" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S62" s="3">
         <v>42914</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S63" s="3">
         <v>42914</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S64" s="3">
         <v>44539</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S65" s="3">
         <v>45398</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S66" s="3">
         <v>45412</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" t="s">
         <v>239</v>
       </c>
-      <c r="G67" t="s">
-        <v>240</v>
-      </c>
       <c r="I67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R67" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S67" s="3">
         <v>45420</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J68" t="s">
+        <v>320</v>
+      </c>
+      <c r="K68" t="s">
         <v>321</v>
       </c>
-      <c r="K68" t="s">
-        <v>322</v>
-      </c>
       <c r="N68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O68" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S68" s="3">
         <v>45307</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P69" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q69" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R69" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S69" s="3">
         <v>44243</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D70">
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O70" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P70" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q70" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S70" s="3">
         <v>45385</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P71" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q71" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S71" s="3">
         <v>42545</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N72" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P72" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q72" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R72" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S72" s="3">
         <v>44653</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P73" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q73" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R73" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S73" s="3">
         <v>45385</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O74" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R74" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="S74" s="3">
         <v>41677</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D75">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K75" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O75" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P75" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q75" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R75" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S75" s="3">
         <v>43481</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K76" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O76" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R76" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="S76" s="3">
         <v>43776</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R77" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S77" s="3">
         <v>44728</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P78" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q78" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R78" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S78" s="3">
         <v>43047</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J79" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P79" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q79" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S79" s="3">
         <v>44591</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N80" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S80" s="3">
         <v>44591</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D81">
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N81" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P81" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q81" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S81" s="3">
         <v>44591</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N82" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P82" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q82" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R82" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S82" s="3">
         <v>44591</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D83">
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N83" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P83" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q83" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R83" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S83" s="3">
         <v>42382</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D84">
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J84" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N84" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R84" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S84" s="3">
         <v>44108</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N85" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P85" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q85" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R85" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S85" s="3">
         <v>44589</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K86" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N86" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P86" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q86" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R86" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S86" s="3">
         <v>45390</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D87">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N87" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P87" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q87" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R87" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S87" s="3">
         <v>45412</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N88" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R88" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S88" s="3">
         <v>45306</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D89">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N89" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R89" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S89" s="3">
         <v>44575</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D90">
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N90" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P90" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q90" t="s">
         <v>473</v>
       </c>
-      <c r="Q90" t="s">
-        <v>474</v>
-      </c>
       <c r="R90" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S90" s="3">
         <v>44526</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I91" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J91" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K91" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N91" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O91" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P91" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q91" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R91" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S91" s="3">
         <v>43993</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N92" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P92" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q92" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R92" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S92" s="3">
         <v>44587</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K93" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P93" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q93" t="s">
         <v>473</v>
       </c>
-      <c r="Q93" t="s">
-        <v>474</v>
-      </c>
       <c r="R93" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S93" s="3">
         <v>43380</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I94" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J94" t="s">
+        <v>332</v>
+      </c>
+      <c r="K94" t="s">
         <v>333</v>
       </c>
-      <c r="K94" t="s">
-        <v>334</v>
-      </c>
       <c r="N94" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O94" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P94" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q94" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R94" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S94" s="3">
         <v>44713</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I95" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J95" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K95" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N95" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P95" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q95" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R95" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S95" s="3">
         <v>44641</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="T2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="T3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="T4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="T5" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="T6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="T7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="T8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="T9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="T10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="T11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="T12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23"/>
-    <hyperlink ref="T13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25"/>
-    <hyperlink ref="T14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27"/>
-    <hyperlink ref="T15" r:id="rId28"/>
-    <hyperlink ref="B16" r:id="rId29"/>
-    <hyperlink ref="T16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31"/>
-    <hyperlink ref="T17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33"/>
-    <hyperlink ref="T18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35"/>
-    <hyperlink ref="T19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="T20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="T21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="T22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="T23" r:id="rId44"/>
-    <hyperlink ref="B24" r:id="rId45"/>
-    <hyperlink ref="T24" r:id="rId46"/>
-    <hyperlink ref="B25" r:id="rId47"/>
-    <hyperlink ref="T25" r:id="rId48"/>
-    <hyperlink ref="B26" r:id="rId49"/>
-    <hyperlink ref="T26" r:id="rId50"/>
-    <hyperlink ref="B27" r:id="rId51"/>
-    <hyperlink ref="T27" r:id="rId52"/>
-    <hyperlink ref="B28" r:id="rId53"/>
-    <hyperlink ref="T28" r:id="rId54"/>
-    <hyperlink ref="B29" r:id="rId55"/>
-    <hyperlink ref="T29" r:id="rId56"/>
-    <hyperlink ref="B30" r:id="rId57"/>
-    <hyperlink ref="T30" r:id="rId58"/>
-    <hyperlink ref="B31" r:id="rId59"/>
-    <hyperlink ref="T31" r:id="rId60"/>
-    <hyperlink ref="B32" r:id="rId61"/>
-    <hyperlink ref="T32" r:id="rId62"/>
-    <hyperlink ref="B33" r:id="rId63"/>
-    <hyperlink ref="T33" r:id="rId64"/>
-    <hyperlink ref="B34" r:id="rId65"/>
-    <hyperlink ref="T34" r:id="rId66"/>
-    <hyperlink ref="B35" r:id="rId67"/>
-    <hyperlink ref="T35" r:id="rId68"/>
-    <hyperlink ref="B36" r:id="rId69"/>
-    <hyperlink ref="T36" r:id="rId70"/>
-    <hyperlink ref="B37" r:id="rId71"/>
-    <hyperlink ref="T37" r:id="rId72"/>
-    <hyperlink ref="B38" r:id="rId73"/>
-    <hyperlink ref="T38" r:id="rId74"/>
-    <hyperlink ref="B39" r:id="rId75"/>
-    <hyperlink ref="T39" r:id="rId76"/>
-    <hyperlink ref="B40" r:id="rId77"/>
-    <hyperlink ref="T40" r:id="rId78"/>
-    <hyperlink ref="B41" r:id="rId79"/>
-    <hyperlink ref="T41" r:id="rId80"/>
-    <hyperlink ref="B42" r:id="rId81"/>
-    <hyperlink ref="T42" r:id="rId82"/>
-    <hyperlink ref="B43" r:id="rId83"/>
-    <hyperlink ref="T43" r:id="rId84"/>
-    <hyperlink ref="B44" r:id="rId85"/>
-    <hyperlink ref="T44" r:id="rId86"/>
-    <hyperlink ref="B45" r:id="rId87"/>
-    <hyperlink ref="T45" r:id="rId88"/>
-    <hyperlink ref="B46" r:id="rId89"/>
-    <hyperlink ref="T46" r:id="rId90"/>
-    <hyperlink ref="B47" r:id="rId91"/>
-    <hyperlink ref="T47" r:id="rId92"/>
-    <hyperlink ref="B48" r:id="rId93"/>
-    <hyperlink ref="T48" r:id="rId94"/>
-    <hyperlink ref="B49" r:id="rId95"/>
-    <hyperlink ref="T49" r:id="rId96"/>
-    <hyperlink ref="B50" r:id="rId97"/>
-    <hyperlink ref="T50" r:id="rId98"/>
-    <hyperlink ref="B51" r:id="rId99"/>
-    <hyperlink ref="T51" r:id="rId100"/>
-    <hyperlink ref="B52" r:id="rId101"/>
-    <hyperlink ref="T52" r:id="rId102"/>
-    <hyperlink ref="B53" r:id="rId103"/>
-    <hyperlink ref="T53" r:id="rId104"/>
-    <hyperlink ref="B54" r:id="rId105"/>
-    <hyperlink ref="T54" r:id="rId106"/>
-    <hyperlink ref="B55" r:id="rId107"/>
-    <hyperlink ref="T55" r:id="rId108"/>
-    <hyperlink ref="B56" r:id="rId109"/>
-    <hyperlink ref="T56" r:id="rId110"/>
-    <hyperlink ref="B57" r:id="rId111"/>
-    <hyperlink ref="T57" r:id="rId112"/>
-    <hyperlink ref="B58" r:id="rId113"/>
-    <hyperlink ref="T58" r:id="rId114"/>
-    <hyperlink ref="B59" r:id="rId115"/>
-    <hyperlink ref="T59" r:id="rId116"/>
-    <hyperlink ref="B60" r:id="rId117"/>
-    <hyperlink ref="T60" r:id="rId118"/>
-    <hyperlink ref="B61" r:id="rId119"/>
-    <hyperlink ref="T61" r:id="rId120"/>
-    <hyperlink ref="B62" r:id="rId121"/>
-    <hyperlink ref="T62" r:id="rId122"/>
-    <hyperlink ref="B63" r:id="rId123"/>
-    <hyperlink ref="T63" r:id="rId124"/>
-    <hyperlink ref="B64" r:id="rId125"/>
-    <hyperlink ref="T64" r:id="rId126"/>
-    <hyperlink ref="B65" r:id="rId127"/>
-    <hyperlink ref="T65" r:id="rId128"/>
-    <hyperlink ref="B66" r:id="rId129"/>
-    <hyperlink ref="T66" r:id="rId130"/>
-    <hyperlink ref="B67" r:id="rId131"/>
-    <hyperlink ref="T67" r:id="rId132"/>
-    <hyperlink ref="B68" r:id="rId133"/>
-    <hyperlink ref="T68" r:id="rId134"/>
-    <hyperlink ref="B69" r:id="rId135"/>
-    <hyperlink ref="T69" r:id="rId136"/>
-    <hyperlink ref="B70" r:id="rId137"/>
-    <hyperlink ref="T70" r:id="rId138"/>
-    <hyperlink ref="B71" r:id="rId139"/>
-    <hyperlink ref="T71" r:id="rId140"/>
-    <hyperlink ref="B72" r:id="rId141"/>
-    <hyperlink ref="T72" r:id="rId142"/>
-    <hyperlink ref="B73" r:id="rId143"/>
-    <hyperlink ref="T73" r:id="rId144"/>
-    <hyperlink ref="B74" r:id="rId145"/>
-    <hyperlink ref="T74" r:id="rId146"/>
-    <hyperlink ref="B75" r:id="rId147"/>
-    <hyperlink ref="T75" r:id="rId148"/>
-    <hyperlink ref="B76" r:id="rId149"/>
-    <hyperlink ref="T76" r:id="rId150"/>
-    <hyperlink ref="B77" r:id="rId151"/>
-    <hyperlink ref="T77" r:id="rId152"/>
-    <hyperlink ref="B78" r:id="rId153"/>
-    <hyperlink ref="T78" r:id="rId154"/>
-    <hyperlink ref="B79" r:id="rId155"/>
-    <hyperlink ref="T79" r:id="rId156"/>
-    <hyperlink ref="B80" r:id="rId157"/>
-    <hyperlink ref="T80" r:id="rId158"/>
-    <hyperlink ref="B81" r:id="rId159"/>
-    <hyperlink ref="T81" r:id="rId160"/>
-    <hyperlink ref="B82" r:id="rId161"/>
-    <hyperlink ref="T82" r:id="rId162"/>
-    <hyperlink ref="B83" r:id="rId163"/>
-    <hyperlink ref="T83" r:id="rId164"/>
-    <hyperlink ref="B84" r:id="rId165"/>
-    <hyperlink ref="T84" r:id="rId166"/>
-    <hyperlink ref="B85" r:id="rId167"/>
-    <hyperlink ref="T85" r:id="rId168"/>
-    <hyperlink ref="B86" r:id="rId169"/>
-    <hyperlink ref="T86" r:id="rId170"/>
-    <hyperlink ref="B87" r:id="rId171"/>
-    <hyperlink ref="T87" r:id="rId172"/>
-    <hyperlink ref="B88" r:id="rId173"/>
-    <hyperlink ref="T88" r:id="rId174"/>
-    <hyperlink ref="B89" r:id="rId175"/>
-    <hyperlink ref="T89" r:id="rId176"/>
-    <hyperlink ref="B90" r:id="rId177"/>
-    <hyperlink ref="T90" r:id="rId178"/>
-    <hyperlink ref="B91" r:id="rId179"/>
-    <hyperlink ref="T91" r:id="rId180"/>
-    <hyperlink ref="B92" r:id="rId181"/>
-    <hyperlink ref="T92" r:id="rId182"/>
-    <hyperlink ref="B93" r:id="rId183"/>
-    <hyperlink ref="T93" r:id="rId184"/>
-    <hyperlink ref="B94" r:id="rId185"/>
-    <hyperlink ref="T94" r:id="rId186"/>
-    <hyperlink ref="B95" r:id="rId187"/>
-    <hyperlink ref="T95" r:id="rId188"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="T3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="T4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="T5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="T7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="T8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="T9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="T10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="T11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="T12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="T13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="T14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="T15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="T16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="T17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="T18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="T19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="T20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="T21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="T22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="T23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="T24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="T25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="T26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="T27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="T28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="T29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="T30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="T31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="T32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="T33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="T34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="T35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="T36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="T37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="T38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="T39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="T40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="T41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="T42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="T43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="T44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="T45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="T46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="T47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="T48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="T49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="T50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="T51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="T52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="T53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="T54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="T55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="T56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="T57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="T58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="T59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="T60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="T61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="T62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="T63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="T64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="T65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="T66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="T67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="T68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="T69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="T70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="T71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="T72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="T73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="T74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="T75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="T76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="T77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="T78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="T79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="T80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="T81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="T82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="T83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="T84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="T85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="T86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="T87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="T88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="T89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="T90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="T91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="T92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="T93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B94" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="T94" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B95" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="T95" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\conferences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03915F07-5797-46D2-84C3-C3494C91BE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06757F4-689E-4E32-B6F8-C5A3010D6FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="105" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$95</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="671">
   <si>
     <t>video_id</t>
   </si>
@@ -364,6 +361,12 @@
     <t>https://www.youtube.com/watch?v=MvZkdD6J5vY</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HKmKi-2FXWU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MilmmZ0yCGoq</t>
+  </si>
+  <si>
     <t>Le goût du vrai</t>
   </si>
   <si>
@@ -643,6 +646,12 @@
     <t>La beauté : Pourquoi en avons-nous plus que jamais besoin ?</t>
   </si>
   <si>
+    <t>Les désordres du temps</t>
+  </si>
+  <si>
+    <t>Blaise Pascal, un génie Clermontois</t>
+  </si>
+  <si>
     <t>Etienne Klein</t>
   </si>
   <si>
@@ -910,9 +919,6 @@
     <t>Le CERN</t>
   </si>
   <si>
-    <t>L'art</t>
-  </si>
-  <si>
     <t>Le jazz</t>
   </si>
   <si>
@@ -949,6 +955,9 @@
     <t>Le beau</t>
   </si>
   <si>
+    <t>Histoire de vie</t>
+  </si>
+  <si>
     <t>La politique</t>
   </si>
   <si>
@@ -988,9 +997,6 @@
     <t>Blaise Pascale</t>
   </si>
   <si>
-    <t>Histoire de vie</t>
-  </si>
-  <si>
     <t>La cryptographie quantique</t>
   </si>
   <si>
@@ -1027,6 +1033,12 @@
     <t>L'esthétique</t>
   </si>
   <si>
+    <t>L'ordre</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
     <t>Darwin</t>
   </si>
   <si>
@@ -1066,6 +1078,9 @@
     <t>Philosophie de l'art</t>
   </si>
   <si>
+    <t>Philsophie des sciences</t>
+  </si>
+  <si>
     <t>Einstein</t>
   </si>
   <si>
@@ -1297,6 +1312,9 @@
     <t>00:06:26</t>
   </si>
   <si>
+    <t>00:03:17</t>
+  </si>
+  <si>
     <t>01:20:31</t>
   </si>
   <si>
@@ -1726,6 +1744,12 @@
     <t>01:29:13</t>
   </si>
   <si>
+    <t>00:59:09</t>
+  </si>
+  <si>
+    <t>01:35:04</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/2byu0bYPj0c/hq720.jpg</t>
   </si>
   <si>
@@ -2003,6 +2027,12 @@
   </si>
   <si>
     <t>https://i.ytimg.com/vi/MvZkdD6J5vY/hq720.jpg?sqp=-oaymwEmCIAKENAF8quKqQMa8AEB-AH-CYAC0AWKAgwIABABGF8gXyhfMA8=&amp;rs=AOn4CLDyTarguNTDehXEyB0d7x7yLmWDng</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/HKmKi-2FXWU/hqdefault.jpg?sqp=-oaymwExCJADEOABSFryq4qpAyMIARUAAIhCGAHwAQH4Af4JgALQBYoCDAgAEAEYZSBlKFowDw==&amp;rs=AOn4CLAuSX3eeJH1SVInWLryRG0B4N_qpA</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/MilmmZ0yCGo/hq720.jpg</t>
   </si>
 </sst>
 </file>
@@ -2387,17 +2417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2469,49 +2495,49 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="O2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="P2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="S2" s="3">
         <v>44144</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2522,49 +2548,49 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="O3" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="P3" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q3" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R3" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="S3" s="3">
         <v>42516</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -2575,49 +2601,49 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="O4" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="P4" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q4" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R4" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="S4" s="3">
         <v>42541</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2628,46 +2654,46 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N5" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="O5" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="P5" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q5" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R5" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="S5" s="3">
         <v>42420</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2678,46 +2704,46 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N6" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="O6" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="P6" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q6" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R6" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="S6" s="3">
         <v>44691</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2728,49 +2754,49 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="N7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="O7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="P7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="S7" s="3">
         <v>41729</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2781,52 +2807,52 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N8" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="O8" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="P8" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q8" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R8" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="S8" s="3">
         <v>45281</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2837,55 +2863,55 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="O9" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P9" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q9" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R9" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="S9" s="3">
         <v>45041</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2896,46 +2922,46 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N10" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P10" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q10" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R10" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="S10" s="3">
         <v>43369</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2946,46 +2972,46 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N11" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="O11" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="P11" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q11" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R11" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="S11" s="3">
         <v>41939</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2996,46 +3022,46 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N12" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="O12" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="P12" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q12" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R12" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="S12" s="3">
         <v>45349</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -3046,49 +3072,49 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I13" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K13" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N13" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="O13" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="P13" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q13" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R13" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="S13" s="3">
         <v>41813</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3099,43 +3125,43 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I14" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J14" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N14" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P14" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q14" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="R14" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="S14" s="3">
         <v>39532</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3146,43 +3172,43 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I15" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J15" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P15" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="Q15" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R15" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="S15" s="3">
         <v>41966</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3193,43 +3219,43 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N16" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P16" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q16" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R16" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="S16" s="3">
         <v>43404</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -3240,43 +3266,43 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I17" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J17" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N17" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P17" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q17" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R17" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="S17" s="3">
         <v>45232</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -3287,46 +3313,46 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I18" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K18" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N18" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P18" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q18" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R18" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="S18" s="3">
         <v>45351</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -3337,46 +3363,46 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J19" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N19" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="O19" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="P19" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q19" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R19" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="S19" s="3">
         <v>44540</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -3387,46 +3413,46 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H20" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N20" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="O20" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P20" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q20" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R20" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="S20" s="3">
         <v>42997</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3437,49 +3463,49 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H21" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I21" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J21" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N21" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="O21" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="P21" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q21" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R21" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="S21" s="3">
         <v>42852</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3490,43 +3516,43 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N22" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P22" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q22" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="R22" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="S22" s="3">
         <v>43643</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -3537,49 +3563,49 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I23" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J23" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N23" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="O23" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="P23" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q23" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R23" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="S23" s="3">
         <v>40813</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -3590,43 +3616,43 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J24" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N24" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P24" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q24" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R24" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="S24" s="3">
         <v>43019</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3637,43 +3663,43 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H25" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I25" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N25" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P25" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q25" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R25" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="S25" s="3">
         <v>42860</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3684,52 +3710,52 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I26" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J26" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K26" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N26" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="O26" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="P26" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q26" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R26" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="S26" s="3">
         <v>42791</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3740,43 +3766,43 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N27" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P27" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="Q27" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R27" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="S27" s="3">
         <v>42739</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3787,43 +3813,43 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I28" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J28" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N28" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P28" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q28" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R28" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="S28" s="3">
         <v>43021</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3834,46 +3860,46 @@
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I29" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N29" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="O29" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="P29" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q29" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R29" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="S29" s="3">
         <v>43298</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3884,52 +3910,52 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H30" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K30" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="O30" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="P30" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q30" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R30" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="S30" s="3">
         <v>43426</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3940,46 +3966,46 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H31" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N31" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P31" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q31" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R31" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="S31" s="3">
         <v>43448</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3990,43 +4016,43 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P32" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q32" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R32" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="S32" s="3">
         <v>43580</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -4037,46 +4063,46 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H33" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P33" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q33" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R33" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="S33" s="3">
         <v>43652</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -4087,43 +4113,43 @@
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P34" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q34" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R34" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="S34" s="3">
         <v>43838</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -4134,49 +4160,49 @@
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I35" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
+        <v>316</v>
+      </c>
+      <c r="K35" t="s">
         <v>312</v>
       </c>
-      <c r="K35" t="s">
-        <v>308</v>
-      </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N35" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P35" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q35" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R35" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="S35" s="3">
         <v>43869</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -4187,52 +4213,52 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N36" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O36" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="P36" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q36" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R36" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="S36" s="3">
         <v>44893</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -4243,46 +4269,46 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I37" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N37" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="P37" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q37" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R37" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="S37" s="3">
         <v>44972</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4293,43 +4319,43 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I38" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="J38" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N38" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P38" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q38" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R38" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="S38" s="3">
         <v>42736</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -4340,46 +4366,46 @@
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G39" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H39" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N39" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P39" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q39" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R39" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="S39" s="3">
         <v>45315</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4390,49 +4416,49 @@
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I40" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J40" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N40" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="O40" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="P40" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q40" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R40" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="S40" s="3">
         <v>43706</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4443,49 +4469,49 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G41" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I41" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J41" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N41" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="O41" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="P41" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q41" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R41" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="S41" s="3">
         <v>44445</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -4496,40 +4522,40 @@
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H42" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I42" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J42" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N42" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="R42" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="S42" s="3">
         <v>45246</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -4540,49 +4566,49 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F43" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G43" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H43" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I43" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J43" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N43" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P43" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q43" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R43" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="S43" s="3">
         <v>42736</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -4593,52 +4619,52 @@
         <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H44" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I44" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J44" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K44" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N44" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="O44" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P44" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q44" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R44" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="S44" s="3">
         <v>44204</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -4649,49 +4675,49 @@
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G45" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H45" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I45" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J45" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N45" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="O45" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="P45" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q45" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R45" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="S45" s="3">
         <v>44882</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -4702,46 +4728,46 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H46" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I46" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J46" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N46" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P46" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q46" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R46" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="S46" s="3">
         <v>44866</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4752,46 +4778,46 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I47" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J47" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="N47" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="O47" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="P47" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q47" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R47" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="S47" s="3">
         <v>44383</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4802,43 +4828,43 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I48" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J48" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N48" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P48" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q48" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R48" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="S48" s="3">
         <v>43544</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4849,43 +4875,43 @@
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F49" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G49" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I49" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N49" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="O49" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P49" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q49" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R49" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="S49" s="3">
         <v>41948</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4896,46 +4922,46 @@
         <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F50" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G50" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I50" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="J50" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N50" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="O50" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="P50" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q50" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R50" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="S50" s="3">
         <v>43013</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4946,46 +4972,46 @@
         <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G51" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I51" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J51" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N51" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="O51" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P51" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q51" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R51" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="S51" s="3">
         <v>42816</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -4996,43 +5022,43 @@
         <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F52" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I52" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N52" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="O52" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="P52" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q52" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R52" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="S52" s="3">
         <v>41942</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -5043,43 +5069,43 @@
         <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F53" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G53" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I53" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N53" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="P53" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q53" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R53" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="S53" s="3">
         <v>41772</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -5090,46 +5116,46 @@
         <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G54" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I54" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J54" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N54" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="O54" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P54" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q54" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R54" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="S54" s="3">
         <v>42046</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -5140,46 +5166,46 @@
         <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F55" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G55" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I55" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J55" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N55" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="O55" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="P55" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q55" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R55" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="S55" s="3">
         <v>41939</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -5190,43 +5216,43 @@
         <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F56" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G56" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I56" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N56" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O56" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P56" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q56" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R56" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="S56" s="3">
         <v>40295</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -5237,40 +5263,40 @@
         <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I57" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N57" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P57" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q57" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R57" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="S57" s="3">
         <v>44141</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5281,43 +5307,43 @@
         <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F58" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G58" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I58" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N58" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="O58" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="P58" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q58" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R58" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="S58" s="3">
         <v>42025</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -5328,46 +5354,46 @@
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F59" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G59" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I59" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J59" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N59" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="O59" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="P59" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q59" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R59" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="S59" s="3">
         <v>41932</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -5378,46 +5404,46 @@
         <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I60" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J60" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="N60" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="O60" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="P60" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q60" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R60" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="S60" s="3">
         <v>43061</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5428,43 +5454,43 @@
         <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F61" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G61" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I61" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N61" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="O61" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="P61" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q61" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R61" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="S61" s="3">
         <v>43152</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -5475,43 +5501,43 @@
         <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F62" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G62" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I62" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J62" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N62" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P62" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q62" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R62" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="S62" s="3">
         <v>42914</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5522,43 +5548,43 @@
         <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G63" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I63" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J63" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N63" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P63" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q63" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R63" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="S63" s="3">
         <v>42914</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -5569,40 +5595,40 @@
         <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I64" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N64" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P64" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q64" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R64" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="S64" s="3">
         <v>44539</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -5613,43 +5639,43 @@
         <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F65" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G65" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I65" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N65" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="O65" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P65" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q65" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R65" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="S65" s="3">
         <v>45398</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5660,43 +5686,43 @@
         <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F66" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G66" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I66" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J66" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N66" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P66" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q66" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R66" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="S66" s="3">
         <v>45412</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -5707,49 +5733,49 @@
         <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F67" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I67" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J67" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K67" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N67" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="O67" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="P67" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q67" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R67" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="S67" s="3">
         <v>45420</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -5760,49 +5786,49 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F68" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I68" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J68" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K68" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="N68" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="O68" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="P68" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q68" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R68" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="S68" s="3">
         <v>45307</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5813,49 +5839,49 @@
         <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F69" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I69" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J69" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K69" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N69" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="O69" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="P69" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q69" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R69" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="S69" s="3">
         <v>44243</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5866,43 +5892,43 @@
         <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F70" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G70" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I70" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N70" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="O70" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="P70" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q70" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R70" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S70" s="3">
         <v>45385</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -5913,43 +5939,43 @@
         <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F71" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G71" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I71" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="N71" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="O71" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="P71" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q71" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R71" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="S71" s="3">
         <v>42545</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -5960,49 +5986,49 @@
         <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F72" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I72" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="J72" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K72" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L72" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N72" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P72" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q72" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R72" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="S72" s="3">
         <v>44653</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -6013,43 +6039,43 @@
         <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F73" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G73" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I73" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N73" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="O73" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="P73" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q73" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R73" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S73" s="3">
         <v>45385</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -6060,49 +6086,49 @@
         <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F74" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I74" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J74" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K74" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N74" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="O74" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="P74" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q74" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R74" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="S74" s="3">
         <v>41677</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -6113,52 +6139,52 @@
         <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F75" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G75" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I75" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J75" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K75" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L75" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N75" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="O75" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="P75" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q75" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R75" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="S75" s="3">
         <v>43481</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -6169,52 +6195,49 @@
         <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F76" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G76" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H76" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I76" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="J76" t="s">
-        <v>323</v>
-      </c>
-      <c r="K76" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="N76" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="O76" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="P76" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q76" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R76" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="S76" s="3">
         <v>43776</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -6225,43 +6248,43 @@
         <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F77" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G77" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I77" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J77" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N77" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P77" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q77" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R77" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="S77" s="3">
         <v>44728</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -6272,43 +6295,43 @@
         <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F78" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G78" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I78" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J78" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N78" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P78" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q78" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R78" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="S78" s="3">
         <v>43047</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -6319,49 +6342,49 @@
         <v>96</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F79" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H79" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I79" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J79" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K79" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N79" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P79" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q79" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R79" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="S79" s="3">
         <v>44591</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -6372,43 +6395,43 @@
         <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F80" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I80" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J80" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N80" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P80" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q80" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R80" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S80" s="3">
         <v>44591</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -6419,46 +6442,46 @@
         <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F81" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G81" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I81" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J81" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K81" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="N81" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P81" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q81" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R81" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="S81" s="3">
         <v>44591</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -6469,46 +6492,46 @@
         <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F82" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G82" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I82" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J82" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K82" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N82" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P82" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q82" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R82" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="S82" s="3">
         <v>44591</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -6519,49 +6542,49 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F83" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G83" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I83" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J83" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K83" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L83" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N83" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P83" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q83" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R83" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="S83" s="3">
         <v>42382</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -6572,49 +6595,49 @@
         <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F84" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G84" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I84" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J84" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K84" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L84" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="N84" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P84" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q84" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R84" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="S84" s="3">
         <v>44108</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -6625,46 +6648,46 @@
         <v>102</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G85" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I85" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J85" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K85" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N85" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P85" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q85" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R85" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="S85" s="3">
         <v>44589</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -6675,49 +6698,49 @@
         <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F86" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G86" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I86" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J86" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K86" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L86" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="N86" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="P86" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q86" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R86" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="S86" s="3">
         <v>45390</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -6728,43 +6751,43 @@
         <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F87" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G87" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I87" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J87" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N87" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P87" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q87" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R87" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="S87" s="3">
         <v>45412</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -6775,46 +6798,46 @@
         <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F88" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G88" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H88" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I88" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J88" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N88" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="P88" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q88" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R88" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="S88" s="3">
         <v>45306</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -6825,40 +6848,40 @@
         <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F89" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G89" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I89" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N89" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P89" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q89" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R89" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="S89" s="3">
         <v>44575</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -6869,46 +6892,46 @@
         <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F90" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G90" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H90" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I90" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J90" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N90" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P90" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q90" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R90" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="S90" s="3">
         <v>44526</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -6919,49 +6942,49 @@
         <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F91" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G91" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I91" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J91" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K91" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="N91" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="O91" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P91" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q91" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R91" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="S91" s="3">
         <v>43993</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -6972,43 +6995,43 @@
         <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F92" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G92" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I92" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J92" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N92" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P92" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q92" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R92" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="S92" s="3">
         <v>44587</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -7019,49 +7042,49 @@
         <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F93" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G93" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H93" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I93" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J93" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K93" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N93" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P93" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q93" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="R93" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="S93" s="3">
         <v>43380</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -7072,52 +7095,52 @@
         <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F94" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G94" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H94" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I94" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J94" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K94" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N94" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="O94" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="P94" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q94" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R94" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="S94" s="3">
         <v>44713</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -7128,52 +7151,155 @@
         <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F95" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G95" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H95" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I95" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J95" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K95" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="N95" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="O95" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="P95" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q95" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R95" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="S95" s="3">
         <v>44641</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>659</v>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>215</v>
+      </c>
+      <c r="F96" t="s">
+        <v>242</v>
+      </c>
+      <c r="G96" t="s">
+        <v>244</v>
+      </c>
+      <c r="H96" t="s">
+        <v>248</v>
+      </c>
+      <c r="I96" t="s">
+        <v>135</v>
+      </c>
+      <c r="J96" t="s">
+        <v>337</v>
+      </c>
+      <c r="K96" t="s">
+        <v>352</v>
+      </c>
+      <c r="N96" t="s">
+        <v>389</v>
+      </c>
+      <c r="P96" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>479</v>
+      </c>
+      <c r="R96" t="s">
+        <v>574</v>
+      </c>
+      <c r="S96" s="3">
+        <v>45400</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>221</v>
+      </c>
+      <c r="F97" t="s">
+        <v>242</v>
+      </c>
+      <c r="G97" t="s">
+        <v>251</v>
+      </c>
+      <c r="I97" t="s">
+        <v>311</v>
+      </c>
+      <c r="J97" t="s">
+        <v>338</v>
+      </c>
+      <c r="K97" t="s">
+        <v>290</v>
+      </c>
+      <c r="N97" t="s">
+        <v>430</v>
+      </c>
+      <c r="P97" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>479</v>
+      </c>
+      <c r="R97" t="s">
+        <v>575</v>
+      </c>
+      <c r="S97" s="3">
+        <v>44963</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -7366,6 +7492,10 @@
     <hyperlink ref="T94" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
     <hyperlink ref="B95" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
     <hyperlink ref="T95" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B96" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="T96" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B97" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="T97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
